--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988E53D-CB4F-47DE-BFDE-48EAE83FB1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF081F0-8B5A-4CE3-BFAD-CBE6E5C4D306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="204">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -736,10 +736,13 @@
     <t>description</t>
   </si>
   <si>
-    <t>summary from pivots</t>
+    <t>this costs should be higher than the ones for 2030</t>
   </si>
   <si>
-    <t>this costs should be higher than the ones for 2030</t>
+    <t>summary from pivot tables</t>
+  </si>
+  <si>
+    <t>fuel costs from traderes tables node and node2020. This data is used to estimate loans of installed power plants</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +824,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -893,6 +908,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6623,7 +6641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -6674,13 +6694,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:D646"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17096,13 +17113,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:F351"/>
   <sheetViews>
     <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25744,17 +25758,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="81.5">
@@ -25967,25 +25981,36 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="17" t="s">
         <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -26001,7 +26026,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27244,7 +27269,9 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -27469,31 +27496,8 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="11">
-        <f>15102/21</f>
-        <v>719.14285714285711</v>
-      </c>
-      <c r="C7">
-        <v>0.9</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11">
-        <v>540</v>
-      </c>
-      <c r="H7">
-        <v>1.8</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="11"/>
@@ -27569,19 +27573,20 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:DI57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="9" width="23.08984375" customWidth="1"/>
+    <col min="2" max="13" width="23.08984375" customWidth="1"/>
+    <col min="25" max="113" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:113">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -27609,38 +27614,53 @@
       <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>126</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1">
+      <c r="Y1" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:113" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -27668,17 +27688,106 @@
       <c r="I2" s="9">
         <v>25</v>
       </c>
-      <c r="K2" s="9">
+      <c r="O2" s="9">
         <v>0.15</v>
       </c>
-      <c r="M2" s="9">
+      <c r="Q2" s="9">
         <v>21</v>
       </c>
-      <c r="R2" s="9">
+      <c r="V2" s="9">
         <v>39.369999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+    </row>
+    <row r="3" spans="1:113">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -27706,17 +27815,17 @@
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>0.15</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>21</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>39.369999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:113">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -27729,11 +27838,11 @@
       <c r="I4">
         <v>30</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:113">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -27746,11 +27855,11 @@
       <c r="I5">
         <v>20</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:113">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -27763,11 +27872,11 @@
       <c r="I6">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:113">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -27780,11 +27889,11 @@
       <c r="I7">
         <v>18</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1">
+    <row r="8" spans="1:113" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -27812,17 +27921,106 @@
       <c r="I8" s="9">
         <v>25</v>
       </c>
-      <c r="K8" s="9">
+      <c r="O8" s="9">
         <v>0.4</v>
       </c>
-      <c r="M8" s="9">
+      <c r="Q8" s="9">
         <v>14</v>
       </c>
-      <c r="R8" s="9">
+      <c r="V8" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="9" customFormat="1">
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="8"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="8"/>
+      <c r="CM8" s="8"/>
+      <c r="CN8" s="8"/>
+      <c r="CO8" s="8"/>
+      <c r="CP8" s="8"/>
+      <c r="CQ8" s="8"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="8"/>
+      <c r="CT8" s="8"/>
+      <c r="CU8" s="8"/>
+      <c r="CV8" s="8"/>
+      <c r="CW8" s="8"/>
+      <c r="CX8" s="8"/>
+      <c r="CY8" s="8"/>
+      <c r="CZ8" s="8"/>
+      <c r="DA8" s="8"/>
+      <c r="DB8" s="8"/>
+      <c r="DC8" s="8"/>
+      <c r="DD8" s="8"/>
+      <c r="DE8" s="8"/>
+      <c r="DF8" s="8"/>
+      <c r="DG8" s="8"/>
+      <c r="DH8" s="8"/>
+      <c r="DI8" s="8"/>
+    </row>
+    <row r="9" spans="1:113" s="9" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -27850,17 +28048,106 @@
       <c r="I9" s="9">
         <v>25</v>
       </c>
-      <c r="K9" s="9">
+      <c r="O9" s="9">
         <v>0.4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="Q9" s="9">
         <v>14</v>
       </c>
-      <c r="R9" s="9">
+      <c r="V9" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="8"/>
+      <c r="CB9" s="8"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
+      <c r="CI9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+      <c r="CM9" s="8"/>
+      <c r="CN9" s="8"/>
+      <c r="CO9" s="8"/>
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="8"/>
+      <c r="CR9" s="8"/>
+      <c r="CS9" s="8"/>
+      <c r="CT9" s="8"/>
+      <c r="CU9" s="8"/>
+      <c r="CV9" s="8"/>
+      <c r="CW9" s="8"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="CZ9" s="8"/>
+      <c r="DA9" s="8"/>
+      <c r="DB9" s="8"/>
+      <c r="DC9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8"/>
+      <c r="DI9" s="8"/>
+    </row>
+    <row r="10" spans="1:113">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -27888,17 +28175,17 @@
       <c r="I10">
         <v>25</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>0.4</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:113">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -27914,11 +28201,11 @@
       <c r="H11">
         <v>20</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:113">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -27940,11 +28227,11 @@
       <c r="I12">
         <v>30</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:113">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -27966,11 +28253,11 @@
       <c r="I13">
         <v>30</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:113">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -27983,11 +28270,11 @@
       <c r="D14">
         <v>1.0629999999999999</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:113">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -28003,14 +28290,14 @@
       <c r="I15">
         <v>20</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>21</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:113">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -28020,11 +28307,11 @@
       <c r="D16">
         <v>9.5</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>173.06666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:113">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -28046,11 +28333,11 @@
       <c r="I17">
         <v>60</v>
       </c>
-      <c r="R17">
+      <c r="V17">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="9" customFormat="1">
+    <row r="18" spans="1:113" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -28072,11 +28359,100 @@
       <c r="I18" s="9">
         <v>60</v>
       </c>
-      <c r="R18" s="9">
+      <c r="V18" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8"/>
+      <c r="BK18" s="8"/>
+      <c r="BL18" s="8"/>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="8"/>
+      <c r="BO18" s="8"/>
+      <c r="BP18" s="8"/>
+      <c r="BQ18" s="8"/>
+      <c r="BR18" s="8"/>
+      <c r="BS18" s="8"/>
+      <c r="BT18" s="8"/>
+      <c r="BU18" s="8"/>
+      <c r="BV18" s="8"/>
+      <c r="BW18" s="8"/>
+      <c r="BX18" s="8"/>
+      <c r="BY18" s="8"/>
+      <c r="BZ18" s="8"/>
+      <c r="CA18" s="8"/>
+      <c r="CB18" s="8"/>
+      <c r="CC18" s="8"/>
+      <c r="CD18" s="8"/>
+      <c r="CE18" s="8"/>
+      <c r="CF18" s="8"/>
+      <c r="CG18" s="8"/>
+      <c r="CH18" s="8"/>
+      <c r="CI18" s="8"/>
+      <c r="CJ18" s="8"/>
+      <c r="CK18" s="8"/>
+      <c r="CL18" s="8"/>
+      <c r="CM18" s="8"/>
+      <c r="CN18" s="8"/>
+      <c r="CO18" s="8"/>
+      <c r="CP18" s="8"/>
+      <c r="CQ18" s="8"/>
+      <c r="CR18" s="8"/>
+      <c r="CS18" s="8"/>
+      <c r="CT18" s="8"/>
+      <c r="CU18" s="8"/>
+      <c r="CV18" s="8"/>
+      <c r="CW18" s="8"/>
+      <c r="CX18" s="8"/>
+      <c r="CY18" s="8"/>
+      <c r="CZ18" s="8"/>
+      <c r="DA18" s="8"/>
+      <c r="DB18" s="8"/>
+      <c r="DC18" s="8"/>
+      <c r="DD18" s="8"/>
+      <c r="DE18" s="8"/>
+      <c r="DF18" s="8"/>
+      <c r="DG18" s="8"/>
+      <c r="DH18" s="8"/>
+      <c r="DI18" s="8"/>
+    </row>
+    <row r="19" spans="1:113">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -28098,11 +28474,11 @@
       <c r="I19">
         <v>60</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:113">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -28124,11 +28500,11 @@
       <c r="I20">
         <v>60</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:113">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -28156,17 +28532,17 @@
       <c r="I21">
         <v>25</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>0.4</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>21</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:113">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -28194,17 +28570,17 @@
       <c r="I22">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>0.4</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>21</v>
       </c>
-      <c r="R22">
+      <c r="V22">
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:113">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -28232,17 +28608,17 @@
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>0.05</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="V23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:113">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -28270,17 +28646,17 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>0.05</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:113">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -28308,17 +28684,17 @@
       <c r="I25">
         <v>25</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>0.15</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>2.8</v>
       </c>
-      <c r="R25">
+      <c r="V25">
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:113">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -28346,17 +28722,17 @@
       <c r="I26">
         <v>25</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>0.15</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>2.8</v>
       </c>
-      <c r="R26">
+      <c r="V26">
         <v>5.25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:113">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -28384,20 +28760,20 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>0.25</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>7</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>10</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:113">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -28425,20 +28801,20 @@
       <c r="I28">
         <v>25</v>
       </c>
-      <c r="K28">
+      <c r="O28">
         <v>0.25</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>7</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>10</v>
       </c>
-      <c r="R28">
+      <c r="V28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:113">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -28466,17 +28842,17 @@
       <c r="I29">
         <v>30</v>
       </c>
-      <c r="K29">
+      <c r="O29">
         <v>0.2</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>14</v>
       </c>
-      <c r="R29">
+      <c r="V29">
         <v>13.1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:113">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -28504,17 +28880,17 @@
       <c r="I30">
         <v>30</v>
       </c>
-      <c r="K30">
+      <c r="O30">
         <v>0.2</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>14</v>
       </c>
-      <c r="R30">
+      <c r="V30">
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:113">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -28542,17 +28918,17 @@
       <c r="I31">
         <v>30</v>
       </c>
-      <c r="K31">
+      <c r="O31">
         <v>0.2</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>14</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:113">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -28580,17 +28956,17 @@
       <c r="I32">
         <v>30</v>
       </c>
-      <c r="K32">
+      <c r="O32">
         <v>0.2</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>14</v>
       </c>
-      <c r="R32">
+      <c r="V32">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:113">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -28618,20 +28994,20 @@
       <c r="I33">
         <v>25</v>
       </c>
-      <c r="K33">
+      <c r="O33">
         <v>0.25</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>7</v>
       </c>
-      <c r="Q33">
+      <c r="U33">
         <v>10</v>
       </c>
-      <c r="R33">
+      <c r="V33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:113">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -28659,20 +29035,20 @@
       <c r="I34">
         <v>25</v>
       </c>
-      <c r="K34">
+      <c r="O34">
         <v>0.25</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>7</v>
       </c>
-      <c r="Q34">
+      <c r="U34">
         <v>10</v>
       </c>
-      <c r="R34">
+      <c r="V34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:113">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -28700,17 +29076,17 @@
       <c r="I35">
         <v>20</v>
       </c>
-      <c r="K35">
+      <c r="O35">
         <v>0.25</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>3.5</v>
       </c>
-      <c r="R35">
+      <c r="V35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:113">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -28735,23 +29111,23 @@
       <c r="H36">
         <v>20</v>
       </c>
-      <c r="J36">
+      <c r="N36">
         <v>24</v>
       </c>
-      <c r="K36">
+      <c r="O36">
         <v>0.4</v>
       </c>
-      <c r="L36">
+      <c r="P36">
         <v>24</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="R36">
+      <c r="V36">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:113">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -28776,23 +29152,23 @@
       <c r="H37">
         <v>20</v>
       </c>
-      <c r="J37">
+      <c r="N37">
         <v>24</v>
       </c>
-      <c r="K37">
+      <c r="O37">
         <v>0.4</v>
       </c>
-      <c r="L37">
+      <c r="P37">
         <v>24</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="R37">
+      <c r="V37">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="9" customFormat="1">
+    <row r="38" spans="1:113" s="9" customFormat="1">
       <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
@@ -28817,29 +29193,118 @@
       <c r="H38" s="9">
         <v>20</v>
       </c>
-      <c r="J38" s="9">
+      <c r="N38" s="9">
         <v>24</v>
       </c>
-      <c r="K38" s="9">
+      <c r="O38" s="9">
         <v>0.4</v>
       </c>
-      <c r="L38" s="9">
+      <c r="P38" s="9">
         <v>24</v>
       </c>
-      <c r="N38" s="9">
+      <c r="R38" s="9">
         <v>4.07</v>
       </c>
-      <c r="O38" s="9">
+      <c r="S38" s="9">
         <v>63</v>
       </c>
-      <c r="P38" s="9">
+      <c r="T38" s="9">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="R38" s="9">
+      <c r="V38" s="9">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="8"/>
+      <c r="BK38" s="8"/>
+      <c r="BL38" s="8"/>
+      <c r="BM38" s="8"/>
+      <c r="BN38" s="8"/>
+      <c r="BO38" s="8"/>
+      <c r="BP38" s="8"/>
+      <c r="BQ38" s="8"/>
+      <c r="BR38" s="8"/>
+      <c r="BS38" s="8"/>
+      <c r="BT38" s="8"/>
+      <c r="BU38" s="8"/>
+      <c r="BV38" s="8"/>
+      <c r="BW38" s="8"/>
+      <c r="BX38" s="8"/>
+      <c r="BY38" s="8"/>
+      <c r="BZ38" s="8"/>
+      <c r="CA38" s="8"/>
+      <c r="CB38" s="8"/>
+      <c r="CC38" s="8"/>
+      <c r="CD38" s="8"/>
+      <c r="CE38" s="8"/>
+      <c r="CF38" s="8"/>
+      <c r="CG38" s="8"/>
+      <c r="CH38" s="8"/>
+      <c r="CI38" s="8"/>
+      <c r="CJ38" s="8"/>
+      <c r="CK38" s="8"/>
+      <c r="CL38" s="8"/>
+      <c r="CM38" s="8"/>
+      <c r="CN38" s="8"/>
+      <c r="CO38" s="8"/>
+      <c r="CP38" s="8"/>
+      <c r="CQ38" s="8"/>
+      <c r="CR38" s="8"/>
+      <c r="CS38" s="8"/>
+      <c r="CT38" s="8"/>
+      <c r="CU38" s="8"/>
+      <c r="CV38" s="8"/>
+      <c r="CW38" s="8"/>
+      <c r="CX38" s="8"/>
+      <c r="CY38" s="8"/>
+      <c r="CZ38" s="8"/>
+      <c r="DA38" s="8"/>
+      <c r="DB38" s="8"/>
+      <c r="DC38" s="8"/>
+      <c r="DD38" s="8"/>
+      <c r="DE38" s="8"/>
+      <c r="DF38" s="8"/>
+      <c r="DG38" s="8"/>
+      <c r="DH38" s="8"/>
+      <c r="DI38" s="8"/>
+    </row>
+    <row r="39" spans="1:113">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -28864,29 +29329,29 @@
       <c r="H39">
         <v>20</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>24</v>
       </c>
-      <c r="K39">
+      <c r="O39">
         <v>0.4</v>
       </c>
-      <c r="L39">
+      <c r="P39">
         <v>24</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>4.07</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>50</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="R39">
+      <c r="V39">
         <v>47.5</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:113">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -28911,29 +29376,29 @@
       <c r="H40">
         <v>20</v>
       </c>
-      <c r="J40">
+      <c r="N40">
         <v>24</v>
       </c>
-      <c r="K40">
+      <c r="O40">
         <v>0.4</v>
       </c>
-      <c r="L40">
+      <c r="P40">
         <v>24</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>4.07</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>50</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="R40">
+      <c r="V40">
         <v>47.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="9" customFormat="1">
+    <row r="41" spans="1:113" s="9" customFormat="1">
       <c r="A41" s="9" t="s">
         <v>64</v>
       </c>
@@ -28961,20 +29426,109 @@
       <c r="I41" s="9">
         <v>25</v>
       </c>
-      <c r="K41" s="9">
+      <c r="O41" s="9">
         <v>0.2</v>
       </c>
-      <c r="M41" s="9">
+      <c r="Q41" s="9">
         <v>0.75</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="U41" s="9">
         <v>43</v>
       </c>
-      <c r="R41" s="9">
+      <c r="V41" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="8"/>
+      <c r="BP41" s="8"/>
+      <c r="BQ41" s="8"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="8"/>
+      <c r="BX41" s="8"/>
+      <c r="BY41" s="8"/>
+      <c r="BZ41" s="8"/>
+      <c r="CA41" s="8"/>
+      <c r="CB41" s="8"/>
+      <c r="CC41" s="8"/>
+      <c r="CD41" s="8"/>
+      <c r="CE41" s="8"/>
+      <c r="CF41" s="8"/>
+      <c r="CG41" s="8"/>
+      <c r="CH41" s="8"/>
+      <c r="CI41" s="8"/>
+      <c r="CJ41" s="8"/>
+      <c r="CK41" s="8"/>
+      <c r="CL41" s="8"/>
+      <c r="CM41" s="8"/>
+      <c r="CN41" s="8"/>
+      <c r="CO41" s="8"/>
+      <c r="CP41" s="8"/>
+      <c r="CQ41" s="8"/>
+      <c r="CR41" s="8"/>
+      <c r="CS41" s="8"/>
+      <c r="CT41" s="8"/>
+      <c r="CU41" s="8"/>
+      <c r="CV41" s="8"/>
+      <c r="CW41" s="8"/>
+      <c r="CX41" s="8"/>
+      <c r="CY41" s="8"/>
+      <c r="CZ41" s="8"/>
+      <c r="DA41" s="8"/>
+      <c r="DB41" s="8"/>
+      <c r="DC41" s="8"/>
+      <c r="DD41" s="8"/>
+      <c r="DE41" s="8"/>
+      <c r="DF41" s="8"/>
+      <c r="DG41" s="8"/>
+      <c r="DH41" s="8"/>
+      <c r="DI41" s="8"/>
+    </row>
+    <row r="42" spans="1:113">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -28990,11 +29544,11 @@
       <c r="I42">
         <v>15</v>
       </c>
-      <c r="R42">
+      <c r="V42">
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:113">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -29004,11 +29558,11 @@
       <c r="D43">
         <v>7.4</v>
       </c>
-      <c r="R43">
+      <c r="V43">
         <v>188.8</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:113">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -29033,14 +29587,14 @@
       <c r="I44">
         <v>40</v>
       </c>
-      <c r="R44">
+      <c r="V44">
         <v>0.1</v>
       </c>
-      <c r="S44">
+      <c r="W44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:113">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -29065,14 +29619,14 @@
       <c r="I45">
         <v>40</v>
       </c>
-      <c r="R45">
+      <c r="V45">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S45">
+      <c r="W45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="9" customFormat="1">
+    <row r="46" spans="1:113" s="9" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>69</v>
       </c>
@@ -29097,14 +29651,103 @@
       <c r="I46" s="9">
         <v>40</v>
       </c>
-      <c r="R46" s="9">
+      <c r="V46" s="9">
         <v>8</v>
       </c>
-      <c r="S46" s="9">
+      <c r="W46" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="8"/>
+      <c r="BP46" s="8"/>
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+      <c r="BU46" s="8"/>
+      <c r="BV46" s="8"/>
+      <c r="BW46" s="8"/>
+      <c r="BX46" s="8"/>
+      <c r="BY46" s="8"/>
+      <c r="BZ46" s="8"/>
+      <c r="CA46" s="8"/>
+      <c r="CB46" s="8"/>
+      <c r="CC46" s="8"/>
+      <c r="CD46" s="8"/>
+      <c r="CE46" s="8"/>
+      <c r="CF46" s="8"/>
+      <c r="CG46" s="8"/>
+      <c r="CH46" s="8"/>
+      <c r="CI46" s="8"/>
+      <c r="CJ46" s="8"/>
+      <c r="CK46" s="8"/>
+      <c r="CL46" s="8"/>
+      <c r="CM46" s="8"/>
+      <c r="CN46" s="8"/>
+      <c r="CO46" s="8"/>
+      <c r="CP46" s="8"/>
+      <c r="CQ46" s="8"/>
+      <c r="CR46" s="8"/>
+      <c r="CS46" s="8"/>
+      <c r="CT46" s="8"/>
+      <c r="CU46" s="8"/>
+      <c r="CV46" s="8"/>
+      <c r="CW46" s="8"/>
+      <c r="CX46" s="8"/>
+      <c r="CY46" s="8"/>
+      <c r="CZ46" s="8"/>
+      <c r="DA46" s="8"/>
+      <c r="DB46" s="8"/>
+      <c r="DC46" s="8"/>
+      <c r="DD46" s="8"/>
+      <c r="DE46" s="8"/>
+      <c r="DF46" s="8"/>
+      <c r="DG46" s="8"/>
+      <c r="DH46" s="8"/>
+      <c r="DI46" s="8"/>
+    </row>
+    <row r="47" spans="1:113">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -29133,7 +29776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:113">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -29162,7 +29805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:113">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -29184,11 +29827,11 @@
       <c r="I49">
         <v>25</v>
       </c>
-      <c r="R49">
+      <c r="V49">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="9" customFormat="1">
+    <row r="50" spans="1:113" s="9" customFormat="1">
       <c r="A50" s="9" t="s">
         <v>73</v>
       </c>
@@ -29216,14 +29859,103 @@
       <c r="I50" s="9">
         <v>30</v>
       </c>
-      <c r="R50" s="9">
+      <c r="V50" s="9">
         <v>15</v>
       </c>
-      <c r="S50" s="9">
+      <c r="W50" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" s="9" customFormat="1">
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+      <c r="BI50" s="8"/>
+      <c r="BJ50" s="8"/>
+      <c r="BK50" s="8"/>
+      <c r="BL50" s="8"/>
+      <c r="BM50" s="8"/>
+      <c r="BN50" s="8"/>
+      <c r="BO50" s="8"/>
+      <c r="BP50" s="8"/>
+      <c r="BQ50" s="8"/>
+      <c r="BR50" s="8"/>
+      <c r="BS50" s="8"/>
+      <c r="BT50" s="8"/>
+      <c r="BU50" s="8"/>
+      <c r="BV50" s="8"/>
+      <c r="BW50" s="8"/>
+      <c r="BX50" s="8"/>
+      <c r="BY50" s="8"/>
+      <c r="BZ50" s="8"/>
+      <c r="CA50" s="8"/>
+      <c r="CB50" s="8"/>
+      <c r="CC50" s="8"/>
+      <c r="CD50" s="8"/>
+      <c r="CE50" s="8"/>
+      <c r="CF50" s="8"/>
+      <c r="CG50" s="8"/>
+      <c r="CH50" s="8"/>
+      <c r="CI50" s="8"/>
+      <c r="CJ50" s="8"/>
+      <c r="CK50" s="8"/>
+      <c r="CL50" s="8"/>
+      <c r="CM50" s="8"/>
+      <c r="CN50" s="8"/>
+      <c r="CO50" s="8"/>
+      <c r="CP50" s="8"/>
+      <c r="CQ50" s="8"/>
+      <c r="CR50" s="8"/>
+      <c r="CS50" s="8"/>
+      <c r="CT50" s="8"/>
+      <c r="CU50" s="8"/>
+      <c r="CV50" s="8"/>
+      <c r="CW50" s="8"/>
+      <c r="CX50" s="8"/>
+      <c r="CY50" s="8"/>
+      <c r="CZ50" s="8"/>
+      <c r="DA50" s="8"/>
+      <c r="DB50" s="8"/>
+      <c r="DC50" s="8"/>
+      <c r="DD50" s="8"/>
+      <c r="DE50" s="8"/>
+      <c r="DF50" s="8"/>
+      <c r="DG50" s="8"/>
+      <c r="DH50" s="8"/>
+      <c r="DI50" s="8"/>
+    </row>
+    <row r="51" spans="1:113" s="9" customFormat="1">
       <c r="A51" s="9" t="s">
         <v>74</v>
       </c>
@@ -29251,31 +29983,233 @@
       <c r="I51" s="9">
         <v>30</v>
       </c>
-      <c r="R51" s="9">
+      <c r="V51" s="9">
         <v>5</v>
       </c>
-      <c r="S51" s="9">
+      <c r="W51" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+      <c r="BI51" s="8"/>
+      <c r="BJ51" s="8"/>
+      <c r="BK51" s="8"/>
+      <c r="BL51" s="8"/>
+      <c r="BM51" s="8"/>
+      <c r="BN51" s="8"/>
+      <c r="BO51" s="8"/>
+      <c r="BP51" s="8"/>
+      <c r="BQ51" s="8"/>
+      <c r="BR51" s="8"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+      <c r="BU51" s="8"/>
+      <c r="BV51" s="8"/>
+      <c r="BW51" s="8"/>
+      <c r="BX51" s="8"/>
+      <c r="BY51" s="8"/>
+      <c r="BZ51" s="8"/>
+      <c r="CA51" s="8"/>
+      <c r="CB51" s="8"/>
+      <c r="CC51" s="8"/>
+      <c r="CD51" s="8"/>
+      <c r="CE51" s="8"/>
+      <c r="CF51" s="8"/>
+      <c r="CG51" s="8"/>
+      <c r="CH51" s="8"/>
+      <c r="CI51" s="8"/>
+      <c r="CJ51" s="8"/>
+      <c r="CK51" s="8"/>
+      <c r="CL51" s="8"/>
+      <c r="CM51" s="8"/>
+      <c r="CN51" s="8"/>
+      <c r="CO51" s="8"/>
+      <c r="CP51" s="8"/>
+      <c r="CQ51" s="8"/>
+      <c r="CR51" s="8"/>
+      <c r="CS51" s="8"/>
+      <c r="CT51" s="8"/>
+      <c r="CU51" s="8"/>
+      <c r="CV51" s="8"/>
+      <c r="CW51" s="8"/>
+      <c r="CX51" s="8"/>
+      <c r="CY51" s="8"/>
+      <c r="CZ51" s="8"/>
+      <c r="DA51" s="8"/>
+      <c r="DB51" s="8"/>
+      <c r="DC51" s="8"/>
+      <c r="DD51" s="8"/>
+      <c r="DE51" s="8"/>
+      <c r="DF51" s="8"/>
+      <c r="DG51" s="8"/>
+      <c r="DH51" s="8"/>
+      <c r="DI51" s="8"/>
+    </row>
+    <row r="52" spans="1:113" s="18" customFormat="1">
+      <c r="A52" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="19">
+        <v>540</v>
+      </c>
+      <c r="C52" s="19">
+        <f>15102/21</f>
+        <v>719.14285714285711</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="G52" s="18">
+        <v>7</v>
+      </c>
+      <c r="H52" s="18">
+        <v>20</v>
+      </c>
+      <c r="I52" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="8"/>
+      <c r="AW52" s="8"/>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
+      <c r="AZ52" s="8"/>
+      <c r="BA52" s="8"/>
+      <c r="BB52" s="8"/>
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+      <c r="BI52" s="8"/>
+      <c r="BJ52" s="8"/>
+      <c r="BK52" s="8"/>
+      <c r="BL52" s="8"/>
+      <c r="BM52" s="8"/>
+      <c r="BN52" s="8"/>
+      <c r="BO52" s="8"/>
+      <c r="BP52" s="8"/>
+      <c r="BQ52" s="8"/>
+      <c r="BR52" s="8"/>
+      <c r="BS52" s="8"/>
+      <c r="BT52" s="8"/>
+      <c r="BU52" s="8"/>
+      <c r="BV52" s="8"/>
+      <c r="BW52" s="8"/>
+      <c r="BX52" s="8"/>
+      <c r="BY52" s="8"/>
+      <c r="BZ52" s="8"/>
+      <c r="CA52" s="8"/>
+      <c r="CB52" s="8"/>
+      <c r="CC52" s="8"/>
+      <c r="CD52" s="8"/>
+      <c r="CE52" s="8"/>
+      <c r="CF52" s="8"/>
+      <c r="CG52" s="8"/>
+      <c r="CH52" s="8"/>
+      <c r="CI52" s="8"/>
+      <c r="CJ52" s="8"/>
+      <c r="CK52" s="8"/>
+      <c r="CL52" s="8"/>
+      <c r="CM52" s="8"/>
+      <c r="CN52" s="8"/>
+      <c r="CO52" s="8"/>
+      <c r="CP52" s="8"/>
+      <c r="CQ52" s="8"/>
+      <c r="CR52" s="8"/>
+      <c r="CS52" s="8"/>
+      <c r="CT52" s="8"/>
+      <c r="CU52" s="8"/>
+      <c r="CV52" s="8"/>
+      <c r="CW52" s="8"/>
+      <c r="CX52" s="8"/>
+      <c r="CY52" s="8"/>
+      <c r="CZ52" s="8"/>
+      <c r="DA52" s="8"/>
+      <c r="DB52" s="8"/>
+      <c r="DC52" s="8"/>
+      <c r="DD52" s="8"/>
+      <c r="DE52" s="8"/>
+      <c r="DF52" s="8"/>
+      <c r="DG52" s="8"/>
+      <c r="DH52" s="8"/>
+      <c r="DI52" s="8"/>
+    </row>
+    <row r="53" spans="1:113">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:113">
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:113">
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:113">
+      <c r="B56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:19">
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="B58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="B59" s="13"/>
+    <row r="57" spans="1:113">
+      <c r="B57" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF081F0-8B5A-4CE3-BFAD-CBE6E5C4D306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E09E32-3918-4BC3-A8A2-0946FEBF50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -124,6 +124,25 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     eur/mw_el</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={55D988B7-F473-48D8-A6F8-525D49BEF5BC}</author>
+  </authors>
+  <commentList>
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{55D988B7-F473-48D8-A6F8-525D49BEF5BC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Was 40
+</t>
       </text>
     </comment>
   </commentList>
@@ -749,7 +768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,8 +814,27 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +877,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -873,12 +916,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -911,8 +955,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7E3C124C-1F25-4E8B-8CF7-23139E8F2803}"/>
@@ -6524,6 +6572,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I46" dT="2022-10-20T11:24:21.21" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{55D988B7-F473-48D8-A6F8-525D49BEF5BC}">
+    <text xml:space="preserve">Was 40
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
@@ -25760,8 +25817,8 @@
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27270,7 +27327,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27569,14 +27626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6781B2-20FB-4DB7-8C67-8F3D24312936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6781B2-20FB-4DB7-8C67-8F3D24312936}">
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:DI57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29648,8 +29705,8 @@
       <c r="H46" s="9">
         <v>20</v>
       </c>
-      <c r="I46" s="9">
-        <v>40</v>
+      <c r="I46" s="20">
+        <v>25</v>
       </c>
       <c r="V46" s="9">
         <v>8</v>
@@ -30086,9 +30143,8 @@
       <c r="B52" s="19">
         <v>540</v>
       </c>
-      <c r="C52" s="19">
-        <f>15102/21</f>
-        <v>719.14285714285711</v>
+      <c r="C52" s="22">
+        <v>284000</v>
       </c>
       <c r="D52" s="18">
         <v>1.8</v>
@@ -30196,6 +30252,8 @@
       <c r="DI52" s="8"/>
     </row>
     <row r="53" spans="1:113">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:113">
@@ -30213,5 +30271,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A99E787-9F37-44F5-B939-D02455F647FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B31E26-CC19-4370-9DF8-B17F32226862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5440F79C-069D-4630-B655-D51101D93DC9}</author>
+    <author>tc={9554A1FD-F317-4BB3-A1FC-ACD61C221824}</author>
   </authors>
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{5440F79C-069D-4630-B655-D51101D93DC9}">
@@ -61,6 +62,14 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     changed from base to 2040</t>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9554A1FD-F317-4BB3-A1FC-ACD61C221824}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    20.16</t>
       </text>
     </comment>
   </commentList>
@@ -791,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +886,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6600,6 +6615,9 @@
   <threadedComment ref="C12" dT="2022-03-14T19:51:52.93" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{5440F79C-069D-4630-B655-D51101D93DC9}">
     <text>changed from base to 2040</text>
   </threadedComment>
+  <threadedComment ref="D61" dT="2022-10-24T19:30:10.30" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{9554A1FD-F317-4BB3-A1FC-ACD61C221824}">
+    <text>20.16</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -6762,9 +6780,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6781B2-20FB-4DB7-8C67-8F3D24312936}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
   <dimension ref="A1:DI57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -28796,12 +28811,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29696,7 +29711,7 @@
         <v>83</v>
       </c>
       <c r="D61" s="8">
-        <v>20.16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -29820,13 +29835,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13016B-96BB-42CF-8917-A9B7FF3D074E}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30044,8 +30056,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B31E26-CC19-4370-9DF8-B17F32226862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F686702-371B-4667-95F8-25BDB80BE5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5440F79C-069D-4630-B655-D51101D93DC9}</author>
-    <author>tc={9554A1FD-F317-4BB3-A1FC-ACD61C221824}</author>
   </authors>
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{5440F79C-069D-4630-B655-D51101D93DC9}">
@@ -62,14 +61,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     changed from base to 2040</t>
-      </text>
-    </comment>
-    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9554A1FD-F317-4BB3-A1FC-ACD61C221824}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    20.16</t>
       </text>
     </comment>
   </commentList>
@@ -800,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,12 +877,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6615,9 +6600,6 @@
   <threadedComment ref="C12" dT="2022-03-14T19:51:52.93" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{5440F79C-069D-4630-B655-D51101D93DC9}">
     <text>changed from base to 2040</text>
   </threadedComment>
-  <threadedComment ref="D61" dT="2022-10-24T19:30:10.30" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{9554A1FD-F317-4BB3-A1FC-ACD61C221824}">
-    <text>20.16</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -28815,8 +28797,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29711,7 +29693,7 @@
         <v>83</v>
       </c>
       <c r="D61" s="8">
-        <v>120</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="62" spans="1:4">

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F686702-371B-4667-95F8-25BDB80BE5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220EB50-4A95-4FCE-9694-59C9D5F9D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -135,6 +135,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0815C989-6CA7-4603-8C5B-192E23334E1A}</author>
+    <author>tc={D2699E04-0851-4D4C-8020-4EADA78C466D}</author>
   </authors>
   <commentList>
     <comment ref="I46" authorId="0" shapeId="0" xr:uid="{0815C989-6CA7-4603-8C5B-192E23334E1A}">
@@ -143,6 +144,15 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Was 40
+</t>
+      </text>
+    </comment>
+    <comment ref="K52" authorId="1" shapeId="0" xr:uid="{D2699E04-0851-4D4C-8020-4EADA78C466D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is from MIT
 </t>
       </text>
     </comment>
@@ -791,7 +801,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +887,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6635,6 +6651,10 @@
     <text xml:space="preserve">Was 40
 </text>
   </threadedComment>
+  <threadedComment ref="K52" dT="2022-10-25T14:44:30.68" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{D2699E04-0851-4D4C-8020-4EADA78C466D}">
+    <text xml:space="preserve">This is from MIT
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -28797,8 +28817,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30038,8 +30058,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30335,8 +30355,9 @@
     <hyperlink ref="O2" r:id="rId4" xr:uid="{97BF3871-2C9F-4A98-8C67-66B6773BB269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -30347,8 +30368,8 @@
   </sheetPr>
   <dimension ref="A1:DI57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32878,6 +32899,18 @@
       <c r="I52" s="18">
         <v>20</v>
       </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>0.92</v>
+      </c>
+      <c r="L52">
+        <v>0.92</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220EB50-4A95-4FCE-9694-59C9D5F9D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CD960-44A0-4A1F-A9BF-CEDE9B38E0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     in emlab and Traderes Eur/MW</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{C386BFA0-6810-4E0B-9FD5-9424CC3D4316}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{C386BFA0-6810-4E0B-9FD5-9424CC3D4316}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +111,7 @@
 €/MW(h)/year, same as emlab</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{781621B9-0566-4014-AB40-4A27BFBB70A8}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{781621B9-0566-4014-AB40-4A27BFBB70A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4348" uniqueCount="206">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -796,6 +796,9 @@
   <si>
     <t>Techs to be completed</t>
   </si>
+  <si>
+    <t>&lt;---------------------</t>
+  </si>
 </sst>
 </file>
 
@@ -890,13 +893,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,8 +955,19 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -983,14 +999,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1031,9 +1063,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="4"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7E3C124C-1F25-4E8B-8CF7-23139E8F2803}"/>
@@ -1060,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>563814</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>560640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>163104</xdr:rowOff>
+      <xdr:rowOff>159929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6632,11 +6667,11 @@
   <threadedComment ref="B1" dT="2022-04-13T10:01:29.65" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{04C2ABF4-78B1-4933-8D34-B6F9FC62A9A7}">
     <text>in emlab and Traderes Eur/MW</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-04-13T10:02:47.94" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{C386BFA0-6810-4E0B-9FD5-9424CC3D4316}">
+  <threadedComment ref="C1" dT="2022-04-13T10:02:47.94" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{C386BFA0-6810-4E0B-9FD5-9424CC3D4316}">
     <text>in traderes
 €/MW(h)/year, same as emlab</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-04-08T13:22:02.82" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{781621B9-0566-4014-AB40-4A27BFBB70A8}">
+  <threadedComment ref="D1" dT="2022-04-08T13:22:02.82" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{781621B9-0566-4014-AB40-4A27BFBB70A8}">
     <text>Eur/MWh</text>
   </threadedComment>
   <threadedComment ref="B5" dT="2022-07-14T10:37:18.44" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{D52A02E4-4217-45D3-AE66-A184CBE619B1}">
@@ -30056,22 +30091,22 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="60.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="14" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="15" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -30079,22 +30114,22 @@
         <v>123</v>
       </c>
       <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>169</v>
@@ -30108,141 +30143,141 @@
       <c r="L1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>174</v>
       </c>
       <c r="B2">
         <v>3845510</v>
       </c>
-      <c r="C2">
-        <v>0.33</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="C2" s="11">
         <f>B2*0.016</f>
         <v>61528.160000000003</v>
       </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
       <c r="H2">
-        <v>3.5</v>
-      </c>
-      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>177</v>
       </c>
       <c r="B3">
         <v>3845510</v>
       </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="C3" s="11">
         <f>B3*0.016</f>
         <v>61528.160000000003</v>
       </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
       <c r="H3">
-        <v>3.5</v>
-      </c>
-      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>178</v>
       </c>
       <c r="B4">
         <v>343000</v>
       </c>
-      <c r="C4">
-        <v>0.35</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C4" s="11">
         <f>B4*0.025</f>
         <v>8575</v>
       </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
       <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>7940450</v>
       </c>
-      <c r="C5">
-        <v>0.33</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <f>F5</f>
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="C5" s="11">
         <f>B5*0.014</f>
         <v>111166.3</v>
       </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f>H5</f>
+        <v>40</v>
+      </c>
       <c r="H5">
-        <v>3.5</v>
-      </c>
-      <c r="O5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -30251,22 +30286,22 @@
         <v>2000000</v>
       </c>
       <c r="C6">
+        <v>16000</v>
+      </c>
+      <c r="D6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>100</v>
-      </c>
-      <c r="G6">
-        <v>16000</v>
-      </c>
-      <c r="H6">
-        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -30280,79 +30315,256 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11">
+        <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>2400000</v>
+      </c>
+      <c r="C7" s="11">
+        <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>117000</v>
+      </c>
+      <c r="D7" s="11">
+        <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11">
+        <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>830000</v>
+      </c>
+      <c r="C8" s="11">
+        <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>27800</v>
+      </c>
+      <c r="D8" s="11">
+        <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11">
+        <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>2690000</v>
+      </c>
+      <c r="C9" s="11">
+        <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>13450</v>
+      </c>
+      <c r="D9" s="11">
+        <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O9" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
+      <c r="B10" s="11">
+        <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>435000</v>
+      </c>
+      <c r="C10" s="11">
+        <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>7745</v>
+      </c>
+      <c r="D10" s="11">
+        <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
+      <c r="B11" s="11">
+        <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>380000</v>
+      </c>
+      <c r="C11" s="11">
+        <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>7250</v>
+      </c>
+      <c r="D11" s="11">
+        <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
+      <c r="B12" s="11">
+        <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>1930000</v>
+      </c>
+      <c r="C12" s="11">
+        <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>36053</v>
+      </c>
+      <c r="D12" s="11">
+        <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="7:17">
-      <c r="Q19" t="s">
+      <c r="B13" s="11">
+        <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>1040000</v>
+      </c>
+      <c r="C13" s="29">
+        <v>24000</v>
+      </c>
+      <c r="D13" s="11">
+        <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="11">
+        <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>284000</v>
+      </c>
+      <c r="C14" s="11">
+        <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>540</v>
+      </c>
+      <c r="D14" s="11">
+        <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11">
+        <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="11">
+        <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>2990000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:18">
+      <c r="R19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="7:17">
-      <c r="G24" s="11"/>
+    <row r="24" spans="8:18">
       <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="7:17">
-      <c r="G25" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="8:18">
       <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="7:17">
-      <c r="G26" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="8:18">
       <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{CF1418B0-EAA1-49DC-AF77-26CB4FFD6465}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{2A89EB1C-EE22-4DB8-BE26-6C89CA6FDED9}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{0EA913E0-A2BC-446D-BA90-C84EF941D57C}"/>
-    <hyperlink ref="O2" r:id="rId4" xr:uid="{97BF3871-2C9F-4A98-8C67-66B6773BB269}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{CF1418B0-EAA1-49DC-AF77-26CB4FFD6465}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{2A89EB1C-EE22-4DB8-BE26-6C89CA6FDED9}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{0EA913E0-A2BC-446D-BA90-C84EF941D57C}"/>
+    <hyperlink ref="P2" r:id="rId4" xr:uid="{97BF3871-2C9F-4A98-8C67-66B6773BB269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -30368,8 +30580,8 @@
   </sheetPr>
   <dimension ref="A1:DI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CD960-44A0-4A1F-A9BF-CEDE9B38E0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2734B60-BC09-4421-B0A0-3A2C4A971579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,16 +892,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,17 +947,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1015,12 +996,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1063,12 +1043,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="4"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7E3C124C-1F25-4E8B-8CF7-23139E8F2803}"/>
@@ -1102,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>560640</xdr:colOff>
+      <xdr:colOff>563815</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>159929</xdr:rowOff>
+      <xdr:rowOff>163104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -28588,7 +28569,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28853,7 +28834,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B55" sqref="B55:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29657,7 +29638,7 @@
       <c r="A55" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -29671,7 +29652,7 @@
       <c r="A56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -29685,7 +29666,7 @@
       <c r="A57" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29699,7 +29680,7 @@
       <c r="A58" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -29713,7 +29694,7 @@
       <c r="A59" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -29727,7 +29708,7 @@
       <c r="A60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -29741,7 +29722,7 @@
       <c r="A61" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -29755,7 +29736,7 @@
       <c r="A62" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -29769,7 +29750,7 @@
       <c r="A63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -29783,7 +29764,7 @@
       <c r="A64" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -29797,7 +29778,7 @@
       <c r="A65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -29811,7 +29792,7 @@
       <c r="A66" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -29825,7 +29806,7 @@
       <c r="A67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -29839,7 +29820,7 @@
       <c r="A68" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -29853,7 +29834,7 @@
       <c r="A69" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -30093,8 +30074,8 @@
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30323,15 +30304,15 @@
       <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="27">
         <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>2400000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="27">
         <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>117000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="27">
         <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.9</v>
       </c>
@@ -30348,15 +30329,15 @@
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="27">
         <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>830000</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="27">
         <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>27800</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="27">
         <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>4.2</v>
       </c>
@@ -30373,15 +30354,15 @@
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="27">
         <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>2690000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="27">
         <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>13450</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="27">
         <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -30404,15 +30385,15 @@
       <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="27">
         <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>435000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="27">
         <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>7745</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="27">
         <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>4.5</v>
       </c>
@@ -30429,15 +30410,15 @@
       <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="27">
         <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>380000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="27">
         <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>7250</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="27">
         <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -30454,15 +30435,15 @@
       <c r="A12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="27">
         <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>1930000</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="27">
         <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>36053</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="27">
         <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>2.7</v>
       </c>
@@ -30479,14 +30460,14 @@
       <c r="A13" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="27">
         <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>1040000</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>24000</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="27">
         <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.35</v>
       </c>
@@ -30503,15 +30484,15 @@
       <c r="A14" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="27">
         <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>284000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="27">
         <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
         <v>540</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="27">
         <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.8</v>
       </c>
@@ -30528,19 +30509,23 @@
       <c r="A15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="27">
         <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>1200000</v>
       </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="27">
         <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>2990000</v>
       </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="19" spans="8:18">
       <c r="R19" t="s">
@@ -30578,19 +30563,19 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:DI57"/>
+  <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="13" width="23.1796875" customWidth="1"/>
+    <col min="2" max="15" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:115">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -30630,41 +30615,43 @@
       <c r="M1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>128</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>127</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>118</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1">
+    <row r="2" spans="1:115" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -30692,17 +30679,15 @@
       <c r="I2" s="9">
         <v>30</v>
       </c>
-      <c r="O2" s="9">
+      <c r="Q2" s="9">
         <v>0.15</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="S2" s="9">
         <v>21</v>
       </c>
-      <c r="V2" s="9">
+      <c r="X2" s="9">
         <v>39.369999999999997</v>
       </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -30790,8 +30775,10 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-    </row>
-    <row r="3" spans="1:113">
+      <c r="DJ2"/>
+      <c r="DK2"/>
+    </row>
+    <row r="3" spans="1:115">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -30819,17 +30806,17 @@
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.15</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>21</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>39.369999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:113">
+    <row r="4" spans="1:115">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -30842,11 +30829,11 @@
       <c r="I4">
         <v>30</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:113">
+    <row r="5" spans="1:115">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -30859,11 +30846,11 @@
       <c r="I5">
         <v>20</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:113">
+    <row r="6" spans="1:115">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -30876,11 +30863,11 @@
       <c r="I6">
         <v>12</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:113">
+    <row r="7" spans="1:115">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -30893,11 +30880,11 @@
       <c r="I7">
         <v>18</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:113" s="9" customFormat="1">
+    <row r="8" spans="1:115" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -30925,17 +30912,15 @@
       <c r="I8" s="9">
         <v>30</v>
       </c>
-      <c r="O8" s="9">
+      <c r="Q8" s="9">
         <v>0.4</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="S8" s="9">
         <v>14</v>
       </c>
-      <c r="V8" s="9">
+      <c r="X8" s="9">
         <v>300</v>
       </c>
-      <c r="Y8"/>
-      <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -31023,8 +31008,10 @@
       <c r="DG8"/>
       <c r="DH8"/>
       <c r="DI8"/>
-    </row>
-    <row r="9" spans="1:113" s="9" customFormat="1">
+      <c r="DJ8"/>
+      <c r="DK8"/>
+    </row>
+    <row r="9" spans="1:115" s="9" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -31052,17 +31039,15 @@
       <c r="I9" s="9">
         <v>30</v>
       </c>
-      <c r="O9" s="9">
+      <c r="Q9" s="9">
         <v>0.4</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="S9" s="9">
         <v>14</v>
       </c>
-      <c r="V9" s="9">
+      <c r="X9" s="9">
         <v>55</v>
       </c>
-      <c r="Y9"/>
-      <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
@@ -31150,8 +31135,10 @@
       <c r="DG9"/>
       <c r="DH9"/>
       <c r="DI9"/>
-    </row>
-    <row r="10" spans="1:113">
+      <c r="DJ9"/>
+      <c r="DK9"/>
+    </row>
+    <row r="10" spans="1:115">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -31179,17 +31166,17 @@
       <c r="I10">
         <v>25</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.4</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>14</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:113">
+    <row r="11" spans="1:115">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -31205,11 +31192,11 @@
       <c r="H11">
         <v>20</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:113">
+    <row r="12" spans="1:115">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -31231,11 +31218,11 @@
       <c r="I12">
         <v>30</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:113">
+    <row r="13" spans="1:115">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -31257,11 +31244,11 @@
       <c r="I13">
         <v>30</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:113">
+    <row r="14" spans="1:115">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -31274,11 +31261,11 @@
       <c r="D14">
         <v>1.0629999999999999</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:113">
+    <row r="15" spans="1:115">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -31294,14 +31281,14 @@
       <c r="I15">
         <v>20</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>21</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:113">
+    <row r="16" spans="1:115">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -31311,11 +31298,11 @@
       <c r="D16">
         <v>9.5</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>173.06666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:113">
+    <row r="17" spans="1:115">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -31337,11 +31324,11 @@
       <c r="I17">
         <v>60</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:113" s="9" customFormat="1">
+    <row r="18" spans="1:115" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -31363,11 +31350,9 @@
       <c r="I18" s="9">
         <v>60</v>
       </c>
-      <c r="V18" s="9">
+      <c r="X18" s="9">
         <v>60</v>
       </c>
-      <c r="Y18"/>
-      <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
@@ -31455,8 +31440,10 @@
       <c r="DG18"/>
       <c r="DH18"/>
       <c r="DI18"/>
-    </row>
-    <row r="19" spans="1:113">
+      <c r="DJ18"/>
+      <c r="DK18"/>
+    </row>
+    <row r="19" spans="1:115">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -31478,11 +31465,11 @@
       <c r="I19">
         <v>60</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:113">
+    <row r="20" spans="1:115">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -31504,11 +31491,11 @@
       <c r="I20">
         <v>60</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:113">
+    <row r="21" spans="1:115">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -31536,17 +31523,17 @@
       <c r="I21">
         <v>25</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.4</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>21</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:113">
+    <row r="22" spans="1:115">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -31574,17 +31561,17 @@
       <c r="I22">
         <v>25</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.4</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>21</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:113">
+    <row r="23" spans="1:115">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -31612,17 +31599,17 @@
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.05</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>1</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:113">
+    <row r="24" spans="1:115">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -31650,17 +31637,17 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.05</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>1</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:113">
+    <row r="25" spans="1:115">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -31688,17 +31675,17 @@
       <c r="I25">
         <v>25</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.15</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>2.8</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:113">
+    <row r="26" spans="1:115">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -31726,17 +31713,17 @@
       <c r="I26">
         <v>25</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>0.15</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>2.8</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>5.25</v>
       </c>
     </row>
-    <row r="27" spans="1:113">
+    <row r="27" spans="1:115">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -31764,20 +31751,20 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.25</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>7</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>10</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:113">
+    <row r="28" spans="1:115">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -31805,20 +31792,20 @@
       <c r="I28">
         <v>25</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.25</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>10</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:113">
+    <row r="29" spans="1:115">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -31846,17 +31833,17 @@
       <c r="I29">
         <v>30</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>0.2</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>14</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>13.1</v>
       </c>
     </row>
-    <row r="30" spans="1:113">
+    <row r="30" spans="1:115">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -31884,17 +31871,17 @@
       <c r="I30">
         <v>30</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.2</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>14</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:113">
+    <row r="31" spans="1:115">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -31922,17 +31909,17 @@
       <c r="I31">
         <v>30</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>0.2</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>14</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:113">
+    <row r="32" spans="1:115">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -31960,17 +31947,17 @@
       <c r="I32">
         <v>30</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>0.2</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>14</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:113">
+    <row r="33" spans="1:115">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -31998,20 +31985,20 @@
       <c r="I33">
         <v>25</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>0.25</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>7</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>10</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:113">
+    <row r="34" spans="1:115">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -32039,20 +32026,20 @@
       <c r="I34">
         <v>25</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>0.25</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>7</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>10</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:113">
+    <row r="35" spans="1:115">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -32080,17 +32067,17 @@
       <c r="I35">
         <v>20</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>0.25</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>3.5</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:113">
+    <row r="36" spans="1:115">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -32115,23 +32102,23 @@
       <c r="H36">
         <v>20</v>
       </c>
-      <c r="N36">
-        <v>24</v>
-      </c>
-      <c r="O36">
-        <v>0.4</v>
-      </c>
       <c r="P36">
         <v>24</v>
       </c>
-      <c r="T36">
+      <c r="Q36">
+        <v>0.4</v>
+      </c>
+      <c r="R36">
+        <v>24</v>
+      </c>
+      <c r="V36">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:113">
+    <row r="37" spans="1:115">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -32156,23 +32143,23 @@
       <c r="H37">
         <v>20</v>
       </c>
-      <c r="N37">
-        <v>24</v>
-      </c>
-      <c r="O37">
-        <v>0.4</v>
-      </c>
       <c r="P37">
         <v>24</v>
       </c>
-      <c r="T37">
+      <c r="Q37">
+        <v>0.4</v>
+      </c>
+      <c r="R37">
+        <v>24</v>
+      </c>
+      <c r="V37">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:113" s="9" customFormat="1">
+    <row r="38" spans="1:115" s="9" customFormat="1">
       <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
@@ -32200,29 +32187,27 @@
       <c r="I38" s="9">
         <v>45</v>
       </c>
-      <c r="N38" s="9">
-        <v>24</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0.4</v>
-      </c>
       <c r="P38" s="9">
         <v>24</v>
       </c>
+      <c r="Q38" s="9">
+        <v>0.4</v>
+      </c>
       <c r="R38" s="9">
+        <v>24</v>
+      </c>
+      <c r="T38" s="9">
         <v>4.07</v>
       </c>
-      <c r="S38" s="9">
+      <c r="U38" s="9">
         <v>63</v>
       </c>
-      <c r="T38" s="9">
+      <c r="V38" s="9">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="V38" s="9">
+      <c r="X38" s="9">
         <v>57</v>
       </c>
-      <c r="Y38"/>
-      <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
       <c r="AC38"/>
@@ -32310,8 +32295,10 @@
       <c r="DG38"/>
       <c r="DH38"/>
       <c r="DI38"/>
-    </row>
-    <row r="39" spans="1:113">
+      <c r="DJ38"/>
+      <c r="DK38"/>
+    </row>
+    <row r="39" spans="1:115">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -32336,29 +32323,29 @@
       <c r="H39">
         <v>20</v>
       </c>
-      <c r="N39">
-        <v>24</v>
-      </c>
-      <c r="O39">
-        <v>0.4</v>
-      </c>
       <c r="P39">
         <v>24</v>
       </c>
+      <c r="Q39">
+        <v>0.4</v>
+      </c>
       <c r="R39">
+        <v>24</v>
+      </c>
+      <c r="T39">
         <v>4.07</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>50</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>47.5</v>
       </c>
     </row>
-    <row r="40" spans="1:113">
+    <row r="40" spans="1:115">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -32383,29 +32370,29 @@
       <c r="H40">
         <v>20</v>
       </c>
-      <c r="N40">
-        <v>24</v>
-      </c>
-      <c r="O40">
-        <v>0.4</v>
-      </c>
       <c r="P40">
         <v>24</v>
       </c>
+      <c r="Q40">
+        <v>0.4</v>
+      </c>
       <c r="R40">
+        <v>24</v>
+      </c>
+      <c r="T40">
         <v>4.07</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>50</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>47.5</v>
       </c>
     </row>
-    <row r="41" spans="1:113" s="9" customFormat="1">
+    <row r="41" spans="1:115" s="9" customFormat="1">
       <c r="A41" s="9" t="s">
         <v>64</v>
       </c>
@@ -32433,20 +32420,18 @@
       <c r="I41" s="9">
         <v>30</v>
       </c>
-      <c r="O41" s="9">
+      <c r="Q41" s="9">
         <v>0.2</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="S41" s="9">
         <v>0.75</v>
       </c>
-      <c r="U41" s="9">
+      <c r="W41" s="9">
         <v>43</v>
       </c>
-      <c r="V41" s="9">
+      <c r="X41" s="9">
         <v>100</v>
       </c>
-      <c r="Y41"/>
-      <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
       <c r="AC41"/>
@@ -32534,8 +32519,10 @@
       <c r="DG41"/>
       <c r="DH41"/>
       <c r="DI41"/>
-    </row>
-    <row r="42" spans="1:113">
+      <c r="DJ41"/>
+      <c r="DK41"/>
+    </row>
+    <row r="42" spans="1:115">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -32551,11 +32538,11 @@
       <c r="I42">
         <v>15</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:113">
+    <row r="43" spans="1:115">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -32565,11 +32552,11 @@
       <c r="D43">
         <v>7.4</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <v>188.8</v>
       </c>
     </row>
-    <row r="44" spans="1:113">
+    <row r="44" spans="1:115">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -32594,14 +32581,14 @@
       <c r="I44">
         <v>40</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <v>0.1</v>
       </c>
-      <c r="W44">
+      <c r="Y44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:113">
+    <row r="45" spans="1:115">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -32626,14 +32613,14 @@
       <c r="I45">
         <v>40</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W45">
+      <c r="Y45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:113" s="9" customFormat="1">
+    <row r="46" spans="1:115" s="9" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>69</v>
       </c>
@@ -32658,14 +32645,12 @@
       <c r="I46" s="20">
         <v>25</v>
       </c>
-      <c r="V46" s="9">
+      <c r="X46" s="9">
         <v>8</v>
       </c>
-      <c r="W46" s="9">
+      <c r="Y46" s="9">
         <v>1</v>
       </c>
-      <c r="Y46"/>
-      <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
       <c r="AC46"/>
@@ -32753,8 +32738,10 @@
       <c r="DG46"/>
       <c r="DH46"/>
       <c r="DI46"/>
-    </row>
-    <row r="47" spans="1:113">
+      <c r="DJ46"/>
+      <c r="DK46"/>
+    </row>
+    <row r="47" spans="1:115">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -32783,7 +32770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:113">
+    <row r="48" spans="1:115">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -32812,7 +32799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:113">
+    <row r="49" spans="1:115">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -32834,11 +32821,11 @@
       <c r="I49">
         <v>25</v>
       </c>
-      <c r="V49">
+      <c r="X49">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:113" s="9" customFormat="1">
+    <row r="50" spans="1:115" s="9" customFormat="1">
       <c r="A50" s="9" t="s">
         <v>73</v>
       </c>
@@ -32866,14 +32853,12 @@
       <c r="I50" s="9">
         <v>30</v>
       </c>
-      <c r="V50" s="9">
+      <c r="X50" s="9">
         <v>15</v>
       </c>
-      <c r="W50" s="9">
+      <c r="Y50" s="9">
         <v>1</v>
       </c>
-      <c r="Y50"/>
-      <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
       <c r="AC50"/>
@@ -32961,8 +32946,10 @@
       <c r="DG50"/>
       <c r="DH50"/>
       <c r="DI50"/>
-    </row>
-    <row r="51" spans="1:113" s="9" customFormat="1">
+      <c r="DJ50"/>
+      <c r="DK50"/>
+    </row>
+    <row r="51" spans="1:115" s="9" customFormat="1">
       <c r="A51" s="9" t="s">
         <v>74</v>
       </c>
@@ -32990,14 +32977,12 @@
       <c r="I51" s="9">
         <v>25</v>
       </c>
-      <c r="V51" s="9">
+      <c r="X51" s="9">
         <v>5</v>
       </c>
-      <c r="W51" s="9">
+      <c r="Y51" s="9">
         <v>1</v>
       </c>
-      <c r="Y51"/>
-      <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
       <c r="AC51"/>
@@ -33085,8 +33070,10 @@
       <c r="DG51"/>
       <c r="DH51"/>
       <c r="DI51"/>
-    </row>
-    <row r="52" spans="1:113" s="18" customFormat="1">
+      <c r="DJ51"/>
+      <c r="DK51"/>
+    </row>
+    <row r="52" spans="1:115" s="18" customFormat="1">
       <c r="A52" s="18" t="s">
         <v>180</v>
       </c>
@@ -33123,8 +33110,6 @@
       <c r="M52" s="18">
         <v>0</v>
       </c>
-      <c r="Y52"/>
-      <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52"/>
@@ -33212,23 +33197,25 @@
       <c r="DG52"/>
       <c r="DH52"/>
       <c r="DI52"/>
-    </row>
-    <row r="53" spans="1:113">
+      <c r="DJ52"/>
+      <c r="DK52"/>
+    </row>
+    <row r="53" spans="1:115">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:113">
+    <row r="54" spans="1:115">
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:113">
+    <row r="55" spans="1:115">
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:113">
+    <row r="56" spans="1:115">
       <c r="B56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:113">
+    <row r="57" spans="1:115">
       <c r="B57" s="13"/>
     </row>
   </sheetData>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F089FF6-A926-4A47-A7B8-3F23A6F6B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226D154-F95A-4F5C-BEAD-8CD037F2D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
-    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -172,11 +172,21 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={7A824B9E-8309-405F-8789-09236E9AE565}</author>
     <author>tc={0815C989-6CA7-4603-8C5B-192E23334E1A}</author>
     <author>tc={D2699E04-0851-4D4C-8020-4EADA78C466D}</author>
   </authors>
   <commentList>
-    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{0815C989-6CA7-4603-8C5B-192E23334E1A}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7A824B9E-8309-405F-8789-09236E9AE565}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Represent waste cofiring
+</t>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="1" shapeId="0" xr:uid="{0815C989-6CA7-4603-8C5B-192E23334E1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -185,7 +195,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="K52" authorId="1" shapeId="0" xr:uid="{D2699E04-0851-4D4C-8020-4EADA78C466D}">
+    <comment ref="K52" authorId="2" shapeId="0" xr:uid="{D2699E04-0851-4D4C-8020-4EADA78C466D}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="217">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -913,9 +923,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1153,7 +1162,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1205,7 +1214,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4656,9 +4664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>560640</xdr:colOff>
+      <xdr:colOff>563815</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>159929</xdr:rowOff>
+      <xdr:rowOff>163104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9342,7 +9350,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -9618,7 +9626,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -10251,6 +10259,10 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2022-12-09T20:22:07.77" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{7A824B9E-8309-405F-8789-09236E9AE565}">
+    <text xml:space="preserve">Represent waste cofiring
+</text>
+  </threadedComment>
   <threadedComment ref="I46" dT="2022-10-20T11:24:21.21" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{0815C989-6CA7-4603-8C5B-192E23334E1A}">
     <text xml:space="preserve">Was 40
 </text>
@@ -10392,7 +10404,7 @@
   <dimension ref="A1:DK57"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10604,41 +10616,41 @@
       <c r="DJ2"/>
       <c r="DK2"/>
     </row>
-    <row r="3" spans="1:115">
-      <c r="A3" t="s">
+    <row r="3" spans="1:115" s="9" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>117000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>2900000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>1.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>9.4393000000000005E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>0.309</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <v>25</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="9">
         <v>0.15</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="9">
         <v>21</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="9">
         <v>39.369999999999997</v>
       </c>
     </row>
@@ -36109,7 +36121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D99415-0693-413C-A769-D84B674A7089}">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -36335,7 +36347,7 @@
         <v>38.159999999999997</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="B6:O6" si="0">C3</f>
+        <f t="shared" ref="C6:O6" si="0">C3</f>
         <v>30.24</v>
       </c>
       <c r="D6">
@@ -37277,19 +37289,19 @@
         <f>unit2020!D7</f>
         <v>1.9</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19" s="34">
         <f>unit2020!E7</f>
         <v>0.309</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <f>VLOOKUP(R19,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>30</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="35">
         <f>PMT(0.1,W19,S19,0)</f>
         <v>-254590.19580632143</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="35">
         <f>-X19</f>
         <v>254590.19580632143</v>
       </c>
@@ -37370,19 +37382,19 @@
         <f>unit2020!D8</f>
         <v>4.2</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20" s="34">
         <f>unit2020!E8</f>
         <v>0.61</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20" s="34">
         <f>VLOOKUP(R20,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>30</v>
       </c>
-      <c r="X20" s="36">
+      <c r="X20" s="35">
         <f t="shared" ref="X20:X28" si="3">PMT(0.1,W20,S20,0)</f>
         <v>-88045.776049686159</v>
       </c>
-      <c r="Y20" s="36">
+      <c r="Y20" s="35">
         <f t="shared" ref="Y20:Y28" si="4">-X20</f>
         <v>88045.776049686159</v>
       </c>
@@ -37463,19 +37475,19 @@
         <f>unit2020!D9</f>
         <v>0</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="34">
         <f>unit2020!E9</f>
         <v>0</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <f>VLOOKUP(R21,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>60</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="35">
         <f t="shared" si="3"/>
         <v>-269886.379816606</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="35">
         <f t="shared" si="4"/>
         <v>269886.379816606</v>
       </c>
@@ -37556,19 +37568,19 @@
         <f>unit2020!D10</f>
         <v>4.5</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="34">
         <f>unit2020!E10</f>
         <v>0.43</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="34">
         <f>VLOOKUP(R22,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>30</v>
       </c>
-      <c r="X22" s="36">
+      <c r="X22" s="35">
         <f t="shared" si="3"/>
         <v>-46144.472989895759</v>
       </c>
-      <c r="Y22" s="36">
+      <c r="Y22" s="35">
         <f t="shared" si="4"/>
         <v>46144.472989895759</v>
       </c>
@@ -37649,19 +37661,19 @@
         <f>unit2020!D11</f>
         <v>0</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23" s="34">
         <f>unit2020!E11</f>
         <v>1</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <f>VLOOKUP(R23,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>25</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="35">
         <f t="shared" si="3"/>
         <v>-41863.867432207924</v>
       </c>
-      <c r="Y23" s="36">
+      <c r="Y23" s="35">
         <f t="shared" si="4"/>
         <v>41863.867432207924</v>
       </c>
@@ -37742,19 +37754,19 @@
         <f>unit2020!D12</f>
         <v>2.7</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24" s="34">
         <f>unit2020!E12</f>
         <v>1</v>
       </c>
-      <c r="W24" s="35">
+      <c r="W24" s="34">
         <f>VLOOKUP(R24,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>30</v>
       </c>
-      <c r="X24" s="36">
+      <c r="X24" s="35">
         <f t="shared" si="3"/>
         <v>-204732.94912758347</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="35">
         <f t="shared" si="4"/>
         <v>204732.94912758347</v>
       </c>
@@ -37829,25 +37841,25 @@
       </c>
       <c r="T25">
         <f>unit2020!C13</f>
-        <v>24000</v>
+        <v>12600</v>
       </c>
       <c r="U25">
         <f>unit2020!D13</f>
         <v>1.35</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="34">
         <f>unit2020!E13</f>
         <v>1</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25" s="34">
         <f>VLOOKUP(R25,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>25</v>
       </c>
-      <c r="X25" s="36">
+      <c r="X25" s="35">
         <f t="shared" si="3"/>
         <v>-114574.79507762169</v>
       </c>
-      <c r="Y25" s="36">
+      <c r="Y25" s="35">
         <f t="shared" si="4"/>
         <v>114574.79507762169</v>
       </c>
@@ -37928,19 +37940,19 @@
         <f>unit2020!D14</f>
         <v>1.8</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="34">
         <f>unit2020!E14</f>
         <v>0.9</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26" s="34">
         <f>VLOOKUP(R26,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>20</v>
       </c>
-      <c r="X26" s="36">
+      <c r="X26" s="35">
         <f t="shared" si="3"/>
         <v>-33358.533435403006</v>
       </c>
-      <c r="Y26" s="36">
+      <c r="Y26" s="35">
         <f t="shared" si="4"/>
         <v>33358.533435403006</v>
       </c>
@@ -38015,25 +38027,25 @@
       </c>
       <c r="T27">
         <f>unit2020!C15</f>
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="U27">
         <f>unit2020!D15</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="V27" s="34">
         <f>unit2020!E15</f>
         <v>0.53</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="34">
         <f>VLOOKUP(R27,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>30</v>
       </c>
-      <c r="X27" s="36">
+      <c r="X27" s="35">
         <f t="shared" si="3"/>
         <v>-127295.09790316071</v>
       </c>
-      <c r="Y27" s="36">
+      <c r="Y27" s="35">
         <f t="shared" si="4"/>
         <v>127295.09790316071</v>
       </c>
@@ -38108,25 +38120,25 @@
       </c>
       <c r="T28">
         <f>unit2020!C16</f>
-        <v>0</v>
+        <v>14950</v>
       </c>
       <c r="U28">
         <f>unit2020!D16</f>
         <v>0</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="34">
         <f>unit2020!E16</f>
         <v>0</v>
       </c>
-      <c r="W28" s="35">
+      <c r="W28" s="34">
         <f>VLOOKUP(R28,'unit2030-none'!$A$1:$I$52,8,0)</f>
         <v>20</v>
       </c>
-      <c r="X28" s="36">
+      <c r="X28" s="35">
         <f t="shared" si="3"/>
         <v>-351204.27806991193</v>
       </c>
-      <c r="Y28" s="36">
+      <c r="Y28" s="35">
         <f t="shared" si="4"/>
         <v>351204.27806991193</v>
       </c>
@@ -38842,7 +38854,7 @@
       <c r="I44">
         <v>0.53</v>
       </c>
-      <c r="M44" s="37">
+      <c r="M44" s="36">
         <v>2024</v>
       </c>
     </row>
@@ -38917,7 +38929,7 @@
         <v>2020</v>
       </c>
       <c r="B47">
-        <f>B$43+($L6+B$45*$S$31)/B$44</f>
+        <f t="shared" ref="B47:B77" si="7">B$43+($L6+B$45*$S$31)/B$44</f>
         <v>123.25922330097089</v>
       </c>
       <c r="C47">
@@ -38929,23 +38941,23 @@
         <v>179.76129262635772</v>
       </c>
       <c r="E47">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" ref="E47:H77" si="8">E$43+(E$45*$S$31)/E$44</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G47">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H47">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I47">
-        <f>I$43+($G6+I$45*$S$31)/I$44</f>
+        <f t="shared" ref="I47:I77" si="9">I$43+($G6+I$45*$S$31)/I$44</f>
         <v>142.19312420629024</v>
       </c>
       <c r="M47">
@@ -38956,31 +38968,31 @@
         <v>371590.19580632146</v>
       </c>
       <c r="O47">
-        <f t="shared" ref="O47:U47" si="7">$M47*C$47 + C$42+C$41</f>
+        <f t="shared" ref="O47:U47" si="10">$M47*C$47 + C$42+C$41</f>
         <v>115845.77604968616</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>53889.472989895759</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>240785.94912758347</v>
       </c>
       <c r="S47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>138574.7950776217</v>
       </c>
       <c r="T47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33898.533435403006</v>
       </c>
       <c r="U47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>127295.09790316071</v>
       </c>
     </row>
@@ -38989,70 +39001,70 @@
         <v>2021</v>
       </c>
       <c r="B48">
-        <f>B$43+($L7+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:E48" si="8">C$43+($G7+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C48" si="11">C$43+($G7+C$45*$S$31)/C$44</f>
         <v>128.97872540327941</v>
       </c>
       <c r="D48">
-        <f>D$43+($G7+D$45*$S$31)/D$44</f>
+        <f t="shared" ref="D48:D77" si="12">D$43+($G7+D$45*$S$31)/D$44</f>
         <v>181.51168022325683</v>
       </c>
       <c r="E48">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G48">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H48">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I48">
-        <f>I$43+($G7+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>143.61324999245363</v>
       </c>
       <c r="M48">
         <v>300</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:N76" si="9">$M48*B$47 + B$42+B$41</f>
+        <f t="shared" ref="N48:N76" si="13">$M48*B$47 + B$42+B$41</f>
         <v>408567.9627966127</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O76" si="10">$M48*C$47 + C$42+C$41</f>
+        <f t="shared" ref="O48:O76" si="14">$M48*C$47 + C$42+C$41</f>
         <v>154169.22973624378</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48:P76" si="11">$M48*D$47 + D$42+D$41</f>
+        <f t="shared" ref="P48:P76" si="15">$M48*D$47 + D$42+D$41</f>
         <v>107817.86077780307</v>
       </c>
       <c r="Q48">
-        <f t="shared" ref="Q48:Q76" si="12">$M48*E$47 + E$42+E$41</f>
+        <f t="shared" ref="Q48:Q76" si="16">$M48*E$47 + E$42+E$41</f>
         <v>49113.867432207924</v>
       </c>
       <c r="R48">
-        <f t="shared" ref="R48:R76" si="13">$M48*F$47 + F$42+F$41</f>
+        <f t="shared" ref="R48:R76" si="17">$M48*F$47 + F$42+F$41</f>
         <v>241595.94912758347</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:S76" si="14">$M48*G$47 + G$42+G$41</f>
+        <f t="shared" ref="S48:S76" si="18">$M48*G$47 + G$42+G$41</f>
         <v>138979.7950776217</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:T76" si="15">$M48*H$47 + H$42+H$41</f>
+        <f t="shared" ref="T48:T76" si="19">$M48*H$47 + H$42+H$41</f>
         <v>34438.533435403006</v>
       </c>
       <c r="U48">
-        <f t="shared" ref="U48:U76" si="16">$M48*I$47 + I$42+I$41</f>
+        <f t="shared" ref="U48:U76" si="20">$M48*I$47 + I$42+I$41</f>
         <v>169953.0351650478</v>
       </c>
     </row>
@@ -39061,70 +39073,70 @@
         <v>2022</v>
       </c>
       <c r="B49">
-        <f>B$43+($L8+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:E49" si="17">C$43+($G8+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C49" si="21">C$43+($G8+C$45*$S$31)/C$44</f>
         <v>130.21260518470032</v>
       </c>
       <c r="D49">
-        <f>D$43+($G8+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>183.26206782015626</v>
       </c>
       <c r="E49">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G49">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H49">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I49">
-        <f>I$43+($G8+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>145.03337577861734</v>
       </c>
       <c r="M49">
         <v>600</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>445545.72978690395</v>
       </c>
       <c r="O49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>192492.68342280138</v>
       </c>
       <c r="P49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>161746.24856571038</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>242405.94912758347</v>
       </c>
       <c r="S49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>139384.7950776217</v>
       </c>
       <c r="T49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34978.533435403006</v>
       </c>
       <c r="U49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>212610.97242693487</v>
       </c>
     </row>
@@ -39133,70 +39145,70 @@
         <v>2023</v>
       </c>
       <c r="B50">
-        <f>B$43+($L9+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:E50" si="18">C$43+($G9+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C50" si="22">C$43+($G9+C$45*$S$31)/C$44</f>
         <v>131.44648496612123</v>
       </c>
       <c r="D50">
-        <f>D$43+($G9+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>185.01245541705569</v>
       </c>
       <c r="E50">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G50">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H50">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I50">
-        <f>I$43+($G9+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>146.45350156478102</v>
       </c>
       <c r="M50">
         <v>900</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>482523.49677719525</v>
       </c>
       <c r="O50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>230816.137109359</v>
       </c>
       <c r="P50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>215674.63635361771</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>243215.94912758347</v>
       </c>
       <c r="S50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>139789.7950776217</v>
       </c>
       <c r="T50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35518.533435403006</v>
       </c>
       <c r="U50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>255268.90968882194</v>
       </c>
     </row>
@@ -39205,70 +39217,70 @@
         <v>2024</v>
       </c>
       <c r="B51">
-        <f>B$43+($L10+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:E51" si="19">C$43+($G10+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C51" si="23">C$43+($G10+C$45*$S$31)/C$44</f>
         <v>132.68036474754174</v>
       </c>
       <c r="D51">
-        <f>D$43+($G10+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>186.76284301395458</v>
       </c>
       <c r="E51">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G51">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H51">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I51">
-        <f>I$43+($G10+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>147.87362735094428</v>
       </c>
       <c r="M51">
         <v>1200</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>519501.26376748655</v>
       </c>
       <c r="O51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>269139.59079591662</v>
       </c>
       <c r="P51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>269603.02414152503</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>244025.94912758347</v>
       </c>
       <c r="S51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>140194.7950776217</v>
       </c>
       <c r="T51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36058.533435403006</v>
       </c>
       <c r="U51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>297926.846950709</v>
       </c>
     </row>
@@ -39277,70 +39289,70 @@
         <v>2025</v>
       </c>
       <c r="B52">
-        <f>B$43+($L11+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:E52" si="20">C$43+($G11+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C52" si="24">C$43+($G11+C$45*$S$31)/C$44</f>
         <v>133.91424452896266</v>
       </c>
       <c r="D52">
-        <f>D$43+($G11+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>188.51323061085401</v>
       </c>
       <c r="E52">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G52">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H52">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I52">
-        <f>I$43+($G11+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>149.29375313710798</v>
       </c>
       <c r="M52">
         <v>1500</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>556479.03075777774</v>
       </c>
       <c r="O52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>307463.04448247422</v>
       </c>
       <c r="P52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>323531.4119294323</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>244835.94912758347</v>
       </c>
       <c r="S52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>140599.7950776217</v>
       </c>
       <c r="T52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36598.533435403006</v>
       </c>
       <c r="U52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>340584.78421259607</v>
       </c>
     </row>
@@ -39349,70 +39361,70 @@
         <v>2026</v>
       </c>
       <c r="B53">
-        <f>B$43+($L12+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:E53" si="21">C$43+($G12+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C53" si="25">C$43+($G12+C$45*$S$31)/C$44</f>
         <v>135.14812431038357</v>
       </c>
       <c r="D53">
-        <f>D$43+($G12+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>190.26361820775347</v>
       </c>
       <c r="E53">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G53">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H53">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I53">
-        <f>I$43+($G12+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>150.71387892327166</v>
       </c>
       <c r="M53">
         <v>1800</v>
       </c>
       <c r="N53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>593456.79774806905</v>
       </c>
       <c r="O53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>345786.49816903187</v>
       </c>
       <c r="P53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>377459.79971733969</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>245645.94912758347</v>
       </c>
       <c r="S53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>141004.7950776217</v>
       </c>
       <c r="T53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37138.533435403006</v>
       </c>
       <c r="U53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>383242.72147448314</v>
       </c>
     </row>
@@ -39421,70 +39433,70 @@
         <v>2027</v>
       </c>
       <c r="B54">
-        <f>B$43+($L13+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:E54" si="22">C$43+($G13+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C54" si="26">C$43+($G13+C$45*$S$31)/C$44</f>
         <v>136.38200409180411</v>
       </c>
       <c r="D54">
-        <f>D$43+($G13+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>192.01400580465236</v>
       </c>
       <c r="E54">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G54">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H54">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I54">
-        <f>I$43+($G13+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>152.13400470943492</v>
       </c>
       <c r="M54">
         <v>2100</v>
       </c>
       <c r="N54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>630434.56473836035</v>
       </c>
       <c r="O54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>384109.95185558952</v>
       </c>
       <c r="P54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>431388.18750524695</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>246455.94912758347</v>
       </c>
       <c r="S54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>141409.7950776217</v>
       </c>
       <c r="T54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37678.533435403006</v>
       </c>
       <c r="U54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>425900.65873637021</v>
       </c>
     </row>
@@ -39493,70 +39505,70 @@
         <v>2028</v>
       </c>
       <c r="B55">
-        <f>B$43+($L14+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:E55" si="23">C$43+($G14+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C55" si="27">C$43+($G14+C$45*$S$31)/C$44</f>
         <v>137.61588387322502</v>
       </c>
       <c r="D55">
-        <f>D$43+($G14+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>193.76439340155179</v>
       </c>
       <c r="E55">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G55">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H55">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I55">
-        <f>I$43+($G14+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>153.5541304955986</v>
       </c>
       <c r="M55">
         <v>2400</v>
       </c>
       <c r="N55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>667412.33172865154</v>
       </c>
       <c r="O55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>422433.40554214711</v>
       </c>
       <c r="P55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>485316.57529315422</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>247265.94912758347</v>
       </c>
       <c r="S55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>141814.7950776217</v>
       </c>
       <c r="T55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>38218.533435403006</v>
       </c>
       <c r="U55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>468558.59599825728</v>
       </c>
     </row>
@@ -39565,70 +39577,70 @@
         <v>2029</v>
       </c>
       <c r="B56">
-        <f>B$43+($L15+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:E56" si="24">C$43+($G15+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C56" si="28">C$43+($G15+C$45*$S$31)/C$44</f>
         <v>138.84976365464556</v>
       </c>
       <c r="D56">
-        <f>D$43+($G15+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>195.51478099845068</v>
       </c>
       <c r="E56">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G56">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H56">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I56">
-        <f>I$43+($G15+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>154.97425628176188</v>
       </c>
       <c r="M56">
         <v>2700</v>
       </c>
       <c r="N56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>704390.09871894284</v>
       </c>
       <c r="O56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>460756.85922870471</v>
       </c>
       <c r="P56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>539244.96308106161</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>248075.94912758347</v>
       </c>
       <c r="S56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>142219.7950776217</v>
       </c>
       <c r="T56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>38758.533435403006</v>
       </c>
       <c r="U56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>511216.53326014435</v>
       </c>
     </row>
@@ -39637,70 +39649,70 @@
         <v>2030</v>
       </c>
       <c r="B57">
-        <f>B$43+($L16+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:E57" si="25">C$43+($G16+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C57" si="29">C$43+($G16+C$45*$S$31)/C$44</f>
         <v>140.08364343606647</v>
       </c>
       <c r="D57">
-        <f>D$43+($G16+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>197.26516859535013</v>
       </c>
       <c r="E57">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G57">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H57">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I57">
-        <f>I$43+($G16+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>156.39438206792556</v>
       </c>
       <c r="M57">
         <v>3000</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>741367.86570923415</v>
       </c>
       <c r="O57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>499080.3129152623</v>
       </c>
       <c r="P57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>593173.35086896888</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>248885.94912758347</v>
       </c>
       <c r="S57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>142624.7950776217</v>
       </c>
       <c r="T57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>39298.533435403006</v>
       </c>
       <c r="U57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>553874.47052203142</v>
       </c>
     </row>
@@ -39709,70 +39721,70 @@
         <v>2031</v>
       </c>
       <c r="B58">
-        <f>B$43+($L17+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:E58" si="26">C$43+($G17+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C58" si="30">C$43+($G17+C$45*$S$31)/C$44</f>
         <v>141.31752321748738</v>
       </c>
       <c r="D58">
-        <f>D$43+($G17+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>199.01555619224956</v>
       </c>
       <c r="E58">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G58">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H58">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I58">
-        <f>I$43+($G17+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>157.81450785408924</v>
       </c>
       <c r="M58">
         <v>3300</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>778345.63269952533</v>
       </c>
       <c r="O58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>537403.76660182001</v>
       </c>
       <c r="P58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>647101.73865687614</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>249695.94912758347</v>
       </c>
       <c r="S58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>143029.7950776217</v>
       </c>
       <c r="T58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>39838.533435403006</v>
       </c>
       <c r="U58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>596532.40778391843</v>
       </c>
     </row>
@@ -39781,70 +39793,70 @@
         <v>2032</v>
       </c>
       <c r="B59">
-        <f>B$43+($L18+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:E59" si="27">C$43+($G18+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C59" si="31">C$43+($G18+C$45*$S$31)/C$44</f>
         <v>142.55140299890792</v>
       </c>
       <c r="D59">
-        <f>D$43+($G18+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>200.76594378914845</v>
       </c>
       <c r="E59">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G59">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H59">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I59">
-        <f>I$43+($G18+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>159.2346336402525</v>
       </c>
       <c r="M59">
         <v>3600</v>
       </c>
       <c r="N59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>815323.39968981664</v>
       </c>
       <c r="O59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>575727.2202883776</v>
       </c>
       <c r="P59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>701030.12644478353</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>250505.94912758347</v>
       </c>
       <c r="S59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>143434.7950776217</v>
       </c>
       <c r="T59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>40378.533435403006</v>
       </c>
       <c r="U59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>639190.34504580556</v>
       </c>
     </row>
@@ -39853,70 +39865,70 @@
         <v>2033</v>
       </c>
       <c r="B60">
-        <f>B$43+($L19+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:E60" si="28">C$43+($G19+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C60" si="32">C$43+($G19+C$45*$S$31)/C$44</f>
         <v>143.78528278032883</v>
       </c>
       <c r="D60">
-        <f>D$43+($G19+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>202.51633138604788</v>
       </c>
       <c r="E60">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G60">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H60">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I60">
-        <f>I$43+($G19+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>160.65475942641621</v>
       </c>
       <c r="M60">
         <v>3900</v>
       </c>
       <c r="N60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>852301.16668010794</v>
       </c>
       <c r="O60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>614050.6739749352</v>
       </c>
       <c r="P60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>754958.5142326908</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>251315.94912758347</v>
       </c>
       <c r="S60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>143839.7950776217</v>
       </c>
       <c r="T60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>40918.533435403006</v>
       </c>
       <c r="U60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>681848.28230769269</v>
       </c>
     </row>
@@ -39925,70 +39937,70 @@
         <v>2034</v>
       </c>
       <c r="B61">
-        <f>B$43+($L20+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:E61" si="29">C$43+($G20+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C61" si="33">C$43+($G20+C$45*$S$31)/C$44</f>
         <v>145.01916256174937</v>
       </c>
       <c r="D61">
-        <f>D$43+($G20+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>204.26671898294677</v>
       </c>
       <c r="E61">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G61">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H61">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I61">
-        <f>I$43+($G20+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>162.07488521257946</v>
       </c>
       <c r="M61">
         <v>4200</v>
       </c>
       <c r="N61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>889278.93367039924</v>
       </c>
       <c r="O61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>652374.12766149279</v>
       </c>
       <c r="P61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>808886.90202059818</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>252125.94912758347</v>
       </c>
       <c r="S61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>144244.7950776217</v>
       </c>
       <c r="T61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>41458.533435403006</v>
       </c>
       <c r="U61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>724506.2195695797</v>
       </c>
     </row>
@@ -39997,70 +40009,70 @@
         <v>2035</v>
       </c>
       <c r="B62">
-        <f>B$43+($L21+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:E62" si="30">C$43+($G21+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C62" si="34">C$43+($G21+C$45*$S$31)/C$44</f>
         <v>146.25304234317028</v>
       </c>
       <c r="D62">
-        <f>D$43+($G21+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>206.01710657984623</v>
       </c>
       <c r="E62">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G62">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H62">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I62">
-        <f>I$43+($G21+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>163.49501099874314</v>
       </c>
       <c r="M62">
         <v>4500</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>926256.70066069043</v>
       </c>
       <c r="O62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>690697.58134805039</v>
       </c>
       <c r="P62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>862815.28980850545</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>252935.94912758347</v>
       </c>
       <c r="S62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>144649.7950776217</v>
       </c>
       <c r="T62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>41998.533435403006</v>
       </c>
       <c r="U62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>767164.15683146683</v>
       </c>
     </row>
@@ -40069,70 +40081,70 @@
         <v>2036</v>
       </c>
       <c r="B63">
-        <f>B$43+($L22+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:E63" si="31">C$43+($G22+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C63" si="35">C$43+($G22+C$45*$S$31)/C$44</f>
         <v>147.48692212459119</v>
       </c>
       <c r="D63">
-        <f>D$43+($G22+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>207.76749417674566</v>
       </c>
       <c r="E63">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G63">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H63">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I63">
-        <f>I$43+($G22+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>164.91513678490682</v>
       </c>
       <c r="M63">
         <v>4800</v>
       </c>
       <c r="N63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>963234.46765098174</v>
       </c>
       <c r="O63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>729021.03503460798</v>
       </c>
       <c r="P63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>916743.67759641272</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>253745.94912758347</v>
       </c>
       <c r="S63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>145054.7950776217</v>
       </c>
       <c r="T63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>42538.533435403006</v>
       </c>
       <c r="U63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>809822.09409335384</v>
       </c>
     </row>
@@ -40141,70 +40153,70 @@
         <v>2037</v>
       </c>
       <c r="B64">
-        <f>B$43+($L23+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:E64" si="32">C$43+($G23+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C64" si="36">C$43+($G23+C$45*$S$31)/C$44</f>
         <v>148.72080190601173</v>
       </c>
       <c r="D64">
-        <f>D$43+($G23+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>209.51788177364455</v>
       </c>
       <c r="E64">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G64">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H64">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I64">
-        <f>I$43+($G23+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>166.3352625710701</v>
       </c>
       <c r="M64">
         <v>5100</v>
       </c>
       <c r="N64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1000212.234641273</v>
       </c>
       <c r="O64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>767344.48872116569</v>
       </c>
       <c r="P64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>970672.0653843201</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>254555.94912758347</v>
       </c>
       <c r="S64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>145459.7950776217</v>
       </c>
       <c r="T64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>43078.533435403006</v>
       </c>
       <c r="U64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>852480.03135524096</v>
       </c>
     </row>
@@ -40213,70 +40225,70 @@
         <v>2038</v>
       </c>
       <c r="B65">
-        <f>B$43+($L24+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:E65" si="33">C$43+($G24+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C65" si="37">C$43+($G24+C$45*$S$31)/C$44</f>
         <v>149.95468168743264</v>
       </c>
       <c r="D65">
-        <f>D$43+($G24+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>211.26826937054398</v>
       </c>
       <c r="E65">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G65">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H65">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I65">
-        <f>I$43+($G24+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>167.75538835723378</v>
       </c>
       <c r="M65">
         <v>5400</v>
       </c>
       <c r="N65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1037190.0016315642</v>
       </c>
       <c r="O65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>805667.94240772328</v>
       </c>
       <c r="P65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1024600.4531722274</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>255365.94912758347</v>
       </c>
       <c r="S65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>145864.7950776217</v>
       </c>
       <c r="T65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>43618.533435403006</v>
       </c>
       <c r="U65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>895137.96861712798</v>
       </c>
     </row>
@@ -40285,70 +40297,70 @@
         <v>2039</v>
       </c>
       <c r="B66">
-        <f>B$43+($L25+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:E66" si="34">C$43+($G25+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C66" si="38">C$43+($G25+C$45*$S$31)/C$44</f>
         <v>151.18856146885318</v>
       </c>
       <c r="D66">
-        <f>D$43+($G25+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>213.01865696744289</v>
       </c>
       <c r="E66">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G66">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H66">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I66">
-        <f>I$43+($G25+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>169.17551414339704</v>
       </c>
       <c r="M66">
         <v>5700</v>
       </c>
       <c r="N66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1074167.7686218554</v>
       </c>
       <c r="O66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>843991.39609428088</v>
       </c>
       <c r="P66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1078528.8409601348</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>256175.94912758347</v>
       </c>
       <c r="S66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>146269.7950776217</v>
       </c>
       <c r="T66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44158.533435403006</v>
       </c>
       <c r="U66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>937795.9058790151</v>
       </c>
     </row>
@@ -40357,70 +40369,70 @@
         <v>2040</v>
       </c>
       <c r="B67">
-        <f>B$43+($L26+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:E67" si="35">C$43+($G26+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C67" si="39">C$43+($G26+C$45*$S$31)/C$44</f>
         <v>152.42244125027409</v>
       </c>
       <c r="D67">
-        <f>D$43+($G26+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>214.76904456434232</v>
       </c>
       <c r="E67">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G67">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H67">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I67">
-        <f>I$43+($G26+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>170.59563992956072</v>
       </c>
       <c r="M67">
         <v>6000</v>
       </c>
       <c r="N67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1111145.5356121468</v>
       </c>
       <c r="O67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>882314.84978083847</v>
       </c>
       <c r="P67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1132457.2287480421</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>256985.94912758347</v>
       </c>
       <c r="S67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>146674.7950776217</v>
       </c>
       <c r="T67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44698.533435403006</v>
       </c>
       <c r="U67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>980453.84314090211</v>
       </c>
     </row>
@@ -40429,70 +40441,70 @@
         <v>2041</v>
       </c>
       <c r="B68">
-        <f>B$43+($L27+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:E68" si="36">C$43+($G27+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C68" si="40">C$43+($G27+C$45*$S$31)/C$44</f>
         <v>153.656321031695</v>
       </c>
       <c r="D68">
-        <f>D$43+($G27+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>216.51943216124175</v>
       </c>
       <c r="E68">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G68">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H68">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I68">
-        <f>I$43+($G27+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>172.01576571572443</v>
       </c>
       <c r="M68">
         <v>6300</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1148123.302602438</v>
       </c>
       <c r="O68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>920638.30346739618</v>
       </c>
       <c r="P68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1186385.6165359495</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>257795.94912758347</v>
       </c>
       <c r="S68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>147079.7950776217</v>
       </c>
       <c r="T68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45238.533435403006</v>
       </c>
       <c r="U68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1023111.7804027892</v>
       </c>
     </row>
@@ -40501,70 +40513,70 @@
         <v>2042</v>
       </c>
       <c r="B69">
-        <f>B$43+($L28+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:E69" si="37">C$43+($G28+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C69" si="41">C$43+($G28+C$45*$S$31)/C$44</f>
         <v>154.89020081311551</v>
       </c>
       <c r="D69">
-        <f>D$43+($G28+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>218.26981975814064</v>
       </c>
       <c r="E69">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G69">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H69">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I69">
-        <f>I$43+($G28+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>173.43589150188768</v>
       </c>
       <c r="M69">
         <v>6600</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1185101.0695927292</v>
       </c>
       <c r="O69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>958961.75715395377</v>
       </c>
       <c r="P69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1240314.0043238567</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>258605.94912758347</v>
       </c>
       <c r="S69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>147484.7950776217</v>
       </c>
       <c r="T69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45778.533435403006</v>
       </c>
       <c r="U69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1065769.7176646763</v>
       </c>
     </row>
@@ -40573,70 +40585,70 @@
         <v>2043</v>
       </c>
       <c r="B70">
-        <f>B$43+($L29+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:E70" si="38">C$43+($G29+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C70" si="42">C$43+($G29+C$45*$S$31)/C$44</f>
         <v>156.12408059453642</v>
       </c>
       <c r="D70">
-        <f>D$43+($G29+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>220.02020735504007</v>
       </c>
       <c r="E70">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G70">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H70">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I70">
-        <f>I$43+($G29+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>174.85601728805136</v>
       </c>
       <c r="M70">
         <v>6900</v>
       </c>
       <c r="N70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1222078.8365830206</v>
       </c>
       <c r="O70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>997285.21084051137</v>
       </c>
       <c r="P70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1294242.3921117641</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>259415.94912758347</v>
       </c>
       <c r="S70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>147889.7950776217</v>
       </c>
       <c r="T70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>46318.533435403006</v>
       </c>
       <c r="U70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1108427.6549265634</v>
       </c>
     </row>
@@ -40645,70 +40657,70 @@
         <v>2044</v>
       </c>
       <c r="B71">
-        <f>B$43+($L30+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:E71" si="39">C$43+($G30+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C71" si="43">C$43+($G30+C$45*$S$31)/C$44</f>
         <v>157.35796037595733</v>
       </c>
       <c r="D71">
-        <f>D$43+($G30+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>221.7705949519395</v>
       </c>
       <c r="E71">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G71">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H71">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I71">
-        <f>I$43+($G30+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>176.27614307421507</v>
       </c>
       <c r="M71">
         <v>7200</v>
       </c>
       <c r="N71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1259056.6035733118</v>
       </c>
       <c r="O71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1035608.664527069</v>
       </c>
       <c r="P71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1348170.7798996714</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>260225.94912758347</v>
       </c>
       <c r="S71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>148294.7950776217</v>
       </c>
       <c r="T71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>46858.533435403006</v>
       </c>
       <c r="U71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1151085.5921884503</v>
       </c>
     </row>
@@ -40717,7 +40729,7 @@
         <v>2045</v>
       </c>
       <c r="B72">
-        <f>B$43+($L31+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C72">
@@ -40725,62 +40737,62 @@
         <v>158.59184015737787</v>
       </c>
       <c r="D72">
-        <f>D$43+($G31+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>223.52098254883842</v>
       </c>
       <c r="E72">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G72">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H72">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I72">
-        <f>I$43+($G31+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>177.69626886037832</v>
       </c>
       <c r="M72">
         <v>7500</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1296034.370563603</v>
       </c>
       <c r="O72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1073932.1182136266</v>
       </c>
       <c r="P72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1402099.1676875788</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>261035.94912758347</v>
       </c>
       <c r="S72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>148699.7950776217</v>
       </c>
       <c r="T72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>47398.533435403006</v>
       </c>
       <c r="U72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1193743.5294503374</v>
       </c>
     </row>
@@ -40789,70 +40801,70 @@
         <v>2046</v>
       </c>
       <c r="B73">
-        <f>B$43+($L32+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:E73" si="40">C$43+($G32+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C73" si="44">C$43+($G32+C$45*$S$31)/C$44</f>
         <v>159.82571993879878</v>
       </c>
       <c r="D73">
-        <f>D$43+($G32+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>225.27137014573785</v>
       </c>
       <c r="E73">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G73">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H73">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I73">
-        <f>I$43+($G32+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>179.11639464654201</v>
       </c>
       <c r="M73">
         <v>7800</v>
       </c>
       <c r="N73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1333012.1375538944</v>
       </c>
       <c r="O73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1112255.5719001843</v>
       </c>
       <c r="P73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1456027.555475486</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>261845.94912758347</v>
       </c>
       <c r="S73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>149104.7950776217</v>
       </c>
       <c r="T73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>47938.533435403006</v>
       </c>
       <c r="U73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1236401.4667122245</v>
       </c>
     </row>
@@ -40861,70 +40873,70 @@
         <v>2047</v>
       </c>
       <c r="B74">
-        <f>B$43+($L33+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:E74" si="41">C$43+($G33+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C74" si="45">C$43+($G33+C$45*$S$31)/C$44</f>
         <v>161.05959972021932</v>
       </c>
       <c r="D74">
-        <f>D$43+($G33+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>227.02175774263674</v>
       </c>
       <c r="E74">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G74">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H74">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I74">
-        <f>I$43+($G33+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>180.53652043270526</v>
       </c>
       <c r="M74">
         <v>8100</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1369989.9045441856</v>
       </c>
       <c r="O74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1150579.025586742</v>
       </c>
       <c r="P74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1509955.9432633934</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>262655.94912758347</v>
       </c>
       <c r="S74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>149509.7950776217</v>
       </c>
       <c r="T74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>48478.533435403006</v>
       </c>
       <c r="U74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1279059.4039741114</v>
       </c>
     </row>
@@ -40933,70 +40945,70 @@
         <v>2048</v>
       </c>
       <c r="B75">
-        <f>B$43+($L34+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:E75" si="42">C$43+($G34+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C75" si="46">C$43+($G34+C$45*$S$31)/C$44</f>
         <v>162.29347950164023</v>
       </c>
       <c r="D75">
-        <f>D$43+($G34+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>228.77214533953617</v>
       </c>
       <c r="E75">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G75">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H75">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I75">
-        <f>I$43+($G34+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>181.95664621886897</v>
       </c>
       <c r="M75">
         <v>8400</v>
       </c>
       <c r="N75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1406967.671534477</v>
       </c>
       <c r="O75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1188902.4792732995</v>
       </c>
       <c r="P75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1563884.3310513007</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>263465.94912758347</v>
       </c>
       <c r="S75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>149914.7950776217</v>
       </c>
       <c r="T75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>49018.533435403006</v>
       </c>
       <c r="U75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1321717.3412359986</v>
       </c>
     </row>
@@ -41005,70 +41017,70 @@
         <v>2049</v>
       </c>
       <c r="B76">
-        <f>B$43+($L35+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:E76" si="43">C$43+($G35+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C76" si="47">C$43+($G35+C$45*$S$31)/C$44</f>
         <v>163.52735928306114</v>
       </c>
       <c r="D76">
-        <f>D$43+($G35+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>230.5225329364356</v>
       </c>
       <c r="E76">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G76">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H76">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I76">
-        <f>I$43+($G35+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>183.37677200503265</v>
       </c>
       <c r="M76">
         <v>8700</v>
       </c>
       <c r="N76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1443945.4385247682</v>
       </c>
       <c r="O76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1227225.9329598572</v>
       </c>
       <c r="P76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1617812.7188392079</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49113.867432207924</v>
       </c>
       <c r="R76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>264275.94912758347</v>
       </c>
       <c r="S76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>150319.7950776217</v>
       </c>
       <c r="T76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>49558.533435403006</v>
       </c>
       <c r="U76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1364375.2784978857</v>
       </c>
     </row>
@@ -41077,35 +41089,35 @@
         <v>2050</v>
       </c>
       <c r="B77">
-        <f>B$43+($L36+B$45*$S$31)/B$44</f>
+        <f t="shared" si="7"/>
         <v>123.25922330097089</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:E77" si="44">C$43+($G36+C$45*$S$31)/C$44</f>
+        <f t="shared" ref="C77" si="48">C$43+($G36+C$45*$S$31)/C$44</f>
         <v>164.76123906448166</v>
       </c>
       <c r="D77">
-        <f>D$43+($G36+D$45*$S$31)/D$44</f>
+        <f t="shared" si="12"/>
         <v>232.27292053333446</v>
       </c>
       <c r="E77">
-        <f>E$43+(E$45*$S$31)/E$44</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>F$43+(F$45*$S$31)/F$44</f>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="G77">
-        <f>G$43+(G$45*$S$31)/G$44</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="H77">
-        <f>H$43+(H$45*$S$31)/H$44</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="I77">
-        <f>I$43+($G36+I$45*$S$31)/I$44</f>
+        <f t="shared" si="9"/>
         <v>184.79689779119587</v>
       </c>
     </row>
@@ -41340,8 +41352,8 @@
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -41582,7 +41594,7 @@
         <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.9</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f>VLOOKUP($A7,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0.309</v>
       </c>
@@ -41610,7 +41622,7 @@
         <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <f>VLOOKUP($A8,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0.61</v>
       </c>
@@ -41638,7 +41650,7 @@
         <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>VLOOKUP($A9,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0</v>
       </c>
@@ -41672,7 +41684,7 @@
         <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f>VLOOKUP($A10,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0.43</v>
       </c>
@@ -41700,7 +41712,7 @@
         <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f>VLOOKUP($A11,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -41728,7 +41740,7 @@
         <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>2.7</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <f>VLOOKUP($A12,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -41749,13 +41761,14 @@
         <v>1040000</v>
       </c>
       <c r="C13" s="27">
-        <v>24000</v>
+        <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>12600</v>
       </c>
       <c r="D13" s="27">
         <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.35</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>VLOOKUP($A13,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -41783,7 +41796,7 @@
         <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <f>VLOOKUP($A14,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0.9</v>
       </c>
@@ -41803,9 +41816,15 @@
         <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>1200000</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="34">
+      <c r="C15" s="27">
+        <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>27800</v>
+      </c>
+      <c r="D15" s="27">
+        <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E15" s="33">
         <f>VLOOKUP($A15,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0.53</v>
       </c>
@@ -41818,30 +41837,54 @@
         <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>2990000</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="34">
+      <c r="C16" s="27">
+        <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>14950</v>
+      </c>
+      <c r="D16" s="27">
+        <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
         <f>VLOOKUP($A16,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
-      <c r="E17" s="33"/>
-    </row>
-    <row r="19" spans="5:18">
+    <row r="17" spans="1:18">
+      <c r="A17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="27">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>2900000</v>
+      </c>
+      <c r="C17" s="27">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>117000</v>
+      </c>
+      <c r="D17" s="27">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="E17" s="33">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="R19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="5:18">
+    <row r="24" spans="1:18">
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="5:18">
+    <row r="25" spans="1:18">
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="5:18">
+    <row r="26" spans="1:18">
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226D154-F95A-4F5C-BEAD-8CD037F2D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81351131-A044-4129-AD8E-96CBAA7CD1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="977" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId18"/>
-    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4417" uniqueCount="219">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -918,6 +918,12 @@
   <si>
     <t>lifetime</t>
   </si>
+  <si>
+    <t>&lt;- addded dummy</t>
+  </si>
+  <si>
+    <t>&lt;- added from high_co2_price</t>
+  </si>
 </sst>
 </file>
 
@@ -926,7 +932,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,19 +1041,13 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1106,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1162,7 +1168,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1220,6 +1226,8 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -9350,7 +9358,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -9626,7 +9634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -35097,10 +35105,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35495,22 +35503,25 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2050</v>
+      <c r="A26" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="8">
-        <v>120</v>
+        <v>200</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>92</v>
@@ -35524,7 +35535,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>92</v>
@@ -35538,7 +35549,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>92</v>
@@ -35552,7 +35563,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>92</v>
@@ -35566,7 +35577,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>92</v>
@@ -35580,7 +35591,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>92</v>
@@ -35594,21 +35605,21 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>93</v>
+      <c r="C33" s="8">
+        <v>2050</v>
       </c>
       <c r="D33" s="8">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>92</v>
@@ -35622,7 +35633,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>92</v>
@@ -35636,7 +35647,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>92</v>
@@ -35650,7 +35661,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>92</v>
@@ -35664,7 +35675,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>92</v>
@@ -35678,7 +35689,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>92</v>
@@ -35692,21 +35703,21 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="8">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>92</v>
@@ -35720,7 +35731,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>92</v>
@@ -35734,7 +35745,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>92</v>
@@ -35748,7 +35759,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>92</v>
@@ -35762,7 +35773,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>92</v>
@@ -35776,7 +35787,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>92</v>
@@ -35790,16 +35801,16 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="8">
-        <v>113000000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -35810,10 +35821,10 @@
         <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="8">
-        <v>116000000</v>
+        <v>113000000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -35824,10 +35835,10 @@
         <v>95</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="8">
-        <v>109000000</v>
+        <v>116000000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -35838,15 +35849,15 @@
         <v>95</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="8">
-        <v>111000000</v>
+        <v>109000000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>95</v>
@@ -35855,7 +35866,7 @@
         <v>99</v>
       </c>
       <c r="D51" s="8">
-        <v>309000000</v>
+        <v>111000000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -35866,10 +35877,10 @@
         <v>95</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D52" s="8">
-        <v>299000000</v>
+        <v>309000000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -35880,10 +35891,10 @@
         <v>95</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="8">
-        <v>321000000</v>
+        <v>299000000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -35894,43 +35905,43 @@
         <v>95</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="8">
+        <v>321000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>335000000</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="8">
-        <v>38.159999999999997</v>
+      <c r="C56" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>166</v>
@@ -35939,12 +35950,12 @@
         <v>83</v>
       </c>
       <c r="D57" s="8">
-        <v>30.24</v>
+        <v>38.159999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>166</v>
@@ -35953,12 +35964,12 @@
         <v>83</v>
       </c>
       <c r="D58" s="8">
-        <v>46.44</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>166</v>
@@ -35967,12 +35978,12 @@
         <v>83</v>
       </c>
       <c r="D59" s="8">
-        <v>3.96</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>166</v>
@@ -35981,12 +35992,12 @@
         <v>83</v>
       </c>
       <c r="D60" s="8">
-        <v>22.18</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>166</v>
@@ -35995,12 +36006,12 @@
         <v>83</v>
       </c>
       <c r="D61" s="8">
-        <v>20.16</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>166</v>
@@ -36009,12 +36020,12 @@
         <v>83</v>
       </c>
       <c r="D62" s="8">
-        <v>1.69</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>166</v>
@@ -36023,12 +36034,12 @@
         <v>83</v>
       </c>
       <c r="D63" s="8">
-        <v>8.2799999999999994</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>166</v>
@@ -36037,12 +36048,12 @@
         <v>83</v>
       </c>
       <c r="D64" s="8">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>166</v>
@@ -36051,12 +36062,12 @@
         <v>83</v>
       </c>
       <c r="D65" s="8">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>166</v>
@@ -36064,13 +36075,13 @@
       <c r="C66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="9">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>166</v>
@@ -36078,13 +36089,13 @@
       <c r="C67" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="8">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="9">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>166</v>
@@ -36093,12 +36104,12 @@
         <v>83</v>
       </c>
       <c r="D68" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>166</v>
@@ -36107,7 +36118,38 @@
         <v>83</v>
       </c>
       <c r="D69" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="8">
         <v>22.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="37">
+        <v>25</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -36200,59 +36242,59 @@
         <v>2020</v>
       </c>
       <c r="B3" s="30">
-        <f>VLOOKUP(B2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(B2,node!$A$56:$D$70,4,0)</f>
         <v>38.159999999999997</v>
       </c>
       <c r="C3" s="30">
-        <f>VLOOKUP(C2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(C2,node!$A$56:$D$70,4,0)</f>
         <v>30.24</v>
       </c>
       <c r="D3" s="30">
-        <f>VLOOKUP(D2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(D2,node!$A$56:$D$70,4,0)</f>
         <v>46.44</v>
       </c>
       <c r="E3" s="30">
-        <f>VLOOKUP(E2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(E2,node!$A$56:$D$70,4,0)</f>
         <v>3.96</v>
       </c>
       <c r="F3" s="30">
-        <f>VLOOKUP(F2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(F2,node!$A$56:$D$70,4,0)</f>
         <v>22.18</v>
       </c>
       <c r="G3" s="30">
-        <f>VLOOKUP(G2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(G2,node!$A$56:$D$70,4,0)</f>
         <v>20.16</v>
       </c>
       <c r="H3" s="30">
-        <f>VLOOKUP(H2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(H2,node!$A$56:$D$70,4,0)</f>
         <v>1.69</v>
       </c>
       <c r="I3" s="30">
-        <f>VLOOKUP(I2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(I2,node!$A$56:$D$70,4,0)</f>
         <v>8.2799999999999994</v>
       </c>
       <c r="J3" s="30">
-        <f>VLOOKUP(J2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(J2,node!$A$56:$D$70,4,0)</f>
         <v>10.8</v>
       </c>
       <c r="K3" s="30">
-        <f>VLOOKUP(K2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(K2,node!$A$56:$D$70,4,0)</f>
         <v>7.5</v>
       </c>
       <c r="L3" s="30">
-        <f>VLOOKUP(L2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(L2,node!$A$56:$D$70,4,0)</f>
         <v>37.5</v>
       </c>
       <c r="M3" s="30">
-        <f>VLOOKUP(M2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(M2,node!$A$56:$D$70,4,0)</f>
         <v>82.5</v>
       </c>
       <c r="N3" s="30">
-        <f>VLOOKUP(N2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(N2,node!$A$56:$D$70,4,0)</f>
         <v>69</v>
       </c>
       <c r="O3" s="30">
-        <f>VLOOKUP(O2,node!$A$55:$D$69,4,0)</f>
+        <f>VLOOKUP(O2,node!$A$56:$D$70,4,0)</f>
         <v>22.5</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -41352,8 +41394,8 @@
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33392483-5F24-4815-826F-3FC6CDAEE483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698EA17-E1F5-484C-8F3E-B3ABF804C317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId19"/>
-    <pivotCache cacheId="7" r:id="rId20"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1274,6 +1274,1462 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heavy_oil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hydrogen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>74.965000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light_oil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.832000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lignite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.996000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>natural_gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>oil_shale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6960000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.148000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hard_coal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7320000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>processing_residues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wood_pellets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bioliquids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biomethane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>86.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>node!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collectable_residues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>node!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>node!$I$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BA93-421D-8258-8CBBD2C4F9E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="281707695"/>
+        <c:axId val="281719759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="281707695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="281719759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="281719759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="281707695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2686,7 +4142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3609,6 +5065,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4680,7 +6176,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263336</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36792</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF77038A-0CAF-1047-99DE-F4570FDE6906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4759,7 +6812,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10821,7 +12874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -11097,7 +13150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -11873,7 +13926,7 @@
   </sheetPr>
   <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -36584,8 +38637,8 @@
   </sheetPr>
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -38416,7 +40469,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38425,7 +40479,7 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F2DF9-DD9C-49D0-8363-287F929DBA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F41BA1-16A0-49BB-BF85-870F43DC4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,23 @@
     <sheet name="node" sheetId="5" r:id="rId6"/>
     <sheet name="screening curve" sheetId="18" r:id="rId7"/>
     <sheet name="node2020" sheetId="10" r:id="rId8"/>
-    <sheet name="node2010" sheetId="20" r:id="rId9"/>
-    <sheet name="unit2010" sheetId="19" r:id="rId10"/>
-    <sheet name="unit2020" sheetId="11" r:id="rId11"/>
-    <sheet name="unit2030-none" sheetId="17" r:id="rId12"/>
-    <sheet name="unit2030-noneWRONG" sheetId="16" r:id="rId13"/>
-    <sheet name="flow__unit" sheetId="7" r:id="rId14"/>
-    <sheet name="unit2040-2050" sheetId="6" r:id="rId15"/>
-    <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId16"/>
-    <sheet name="pivot1_2030" sheetId="14" r:id="rId17"/>
-    <sheet name="grid__node__unit__io" sheetId="8" r:id="rId18"/>
-    <sheet name="pivot2030" sheetId="15" r:id="rId19"/>
+    <sheet name="unit2020" sheetId="11" r:id="rId9"/>
+    <sheet name="unit2030-none" sheetId="17" r:id="rId10"/>
+    <sheet name="unit2030-noneWRONG" sheetId="16" r:id="rId11"/>
+    <sheet name="flow__unit" sheetId="7" r:id="rId12"/>
+    <sheet name="unit2040-2050" sheetId="6" r:id="rId13"/>
+    <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId14"/>
+    <sheet name="pivot1_2030" sheetId="14" r:id="rId15"/>
+    <sheet name="grid__node__unit__io" sheetId="8" r:id="rId16"/>
+    <sheet name="pivot2030" sheetId="15" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId21"/>
-    <pivotCache cacheId="13" r:id="rId22"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -232,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="220">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -927,9 +925,6 @@
   </si>
   <si>
     <t>&lt;- added dummy</t>
-  </si>
-  <si>
-    <t>ElecSim: Monte-Carlo Open-Source Agent-Based Model</t>
   </si>
   <si>
     <t>&lt;---rename to base</t>
@@ -12872,7 +12867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13148,7 +13143,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -13918,555 +13913,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED85B22-2986-49F6-A208-B164759FE5D9}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B1DFB-947E-4D77-A1AC-85232CA68C6C}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="35.453125" customWidth="1"/>
-    <col min="2" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
-    <col min="5" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="15" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="P1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2">
-        <v>3845510</v>
-      </c>
-      <c r="C2" s="10">
-        <f>B2*0.016</f>
-        <v>61528.160000000003</v>
-      </c>
-      <c r="D2">
-        <v>3.5</v>
-      </c>
-      <c r="E2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3">
-        <v>3845510</v>
-      </c>
-      <c r="C3" s="10">
-        <f>B3*0.016</f>
-        <v>61528.160000000003</v>
-      </c>
-      <c r="D3">
-        <v>3.5</v>
-      </c>
-      <c r="E3">
-        <v>0.33</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4">
-        <v>343000</v>
-      </c>
-      <c r="C4" s="10">
-        <f>B4*0.025</f>
-        <v>8575</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0.35</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>7940450</v>
-      </c>
-      <c r="C5" s="10">
-        <f>B5*0.014</f>
-        <v>111166.3</v>
-      </c>
-      <c r="D5">
-        <v>3.5</v>
-      </c>
-      <c r="E5">
-        <v>0.33</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <f>H5</f>
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6">
-        <f xml:space="preserve"> 2000*1000</f>
-        <v>2000000</v>
-      </c>
-      <c r="C6">
-        <v>16000</v>
-      </c>
-      <c r="D6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0.89</v>
-      </c>
-      <c r="K6">
-        <v>0.89</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="36">
-        <v>2040000</v>
-      </c>
-      <c r="C7" s="36">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="38">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30">
-        <f>VLOOKUP($A7,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.309</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="25">
-        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
-        <v>830000</v>
-      </c>
-      <c r="C8" s="25">
-        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,2,FALSE)</f>
-        <v>27800</v>
-      </c>
-      <c r="D8" s="38">
-        <v>4</v>
-      </c>
-      <c r="E8" s="30">
-        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.61</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="36">
-        <v>8000000</v>
-      </c>
-      <c r="C9" s="36">
-        <v>100000</v>
-      </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f>VLOOKUP($A9,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="N9" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="25">
-        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
-        <v>435000</v>
-      </c>
-      <c r="C10" s="25">
-        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,2,FALSE)</f>
-        <v>7745</v>
-      </c>
-      <c r="D10" s="38">
-        <v>5</v>
-      </c>
-      <c r="E10" s="30">
-        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.43</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="36">
-        <v>587000</v>
-      </c>
-      <c r="C11" s="36">
-        <v>11700</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <f>VLOOKUP($A11,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="36">
-        <v>2270000</v>
-      </c>
-      <c r="C12" s="36">
-        <v>23400</v>
-      </c>
-      <c r="D12" s="38">
-        <v>3</v>
-      </c>
-      <c r="E12" s="30">
-        <f>VLOOKUP($A12,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="33">
-        <v>1150000</v>
-      </c>
-      <c r="C13" s="36">
-        <v>11000</v>
-      </c>
-      <c r="D13" s="38">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
-        <f>VLOOKUP($A13,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="36">
-        <v>321000</v>
-      </c>
-      <c r="C14" s="36">
-        <v>7800</v>
-      </c>
-      <c r="D14" s="38">
-        <v>2</v>
-      </c>
-      <c r="E14" s="30">
-        <f>VLOOKUP($A14,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="25">
-        <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
-        <v>1200000</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="30">
-        <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="36">
-        <v>8000000</v>
-      </c>
-      <c r="C16" s="36">
-        <v>100000</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="30">
-        <f>VLOOKUP($A16,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="25">
-        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
-        <v>2900000</v>
-      </c>
-      <c r="C17" s="25">
-        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
-        <v>117000</v>
-      </c>
-      <c r="D17" s="25">
-        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
-        <v>1.9</v>
-      </c>
-      <c r="E17" s="30">
-        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="R19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{CF1418B0-EAA1-49DC-AF77-26CB4FFD6465}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{2A89EB1C-EE22-4DB8-BE26-6C89CA6FDED9}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{0EA913E0-A2BC-446D-BA90-C84EF941D57C}"/>
-    <hyperlink ref="P2" r:id="rId4" xr:uid="{97BF3871-2C9F-4A98-8C67-66B6773BB269}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCFB5B2-BBAF-4496-9C8F-C0AA7843719A}">
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
@@ -17147,7 +16593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6781B2-20FB-4DB7-8C67-8F3D24312936}">
   <dimension ref="A1:DI57"/>
   <sheetViews>
@@ -19796,7 +19242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -19851,7 +19297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D646"/>
   <sheetViews>
@@ -24893,7 +24339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64F30C5-CFA2-4F1B-8F7A-40E11B3ED12B}">
   <dimension ref="A1:D275"/>
   <sheetViews>
@@ -28763,7 +28209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC1D0CB-7588-4491-812B-1646D490FDDB}">
   <dimension ref="A3:L52"/>
   <sheetViews>
@@ -30270,7 +29716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F351"/>
   <sheetViews>
@@ -37308,7 +36754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B174D60-CB6B-4079-B035-51C56216316E}">
   <dimension ref="A1:J56"/>
   <sheetViews>
@@ -39185,7 +38631,7 @@
   <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -39211,7 +38657,7 @@
         <v>40.68</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -46320,248 +45766,527 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC60513C-3023-4DFC-8037-7FCA50266A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B1DFB-947E-4D77-A1AC-85232CA68C6C}">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="15" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>3845510</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B2*0.016</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3">
+        <v>3845510</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3*0.016</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>343000</v>
+      </c>
+      <c r="C4" s="10">
+        <f>B4*0.025</f>
+        <v>8575</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>7940450</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5*0.014</f>
+        <v>111166.3</v>
+      </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f>H5</f>
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> 2000*1000</f>
+        <v>2000000</v>
+      </c>
+      <c r="C6">
+        <v>16000</v>
+      </c>
+      <c r="D6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="B1">
-        <v>2010</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1">
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.89</v>
+      </c>
+      <c r="K6">
+        <v>0.89</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="36">
+        <v>2040000</v>
+      </c>
+      <c r="C7" s="36">
+        <v>50000</v>
+      </c>
+      <c r="D7" s="38">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30">
+        <f>VLOOKUP($A7,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.309</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="25">
+        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>830000</v>
+      </c>
+      <c r="C8" s="25">
+        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>27800</v>
+      </c>
+      <c r="D8" s="38">
+        <v>4</v>
+      </c>
+      <c r="E8" s="30">
+        <f>VLOOKUP($A8,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.61</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="36">
+        <v>8000000</v>
+      </c>
+      <c r="C9" s="36">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <f>VLOOKUP($A9,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="N9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="25">
+        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>435000</v>
+      </c>
+      <c r="C10" s="25">
+        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>7745</v>
+      </c>
+      <c r="D10" s="38">
+        <v>5</v>
+      </c>
+      <c r="E10" s="30">
+        <f>VLOOKUP($A10,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="36">
+        <v>587000</v>
+      </c>
+      <c r="C11" s="36">
+        <v>11700</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <f>VLOOKUP($A11,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2">
-        <v>2010</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2">
-        <v>21.175000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3">
-        <v>2010</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>74.965000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <v>2010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4">
-        <v>46.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
-        <v>2010</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>2010</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6">
-        <v>16.716999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9">
-        <v>2010</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>4.5360000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>2010</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11">
-        <v>2010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>2010</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>2010</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>2010</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14">
-        <v>86.844999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>2010</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2270000</v>
+      </c>
+      <c r="C12" s="36">
+        <v>23400</v>
+      </c>
+      <c r="D12" s="38">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30">
+        <f>VLOOKUP($A12,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1150000</v>
+      </c>
+      <c r="C13" s="36">
+        <v>11000</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <f>VLOOKUP($A13,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="36">
+        <v>321000</v>
+      </c>
+      <c r="C14" s="36">
+        <v>7800</v>
+      </c>
+      <c r="D14" s="38">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>2010</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
+      <c r="E14" s="30">
+        <f>VLOOKUP($A14,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25">
+        <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>1200000</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="30">
+        <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="36">
+        <v>8000000</v>
+      </c>
+      <c r="C16" s="36">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="30">
+        <f>VLOOKUP($A16,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="25">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,3,FALSE)</f>
+        <v>2900000</v>
+      </c>
+      <c r="C17" s="25">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,2,FALSE)</f>
+        <v>117000</v>
+      </c>
+      <c r="D17" s="25">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,4,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="E17" s="30">
+        <f>VLOOKUP($A17,'unit2030-none'!$A$1:$M$53,6,FALSE)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="R19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{CF1418B0-EAA1-49DC-AF77-26CB4FFD6465}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{2A89EB1C-EE22-4DB8-BE26-6C89CA6FDED9}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{0EA913E0-A2BC-446D-BA90-C84EF941D57C}"/>
+    <hyperlink ref="P2" r:id="rId4" xr:uid="{97BF3871-2C9F-4A98-8C67-66B6773BB269}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F41BA1-16A0-49BB-BF85-870F43DC4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8FB8BD-1110-4FD2-B1A9-9E5E7459FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,22 @@
     <sheet name="node2020" sheetId="10" r:id="rId8"/>
     <sheet name="unit2020" sheetId="11" r:id="rId9"/>
     <sheet name="unit2030-none" sheetId="17" r:id="rId10"/>
-    <sheet name="unit2030-noneWRONG" sheetId="16" r:id="rId11"/>
-    <sheet name="flow__unit" sheetId="7" r:id="rId12"/>
-    <sheet name="unit2040-2050" sheetId="6" r:id="rId13"/>
-    <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId14"/>
-    <sheet name="pivot1_2030" sheetId="14" r:id="rId15"/>
-    <sheet name="grid__node__unit__io" sheetId="8" r:id="rId16"/>
-    <sheet name="pivot2030" sheetId="15" r:id="rId17"/>
+    <sheet name="unit2050" sheetId="19" r:id="rId11"/>
+    <sheet name="unit2030-noneWRONG" sheetId="16" r:id="rId12"/>
+    <sheet name="flow__unit" sheetId="7" r:id="rId13"/>
+    <sheet name="unit2040-2050" sheetId="6" r:id="rId14"/>
+    <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId15"/>
+    <sheet name="pivot1_2030" sheetId="14" r:id="rId16"/>
+    <sheet name="grid__node__unit__io" sheetId="8" r:id="rId17"/>
+    <sheet name="pivot2030" sheetId="15" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId19"/>
-    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="222">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -929,6 +930,12 @@
   <si>
     <t>&lt;---rename to base</t>
   </si>
+  <si>
+    <t>fuel cell</t>
+  </si>
+  <si>
+    <t>electrolysis</t>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +944,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1051,12 @@
       <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1158,7 +1171,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1221,6 +1234,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -12867,7 +12881,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13143,7 +13157,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -13919,8 +13933,8 @@
   </sheetPr>
   <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14545,7 +14559,7 @@
       </c>
     </row>
     <row r="11" spans="1:115">
-      <c r="A11" t="s">
+      <c r="A11" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D11">
@@ -14656,17 +14670,28 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:115">
+    <row r="16" spans="1:115" s="42" customFormat="1">
       <c r="A16" t="s">
         <v>40</v>
       </c>
+      <c r="B16"/>
       <c r="C16">
         <v>900000</v>
       </c>
       <c r="D16">
         <v>9.5</v>
       </c>
-      <c r="X16">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="X16" s="42">
         <v>173.06666666666669</v>
       </c>
     </row>
@@ -16594,6 +16619,113 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D913A8DE-48C0-4EEE-808A-7CC9A7BA4613}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <f>C2*0.05</f>
+        <v>40000</v>
+      </c>
+      <c r="C2">
+        <v>800000</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3">
+        <f>C3*0.02</f>
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>250000</v>
+      </c>
+      <c r="F3">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6781B2-20FB-4DB7-8C67-8F3D24312936}">
   <dimension ref="A1:DI57"/>
   <sheetViews>
@@ -19242,7 +19374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -19297,7 +19429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D646"/>
   <sheetViews>
@@ -24339,7 +24471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64F30C5-CFA2-4F1B-8F7A-40E11B3ED12B}">
   <dimension ref="A1:D275"/>
   <sheetViews>
@@ -28209,7 +28341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC1D0CB-7588-4491-812B-1646D490FDDB}">
   <dimension ref="A3:L52"/>
   <sheetViews>
@@ -29716,7 +29848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F351"/>
   <sheetViews>
@@ -36754,7 +36886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B174D60-CB6B-4079-B035-51C56216316E}">
   <dimension ref="A1:J56"/>
   <sheetViews>
@@ -38630,8 +38762,8 @@
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8FB8BD-1110-4FD2-B1A9-9E5E7459FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77DB609-BDF4-4D48-9089-8F2E223836AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="228">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -931,10 +931,28 @@
     <t>&lt;---rename to base</t>
   </si>
   <si>
-    <t>fuel cell</t>
+    <t>https://github.com/PyPSA/technology-data/blob/master/outputs/costs_2050.csv</t>
   </si>
   <si>
-    <t>electrolysis</t>
+    <t>hydrogen_turbine</t>
+  </si>
+  <si>
+    <t>from role of hydrogen greenhouse gas  paper Benjamin Lux</t>
+  </si>
+  <si>
+    <t>hydrogen_CHP</t>
+  </si>
+  <si>
+    <t>hydrogen_combined_cycle</t>
+  </si>
+  <si>
+    <t>misssing var costsfrom role of hydrogen greenhouse gas  paper Benjamin Lux</t>
+  </si>
+  <si>
+    <t>electrolyzer</t>
+  </si>
+  <si>
+    <t>fuel_cell</t>
   </si>
 </sst>
 </file>
@@ -944,7 +962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,12 +1069,6 @@
       <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1234,7 +1246,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -13933,8 +13947,8 @@
   </sheetPr>
   <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16620,18 +16634,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D913A8DE-48C0-4EEE-808A-7CC9A7BA4613}">
-  <dimension ref="A1:M3"/>
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -16671,10 +16688,13 @@
       <c r="M1" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="44" t="s">
-        <v>220</v>
+      <c r="P1" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>227</v>
       </c>
       <c r="B2">
         <f>C2*0.05</f>
@@ -16695,29 +16715,113 @@
       <c r="I2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>221</v>
+      <c r="P2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="B3">
-        <f>C3*0.02</f>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="C3">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4">
+        <v>7500</v>
+      </c>
+      <c r="C4">
+        <v>400000</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+      <c r="F4">
+        <v>0.41</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5">
+        <v>30000</v>
+      </c>
+      <c r="C5">
+        <v>730000</v>
+      </c>
+      <c r="D5">
+        <v>2700</v>
+      </c>
+      <c r="F5">
+        <v>0.85</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6">
+        <v>11250</v>
+      </c>
+      <c r="C6">
+        <v>750000</v>
+      </c>
+      <c r="D6">
+        <f>D5</f>
+        <v>2700</v>
+      </c>
+      <c r="F6">
+        <v>0.61</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -38498,7 +38602,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -38763,7 +38867,7 @@
   <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77DB609-BDF4-4D48-9089-8F2E223836AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B68759-D586-4E22-B8F9-D98CFA54F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="977" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="229">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -937,9 +937,6 @@
     <t>hydrogen_turbine</t>
   </si>
   <si>
-    <t>from role of hydrogen greenhouse gas  paper Benjamin Lux</t>
-  </si>
-  <si>
     <t>hydrogen_CHP</t>
   </si>
   <si>
@@ -953,6 +950,12 @@
   </si>
   <si>
     <t>fuel_cell</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>vom costs = from role of hydrogen greenhouse gas  paper Benjamin Lux</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1186,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1249,6 +1252,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -13947,8 +13953,8 @@
   </sheetPr>
   <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16637,10 +16643,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16648,7 +16654,7 @@
     <col min="1" max="1" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -16692,9 +16698,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2">
         <f>C2*0.05</f>
@@ -16706,9 +16712,6 @@
       <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
       <c r="H2">
         <v>10</v>
       </c>
@@ -16719,47 +16722,45 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
-        <v>226</v>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>222</v>
       </c>
       <c r="B3">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="C3">
-        <v>350000</v>
+        <v>730000</v>
+      </c>
+      <c r="D3">
+        <v>2700</v>
       </c>
       <c r="F3">
-        <v>0.71</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
+        <v>0.85</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="C4">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="D4">
-        <v>1500</v>
+        <f>D3</f>
+        <v>2700</v>
       </c>
       <c r="F4">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -16768,24 +16769,24 @@
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="C5">
-        <v>730000</v>
+        <v>1800000</v>
       </c>
       <c r="D5">
-        <v>2700</v>
+        <v>3.89</v>
       </c>
       <c r="F5">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -16794,34 +16795,119 @@
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>11250</v>
+        <v>12600</v>
       </c>
       <c r="C6">
-        <v>750000</v>
+        <v>1040000</v>
       </c>
       <c r="D6">
-        <f>D5</f>
-        <v>2700</v>
+        <v>1.35</v>
       </c>
       <c r="F6">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>9500</v>
+      </c>
+      <c r="C7">
+        <v>380000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8">
+        <v>7000</v>
+      </c>
+      <c r="C8">
+        <v>350000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9">
+        <v>8700</v>
+      </c>
+      <c r="C9">
+        <v>435000</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="I9">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
-        <v>225</v>
+      <c r="P9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -38867,7 +38953,7 @@
   <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -39688,7 +39774,7 @@
       <c r="C31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="45">
         <v>1</v>
       </c>
       <c r="N31" s="39"/>
@@ -39706,7 +39792,7 @@
       <c r="C32" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="46">
         <v>79.69</v>
       </c>
       <c r="N32" s="39"/>
@@ -39718,13 +39804,13 @@
       <c r="A33" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="47">
         <v>2050</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="47">
         <v>45.07</v>
       </c>
       <c r="N33" s="39"/>
@@ -39736,13 +39822,13 @@
       <c r="A34" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="46">
         <v>2050</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="46">
         <v>32.832000000000001</v>
       </c>
       <c r="N34" s="39"/>
@@ -39754,13 +39840,13 @@
       <c r="A35" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="47">
         <v>2050</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="47">
         <v>6.48</v>
       </c>
       <c r="N35" s="39"/>
@@ -39772,13 +39858,13 @@
       <c r="A36" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="46">
         <v>2050</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="46">
         <v>46.996000000000002</v>
       </c>
       <c r="N36" s="39"/>
@@ -39790,13 +39876,13 @@
       <c r="A37" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="46">
         <v>2050</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="46">
         <v>42.74</v>
       </c>
     </row>
@@ -39804,13 +39890,13 @@
       <c r="A38" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="46">
         <v>2050</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="46">
         <v>1.69</v>
       </c>
     </row>
@@ -39818,13 +39904,13 @@
       <c r="A39" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="47">
         <v>2050</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="47">
         <v>14.148000000000001</v>
       </c>
     </row>
@@ -39832,13 +39918,13 @@
       <c r="A40" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="47">
         <v>2050</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="47">
         <v>6.7320000000000002</v>
       </c>
     </row>
@@ -39846,13 +39932,13 @@
       <c r="A41" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="46">
         <v>2050</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="46">
         <v>7.5</v>
       </c>
     </row>
@@ -39860,13 +39946,13 @@
       <c r="A42" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="47">
         <v>2050</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="47">
         <v>45</v>
       </c>
     </row>
@@ -39874,13 +39960,13 @@
       <c r="A43" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="46">
         <v>2050</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="46">
         <v>82.5</v>
       </c>
     </row>
@@ -39888,13 +39974,13 @@
       <c r="A44" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="47">
         <v>2050</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="47">
         <v>50.29</v>
       </c>
     </row>
@@ -39902,13 +39988,13 @@
       <c r="A45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="47">
         <v>2050</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="46">
         <v>200</v>
       </c>
     </row>
@@ -39916,13 +40002,13 @@
       <c r="A46" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="47">
         <v>2050</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="47">
         <v>15</v>
       </c>
       <c r="F46" s="33" t="s">
@@ -40635,8 +40721,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B68759-D586-4E22-B8F9-D98CFA54F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D35F8-CA7F-49C5-8313-B41177E46AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId20"/>
-    <pivotCache cacheId="1" r:id="rId21"/>
+    <pivotCache cacheId="2" r:id="rId20"/>
+    <pivotCache cacheId="3" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12901,7 +12901,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13177,7 +13177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -16646,7 +16646,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D35F8-CA7F-49C5-8313-B41177E46AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23A62F-DE59-42D9-8962-4A6820A3ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="977" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId20"/>
-    <pivotCache cacheId="3" r:id="rId21"/>
+    <pivotCache cacheId="8" r:id="rId20"/>
+    <pivotCache cacheId="9" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="232">
   <si>
     <t>Bioliquids</t>
   </si>
@@ -931,9 +931,6 @@
     <t>&lt;---rename to base</t>
   </si>
   <si>
-    <t>https://github.com/PyPSA/technology-data/blob/master/outputs/costs_2050.csv</t>
-  </si>
-  <si>
     <t>hydrogen_turbine</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
   </si>
   <si>
     <t>hydrogen_combined_cycle</t>
-  </si>
-  <si>
-    <t>misssing var costsfrom role of hydrogen greenhouse gas  paper Benjamin Lux</t>
   </si>
   <si>
     <t>electrolyzer</t>
@@ -956,6 +950,21 @@
   </si>
   <si>
     <t>vom costs = from role of hydrogen greenhouse gas  paper Benjamin Lux</t>
+  </si>
+  <si>
+    <t>misssing var costs &gt; from role of hydrogen greenhouse gas  paper Benjamin Lux</t>
+  </si>
+  <si>
+    <t>role of hydrogen greenhouse gas  paper Benjamin Lux</t>
+  </si>
+  <si>
+    <t>&lt; benjamin lux study said 81 eur/mwh from outside europe</t>
+  </si>
+  <si>
+    <t>&lt; they use 35</t>
+  </si>
+  <si>
+    <t>traderes same source but not in DB</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1083,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,6 +1148,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1186,7 +1201,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1255,6 +1270,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2959,91 +2975,91 @@
                   <c:v>371590.19580632146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415849.51619467093</c:v>
+                  <c:v>416889.73810867919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460108.83658302051</c:v>
+                  <c:v>462189.28041103686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>504368.15697136999</c:v>
+                  <c:v>507488.82271339453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>548627.47735971957</c:v>
+                  <c:v>552788.36501575226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>592886.79774806905</c:v>
+                  <c:v>598087.90731811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>637146.11813641852</c:v>
+                  <c:v>643387.44962046773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>681405.43852476811</c:v>
+                  <c:v>688686.99192282546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>725664.75891311758</c:v>
+                  <c:v>733986.53422518319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>769924.07930146705</c:v>
+                  <c:v>779286.0765275408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>814183.39968981664</c:v>
+                  <c:v>824585.61882989854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>858442.72007816611</c:v>
+                  <c:v>869885.16113225627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902702.0404665157</c:v>
+                  <c:v>915184.703434614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>946961.36085486517</c:v>
+                  <c:v>960484.24573697173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>991220.68124321476</c:v>
+                  <c:v>1005783.7880393295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1035480.0016315642</c:v>
+                  <c:v>1051083.3303416872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1079739.3220199137</c:v>
+                  <c:v>1096382.8726440449</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1123998.6424082632</c:v>
+                  <c:v>1141682.4149464024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1168257.9627966126</c:v>
+                  <c:v>1186981.9572487602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1212517.2831849623</c:v>
+                  <c:v>1232281.4995511179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1256776.6035733118</c:v>
+                  <c:v>1277581.0418534756</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1301035.9239616613</c:v>
+                  <c:v>1322880.5841558336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1345295.2443500108</c:v>
+                  <c:v>1368180.1264581911</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1389554.5647383605</c:v>
+                  <c:v>1413479.6687605488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1433813.8851267099</c:v>
+                  <c:v>1458779.2110629065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1478073.2055150594</c:v>
+                  <c:v>1504078.7533652643</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1522332.5259034089</c:v>
+                  <c:v>1549378.295667622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1566591.8462917586</c:v>
+                  <c:v>1594677.8379699797</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1610851.1666801081</c:v>
+                  <c:v>1639977.3802723375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1655110.4870684575</c:v>
+                  <c:v>1685276.9225746952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,91 +4412,91 @@
                   <c:v>371590.19580632146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415849.51619467093</c:v>
+                  <c:v>416889.73810867919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460108.83658302051</c:v>
+                  <c:v>462189.28041103686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>504368.15697136999</c:v>
+                  <c:v>507488.82271339453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>548627.47735971957</c:v>
+                  <c:v>552788.36501575226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>592886.79774806905</c:v>
+                  <c:v>598087.90731811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>637146.11813641852</c:v>
+                  <c:v>643387.44962046773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>681405.43852476811</c:v>
+                  <c:v>688686.99192282546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>725664.75891311758</c:v>
+                  <c:v>733986.53422518319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>769924.07930146705</c:v>
+                  <c:v>779286.0765275408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>814183.39968981664</c:v>
+                  <c:v>824585.61882989854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>858442.72007816611</c:v>
+                  <c:v>869885.16113225627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902702.0404665157</c:v>
+                  <c:v>915184.703434614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>946961.36085486517</c:v>
+                  <c:v>960484.24573697173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>991220.68124321476</c:v>
+                  <c:v>1005783.7880393295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1035480.0016315642</c:v>
+                  <c:v>1051083.3303416872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1079739.3220199137</c:v>
+                  <c:v>1096382.8726440449</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1123998.6424082632</c:v>
+                  <c:v>1141682.4149464024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1168257.9627966126</c:v>
+                  <c:v>1186981.9572487602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1212517.2831849623</c:v>
+                  <c:v>1232281.4995511179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1256776.6035733118</c:v>
+                  <c:v>1277581.0418534756</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1301035.9239616613</c:v>
+                  <c:v>1322880.5841558336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1345295.2443500108</c:v>
+                  <c:v>1368180.1264581911</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1389554.5647383605</c:v>
+                  <c:v>1413479.6687605488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1433813.8851267099</c:v>
+                  <c:v>1458779.2110629065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1478073.2055150594</c:v>
+                  <c:v>1504078.7533652643</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1522332.5259034089</c:v>
+                  <c:v>1549378.295667622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1566591.8462917586</c:v>
+                  <c:v>1594677.8379699797</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1610851.1666801081</c:v>
+                  <c:v>1639977.3802723375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1655110.4870684575</c:v>
+                  <c:v>1685276.9225746952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12901,7 +12917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE082D5-9702-4E0E-A95B-D92C511EBEC0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -13177,7 +13193,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ADB57A-3F68-43CF-B9F1-7106B4BEB2A5}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -13953,8 +13969,8 @@
   </sheetPr>
   <dimension ref="A1:DK57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:I46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16645,8 +16661,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16699,77 +16715,87 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="48">
         <f>C2*0.05</f>
         <v>40000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="48">
         <v>800000</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48">
         <v>0.5</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="48">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="A3" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="48">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>730000</v>
+      </c>
+      <c r="D3" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48">
+        <v>30</v>
+      </c>
+      <c r="I3" s="48">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B3">
-        <v>30000</v>
-      </c>
-      <c r="C3">
-        <v>730000</v>
-      </c>
-      <c r="D3">
-        <v>2700</v>
-      </c>
-      <c r="F3">
-        <v>0.85</v>
-      </c>
-      <c r="H3">
+      <c r="B4" s="48">
+        <v>11250</v>
+      </c>
+      <c r="C4" s="48">
+        <v>750000</v>
+      </c>
+      <c r="D4" s="48">
+        <f>D3</f>
+        <v>2.7</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="48">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4">
-        <v>11250</v>
-      </c>
-      <c r="C4">
-        <v>750000</v>
-      </c>
-      <c r="D4">
-        <f>D3</f>
-        <v>2700</v>
-      </c>
-      <c r="F4">
-        <v>0.61</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -16852,7 +16878,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8">
         <v>7000</v>
@@ -16878,7 +16904,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>8700</v>
@@ -16902,12 +16928,12 @@
         <v>197</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -38952,8 +38978,8 @@
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -39811,7 +39837,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="47">
-        <v>45.07</v>
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
       </c>
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
@@ -39952,8 +39981,11 @@
       <c r="C42" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="47">
-        <v>45</v>
+      <c r="D42" s="45">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -39980,8 +40012,8 @@
       <c r="C44" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="47">
-        <v>50.29</v>
+      <c r="D44" s="45">
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -40949,7 +40981,7 @@
       </c>
       <c r="C5" s="27">
         <f>VLOOKUP(C2,node!$A$31:$D$46,4,0)</f>
-        <v>45.07</v>
+        <v>65</v>
       </c>
       <c r="D5" s="27">
         <f>VLOOKUP(D2,node!$A$31:$D$46,4,0)</f>
@@ -40985,7 +41017,7 @@
       </c>
       <c r="L5" s="27">
         <f>VLOOKUP(L2,node!$A$31:$D$46,4,0)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M5" s="27">
         <f>VLOOKUP(M2,node!$A$31:$D$46,4,0)</f>
@@ -40993,7 +41025,7 @@
       </c>
       <c r="N5" s="27">
         <f>VLOOKUP(N2,node!$A$31:$D$46,4,0)</f>
-        <v>50.29</v>
+        <v>35</v>
       </c>
       <c r="O5" s="27">
         <f>VLOOKUP(O2,node!$A$31:$D$46,4,0)</f>
@@ -41093,7 +41125,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>73.968500000000176</v>
+        <v>71.833142857142889</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -41129,7 +41161,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>46.071428571428442</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
@@ -41137,7 +41169,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>85.626499999999851</v>
+        <v>87.264714285714035</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
@@ -41161,7 +41193,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>72.972000000000207</v>
+        <v>71.548428571428531</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -41197,7 +41229,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>45.714285714285666</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -41205,7 +41237,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>84.407999999999902</v>
+        <v>85.500142857142691</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
@@ -41230,7 +41262,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>71.975500000000011</v>
+        <v>71.263714285714286</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -41266,7 +41298,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>45.357142857142776</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -41274,7 +41306,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>83.189499999999953</v>
+        <v>83.735571428571347</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -41333,7 +41365,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44.999999999999886</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
@@ -41341,7 +41373,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>81.971000000000004</v>
+        <v>81.970999999999549</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
@@ -41364,7 +41396,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>69.982500000000073</v>
+        <v>70.694285714285684</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -41400,7 +41432,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44.642857142856997</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
@@ -41408,7 +41440,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>80.752500000000055</v>
+        <v>80.206428571428205</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
@@ -41431,7 +41463,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>68.986000000000104</v>
+        <v>70.409571428571439</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -41467,7 +41499,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44.285714285714221</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
@@ -41475,7 +41507,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>79.533999999999651</v>
+        <v>78.441857142856861</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
@@ -41498,7 +41530,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>67.989500000000135</v>
+        <v>70.124857142857195</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -41534,7 +41566,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>43.928571428571331</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
@@ -41542,7 +41574,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>78.315499999999702</v>
+        <v>76.677285714285517</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
@@ -41565,7 +41597,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>66.993000000000166</v>
+        <v>69.840142857142837</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -41601,7 +41633,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>43.571428571428442</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
@@ -41609,7 +41641,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>77.096999999999753</v>
+        <v>74.912714285714173</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
@@ -41632,7 +41664,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>65.996500000000196</v>
+        <v>69.555428571428592</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -41668,7 +41700,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>43.214285714285666</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -41676,7 +41708,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>75.878499999999804</v>
+        <v>73.14814285714283</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -41693,7 +41725,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>69.270714285714348</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -41729,7 +41761,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>42.857142857142776</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -41737,7 +41769,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>74.659999999999854</v>
+        <v>71.383571428571031</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
@@ -41754,7 +41786,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>64.003500000000031</v>
+        <v>68.98599999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -41790,7 +41822,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>42.499999999999886</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -41798,7 +41830,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>73.441499999999905</v>
+        <v>69.618999999999687</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -41821,7 +41853,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>63.007000000000062</v>
+        <v>68.701285714285746</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
@@ -41857,7 +41889,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>42.142857142856997</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -41865,7 +41897,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>72.222999999999956</v>
+        <v>67.854428571428343</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -41903,7 +41935,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>62.010500000000093</v>
+        <v>68.416571428571388</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
@@ -41939,7 +41971,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>41.785714285714221</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -41947,7 +41979,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>71.004500000000007</v>
+        <v>66.089857142856999</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -41996,7 +42028,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>61.014000000000124</v>
+        <v>68.131857142857143</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
@@ -42032,7 +42064,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>41.428571428571331</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
@@ -42040,7 +42072,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>69.786000000000058</v>
+        <v>64.325285714285656</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -42089,7 +42121,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>60.017500000000155</v>
+        <v>67.847142857142899</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
@@ -42125,7 +42157,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>41.071428571428442</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -42133,7 +42165,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>68.567499999999654</v>
+        <v>62.560714285713857</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -42182,7 +42214,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>59.021000000000186</v>
+        <v>67.562428571428541</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
@@ -42218,7 +42250,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>40.714285714285666</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
@@ -42226,7 +42258,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>67.348999999999705</v>
+        <v>60.796142857142513</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -42275,7 +42307,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>58.024500000000216</v>
+        <v>67.277714285714296</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
@@ -42311,7 +42343,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>40.357142857142776</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
@@ -42319,7 +42351,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>66.130499999999756</v>
+        <v>59.031571428571169</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -42368,7 +42400,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>57.02800000000002</v>
+        <v>66.993000000000052</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -42404,7 +42436,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39.999999999999886</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
@@ -42412,7 +42444,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>64.911999999999807</v>
+        <v>57.266999999999825</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -42461,7 +42493,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>56.031500000000051</v>
+        <v>66.708285714285694</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
@@ -42497,7 +42529,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39.642857142856997</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
@@ -42505,7 +42537,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>63.693499999999858</v>
+        <v>55.502428571428482</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -42554,7 +42586,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>55.035000000000082</v>
+        <v>66.423571428571449</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
@@ -42590,7 +42622,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39.285714285714221</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
@@ -42598,7 +42630,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>62.474999999999909</v>
+        <v>53.737857142856683</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -42647,7 +42679,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
-        <v>54.038500000000113</v>
+        <v>66.138857142857205</v>
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
@@ -42683,7 +42715,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>38.928571428571331</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
@@ -42691,7 +42723,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>61.25649999999996</v>
+        <v>51.973285714285339</v>
       </c>
       <c r="O28">
         <f t="shared" si="5"/>
@@ -42707,7 +42739,7 @@
       </c>
       <c r="T28">
         <f>unit2020!C15</f>
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="U28">
         <f>unit2020!D15</f>
@@ -42740,7 +42772,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
-        <v>53.042000000000144</v>
+        <v>65.854142857142847</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
@@ -42776,7 +42808,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>38.571428571428442</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
@@ -42784,7 +42816,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>60.038000000000011</v>
+        <v>50.208714285713995</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
@@ -42833,7 +42865,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
-        <v>52.045500000000175</v>
+        <v>65.569428571428602</v>
       </c>
       <c r="D30">
         <f t="shared" si="5"/>
@@ -42869,7 +42901,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>38.214285714285666</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
@@ -42877,7 +42909,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>58.819500000000062</v>
+        <v>48.444142857142651</v>
       </c>
       <c r="O30">
         <f t="shared" si="5"/>
@@ -42894,7 +42926,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
-        <v>51.049000000000206</v>
+        <v>65.284714285714244</v>
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
@@ -42930,7 +42962,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>37.857142857142776</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
@@ -42938,7 +42970,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>57.600999999999658</v>
+        <v>46.679571428571307</v>
       </c>
       <c r="O31">
         <f t="shared" si="5"/>
@@ -42964,7 +42996,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>50.052500000000009</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <f t="shared" si="5"/>
@@ -43000,7 +43032,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>37.499999999999886</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
@@ -43008,7 +43040,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>56.382499999999709</v>
+        <v>44.914999999999964</v>
       </c>
       <c r="O32">
         <f t="shared" si="5"/>
@@ -43031,7 +43063,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>49.05600000000004</v>
+        <v>64.715285714285756</v>
       </c>
       <c r="D33">
         <f t="shared" si="5"/>
@@ -43067,7 +43099,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>37.142857142856997</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
@@ -43075,7 +43107,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>55.16399999999976</v>
+        <v>43.150428571428165</v>
       </c>
       <c r="O33">
         <f t="shared" si="5"/>
@@ -43098,7 +43130,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
-        <v>48.059500000000071</v>
+        <v>64.430571428571398</v>
       </c>
       <c r="D34">
         <f t="shared" si="5"/>
@@ -43134,7 +43166,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>36.785714285714221</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
@@ -43142,7 +43174,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>53.945499999999811</v>
+        <v>41.385857142856821</v>
       </c>
       <c r="O34">
         <f t="shared" si="5"/>
@@ -43165,7 +43197,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
-        <v>47.063000000000102</v>
+        <v>64.145857142857153</v>
       </c>
       <c r="D35">
         <f t="shared" si="5"/>
@@ -43201,7 +43233,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>36.428571428571331</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
@@ -43209,7 +43241,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>52.726999999999862</v>
+        <v>39.621285714285477</v>
       </c>
       <c r="O35">
         <f t="shared" si="5"/>
@@ -43234,7 +43266,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
-        <v>46.066500000000133</v>
+        <v>63.861142857142909</v>
       </c>
       <c r="D36">
         <f t="shared" si="5"/>
@@ -43270,7 +43302,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>36.071428571428442</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
@@ -43278,7 +43310,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>51.508499999999913</v>
+        <v>37.856714285714133</v>
       </c>
       <c r="O36">
         <f t="shared" si="5"/>
@@ -43296,7 +43328,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>45.07</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <f t="shared" si="6"/>
@@ -43332,7 +43364,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
@@ -43340,7 +43372,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>50.29</v>
+        <v>35</v>
       </c>
       <c r="O37">
         <f t="shared" si="6"/>
@@ -43573,7 +43605,7 @@
       </c>
       <c r="B48" s="8">
         <f>VLOOKUP($A$48,$A$49:$I$79,2,0)</f>
-        <v>147.53106796116506</v>
+        <v>150.99847434119238</v>
       </c>
       <c r="C48" s="8">
         <f>VLOOKUP($A$48,$A$49:$I$79,3,0)</f>
@@ -43643,7 +43675,7 @@
       </c>
       <c r="B49" s="7">
         <f t="shared" ref="B49:B79" si="8">B$44+($L8+B$46*$V$35)/B$45</f>
-        <v>147.53106796116506</v>
+        <v>150.99847434119238</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" ref="C49:D49" si="9">C$44+($G8+C$46*$V$35)/C$45</f>
@@ -43716,7 +43748,7 @@
       </c>
       <c r="B50" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>149.84267221451671</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" ref="C50:D50" si="21">C$44+($G9+C$46*$V$35)/C$45</f>
@@ -43751,7 +43783,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="12"/>
-        <v>415849.51619467093</v>
+        <v>416889.73810867919</v>
       </c>
       <c r="O50">
         <f t="shared" si="13"/>
@@ -43789,7 +43821,7 @@
       </c>
       <c r="B51" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>148.6868700878407</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" ref="C51:D51" si="22">C$44+($G10+C$46*$V$35)/C$45</f>
@@ -43824,7 +43856,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="12"/>
-        <v>460108.83658302051</v>
+        <v>462189.28041103686</v>
       </c>
       <c r="O51">
         <f t="shared" si="13"/>
@@ -43862,7 +43894,7 @@
       </c>
       <c r="B52" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>147.53106796116469</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" ref="C52:D52" si="23">C$44+($G11+C$46*$V$35)/C$45</f>
@@ -43897,7 +43929,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="12"/>
-        <v>504368.15697136999</v>
+        <v>507488.82271339453</v>
       </c>
       <c r="O52">
         <f t="shared" si="13"/>
@@ -43935,7 +43967,7 @@
       </c>
       <c r="B53" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>146.37526583448866</v>
       </c>
       <c r="C53" s="7">
         <f>C$44+($G12+C$46*$V$35)/C$45</f>
@@ -43970,7 +44002,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="12"/>
-        <v>548627.47735971957</v>
+        <v>552788.36501575226</v>
       </c>
       <c r="O53">
         <f t="shared" si="13"/>
@@ -44008,7 +44040,7 @@
       </c>
       <c r="B54" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>145.21946370781302</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" ref="C54" si="25">C$44+($G13+C$46*$V$35)/C$45</f>
@@ -44043,7 +44075,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="12"/>
-        <v>592886.79774806905</v>
+        <v>598087.90731811</v>
       </c>
       <c r="O54">
         <f t="shared" si="13"/>
@@ -44081,7 +44113,7 @@
       </c>
       <c r="B55" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>144.06366158113701</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" ref="C55:D55" si="26">C$44+($G14+C$46*$V$35)/C$45</f>
@@ -44116,7 +44148,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="12"/>
-        <v>637146.11813641852</v>
+        <v>643387.44962046773</v>
       </c>
       <c r="O55">
         <f t="shared" si="13"/>
@@ -44154,7 +44186,7 @@
       </c>
       <c r="B56" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>142.90785945446098</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" ref="C56:D56" si="27">C$44+($G15+C$46*$V$35)/C$45</f>
@@ -44189,7 +44221,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="12"/>
-        <v>681405.43852476811</v>
+        <v>688686.99192282546</v>
       </c>
       <c r="O56">
         <f t="shared" si="13"/>
@@ -44227,7 +44259,7 @@
       </c>
       <c r="B57" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>141.75205732778534</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" ref="C57:D57" si="28">C$44+($G16+C$46*$V$35)/C$45</f>
@@ -44262,7 +44294,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="12"/>
-        <v>725664.75891311758</v>
+        <v>733986.53422518319</v>
       </c>
       <c r="O57">
         <f t="shared" si="13"/>
@@ -44300,7 +44332,7 @@
       </c>
       <c r="B58" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>140.5962552011093</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" ref="C58:D58" si="29">C$44+($G17+C$46*$V$35)/C$45</f>
@@ -44335,7 +44367,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="12"/>
-        <v>769924.07930146705</v>
+        <v>779286.0765275408</v>
       </c>
       <c r="O58">
         <f t="shared" si="13"/>
@@ -44373,7 +44405,7 @@
       </c>
       <c r="B59" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>139.44045307443329</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" ref="C59:D59" si="30">C$44+($G18+C$46*$V$35)/C$45</f>
@@ -44408,7 +44440,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="12"/>
-        <v>814183.39968981664</v>
+        <v>824585.61882989854</v>
       </c>
       <c r="O59">
         <f t="shared" si="13"/>
@@ -44446,7 +44478,7 @@
       </c>
       <c r="B60" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>138.28465094775729</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" ref="C60:D60" si="31">C$44+($G19+C$46*$V$35)/C$45</f>
@@ -44481,7 +44513,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="12"/>
-        <v>858442.72007816611</v>
+        <v>869885.16113225627</v>
       </c>
       <c r="O60">
         <f t="shared" si="13"/>
@@ -44519,7 +44551,7 @@
       </c>
       <c r="B61" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>137.12884882108162</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" ref="C61:D61" si="32">C$44+($G20+C$46*$V$35)/C$45</f>
@@ -44554,7 +44586,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="12"/>
-        <v>902702.0404665157</v>
+        <v>915184.703434614</v>
       </c>
       <c r="O61">
         <f t="shared" si="13"/>
@@ -44592,7 +44624,7 @@
       </c>
       <c r="B62" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>135.97304669440561</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" ref="C62:D62" si="33">C$44+($G21+C$46*$V$35)/C$45</f>
@@ -44627,7 +44659,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="12"/>
-        <v>946961.36085486517</v>
+        <v>960484.24573697173</v>
       </c>
       <c r="O62">
         <f t="shared" si="13"/>
@@ -44665,7 +44697,7 @@
       </c>
       <c r="B63" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>134.8172445677296</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" ref="C63:D63" si="34">C$44+($G22+C$46*$V$35)/C$45</f>
@@ -44700,7 +44732,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="12"/>
-        <v>991220.68124321476</v>
+        <v>1005783.7880393295</v>
       </c>
       <c r="O63">
         <f t="shared" si="13"/>
@@ -44738,7 +44770,7 @@
       </c>
       <c r="B64" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>133.66144244105394</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" ref="C64:D64" si="35">C$44+($G23+C$46*$V$35)/C$45</f>
@@ -44773,7 +44805,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="12"/>
-        <v>1035480.0016315642</v>
+        <v>1051083.3303416872</v>
       </c>
       <c r="O64">
         <f t="shared" si="13"/>
@@ -44811,7 +44843,7 @@
       </c>
       <c r="B65" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>132.50564031437793</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" ref="C65:D65" si="36">C$44+($G24+C$46*$V$35)/C$45</f>
@@ -44846,7 +44878,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="12"/>
-        <v>1079739.3220199137</v>
+        <v>1096382.8726440449</v>
       </c>
       <c r="O65">
         <f t="shared" si="13"/>
@@ -44884,7 +44916,7 @@
       </c>
       <c r="B66" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>131.34983818770189</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" ref="C66:D66" si="37">C$44+($G25+C$46*$V$35)/C$45</f>
@@ -44919,7 +44951,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="12"/>
-        <v>1123998.6424082632</v>
+        <v>1141682.4149464024</v>
       </c>
       <c r="O66">
         <f t="shared" si="13"/>
@@ -44957,7 +44989,7 @@
       </c>
       <c r="B67" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>130.19403606102588</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" ref="C67:D67" si="38">C$44+($G26+C$46*$V$35)/C$45</f>
@@ -44992,7 +45024,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="12"/>
-        <v>1168257.9627966126</v>
+        <v>1186981.9572487602</v>
       </c>
       <c r="O67">
         <f t="shared" si="13"/>
@@ -45030,7 +45062,7 @@
       </c>
       <c r="B68" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>129.03823393435022</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:D68" si="39">C$44+($G27+C$46*$V$35)/C$45</f>
@@ -45065,7 +45097,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="12"/>
-        <v>1212517.2831849623</v>
+        <v>1232281.4995511179</v>
       </c>
       <c r="O68">
         <f t="shared" si="13"/>
@@ -45103,7 +45135,7 @@
       </c>
       <c r="B69" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>127.88243180767422</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:D69" si="40">C$44+($G28+C$46*$V$35)/C$45</f>
@@ -45138,7 +45170,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="12"/>
-        <v>1256776.6035733118</v>
+        <v>1277581.0418534756</v>
       </c>
       <c r="O69">
         <f t="shared" si="13"/>
@@ -45176,7 +45208,7 @@
       </c>
       <c r="B70" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>126.7266296809982</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" ref="C70:D70" si="41">C$44+($G29+C$46*$V$35)/C$45</f>
@@ -45211,7 +45243,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="12"/>
-        <v>1301035.9239616613</v>
+        <v>1322880.5841558336</v>
       </c>
       <c r="O70">
         <f t="shared" si="13"/>
@@ -45249,7 +45281,7 @@
       </c>
       <c r="B71" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>125.57082755432255</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" ref="C71:D71" si="42">C$44+($G30+C$46*$V$35)/C$45</f>
@@ -45284,7 +45316,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="12"/>
-        <v>1345295.2443500108</v>
+        <v>1368180.1264581911</v>
       </c>
       <c r="O71">
         <f t="shared" si="13"/>
@@ -45322,7 +45354,7 @@
       </c>
       <c r="B72" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>124.41502542764653</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" ref="C72:D72" si="43">C$44+($G31+C$46*$V$35)/C$45</f>
@@ -45357,7 +45389,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="12"/>
-        <v>1389554.5647383605</v>
+        <v>1413479.6687605488</v>
       </c>
       <c r="O72">
         <f t="shared" si="13"/>
@@ -45395,7 +45427,7 @@
       </c>
       <c r="B73" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>123.25922330097052</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" ref="C73:D73" si="44">C$44+($G32+C$46*$V$35)/C$45</f>
@@ -45430,7 +45462,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="12"/>
-        <v>1433813.8851267099</v>
+        <v>1458779.2110629065</v>
       </c>
       <c r="O73">
         <f t="shared" si="13"/>
@@ -45468,7 +45500,7 @@
       </c>
       <c r="B74" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>122.1034211742945</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" ref="C74:D74" si="45">C$44+($G33+C$46*$V$35)/C$45</f>
@@ -45503,7 +45535,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="12"/>
-        <v>1478073.2055150594</v>
+        <v>1504078.7533652643</v>
       </c>
       <c r="O74">
         <f t="shared" si="13"/>
@@ -45541,7 +45573,7 @@
       </c>
       <c r="B75" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>120.94761904761884</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" ref="C75:D75" si="46">C$44+($G34+C$46*$V$35)/C$45</f>
@@ -45576,7 +45608,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="12"/>
-        <v>1522332.5259034089</v>
+        <v>1549378.295667622</v>
       </c>
       <c r="O75">
         <f t="shared" si="13"/>
@@ -45614,7 +45646,7 @@
       </c>
       <c r="B76" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>119.79181692094282</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" ref="C76:D76" si="47">C$44+($G35+C$46*$V$35)/C$45</f>
@@ -45649,7 +45681,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="12"/>
-        <v>1566591.8462917586</v>
+        <v>1594677.8379699797</v>
       </c>
       <c r="O76">
         <f t="shared" si="13"/>
@@ -45687,7 +45719,7 @@
       </c>
       <c r="B77" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>118.63601479426681</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" ref="C77:D77" si="48">C$44+($G36+C$46*$V$35)/C$45</f>
@@ -45722,7 +45754,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="12"/>
-        <v>1610851.1666801081</v>
+        <v>1639977.3802723375</v>
       </c>
       <c r="O77">
         <f t="shared" si="13"/>
@@ -45760,7 +45792,7 @@
       </c>
       <c r="B78" s="7">
         <f t="shared" si="8"/>
-        <v>147.53106796116506</v>
+        <v>115.16860841423949</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" ref="C78:D78" si="49">C$44+($G37+C$46*$V$35)/C$45</f>
@@ -45795,7 +45827,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="12"/>
-        <v>1655110.4870684575</v>
+        <v>1685276.9225746952</v>
       </c>
       <c r="O78">
         <f t="shared" si="13"/>
@@ -46096,7 +46128,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -46539,7 +46571,9 @@
         <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,3,FALSE)</f>
         <v>1200000</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="25">
+        <v>27800</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="30">
         <f>VLOOKUP($A15,'[1]unit2030-none'!$A$1:$M$53,6,FALSE)</f>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F60F-84FF-43B8-B8FB-9EBA22AF6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C0693-3288-4D60-96BA-E11F1F972A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="999" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1045,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1164,7 +1171,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1243,6 +1250,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8798,7 +8807,7 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -33819,7 +33828,7 @@
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -36470,8 +36479,8 @@
   </sheetPr>
   <dimension ref="A1:DI56"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36486,16 +36495,16 @@
       <c r="A1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>122</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -37549,14 +37558,18 @@
       <c r="A18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="54">
+        <v>0</v>
+      </c>
       <c r="C18" s="33">
         <v>13450</v>
       </c>
       <c r="D18" s="33">
         <v>9.4393000000000005E-2</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="54">
+        <v>1</v>
+      </c>
       <c r="F18" s="33">
         <v>7</v>
       </c>
@@ -37683,7 +37696,7 @@
       <c r="D19" s="34">
         <v>9.4393000000000005E-2</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="34">
         <v>7</v>
       </c>
@@ -37711,44 +37724,48 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="1:113">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:113" s="8" customFormat="1">
+      <c r="A20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34">
+      <c r="B20" s="54">
+        <v>0</v>
+      </c>
+      <c r="C20" s="33">
         <v>14950</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>9.4393000000000005E-2</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34">
+      <c r="E20" s="54">
+        <v>1</v>
+      </c>
+      <c r="F20" s="33">
         <v>7</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="44">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46">
         <v>2990000</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44">
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46">
         <v>10</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
     </row>
     <row r="21" spans="1:113">
       <c r="A21" s="34" t="s">
@@ -39115,7 +39132,9 @@
       <c r="A46" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="54">
+        <v>0</v>
+      </c>
       <c r="C46" s="33">
         <v>7250</v>
       </c>
@@ -39765,7 +39784,6 @@
       <c r="DI52"/>
     </row>
     <row r="53" spans="1:113">
-      <c r="F53" s="10"/>
       <c r="M53" s="44"/>
     </row>
     <row r="54" spans="1:113">

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724C410-BEDF-4490-8539-A9023AA69D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18822A-067F-43A2-8772-90CD8DAA9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
     <sheet name="danish" sheetId="32" r:id="rId2"/>
     <sheet name="node" sheetId="5" r:id="rId3"/>
     <sheet name="investmentCosts" sheetId="27" r:id="rId4"/>
-    <sheet name="unit2020" sheetId="11" r:id="rId5"/>
-    <sheet name="unit2030" sheetId="17" r:id="rId6"/>
-    <sheet name="unit2050" sheetId="19" r:id="rId7"/>
-    <sheet name="fixedCosts" sheetId="33" r:id="rId8"/>
+    <sheet name="fixedCosts" sheetId="33" r:id="rId5"/>
+    <sheet name="unit2020" sheetId="11" r:id="rId6"/>
+    <sheet name="unit2030" sheetId="17" r:id="rId7"/>
+    <sheet name="unit2050" sheetId="19" r:id="rId8"/>
     <sheet name="unitcostsgraph" sheetId="29" r:id="rId9"/>
     <sheet name="nodecostsgraph" sheetId="31" r:id="rId10"/>
     <sheet name="screening curve" sheetId="18" r:id="rId11"/>
@@ -30,13 +30,13 @@
     <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$G$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">node!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="270">
   <si>
     <t>CO2</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>tyndp GA</t>
   </si>
   <si>
-    <t>tyndp</t>
-  </si>
-  <si>
     <t>&lt; from Silke 65 , but benjamin lux study said 81 eur/mwh from outside europe. COMPETES 84 eur/mwh</t>
   </si>
   <si>
@@ -1048,6 +1045,12 @@
   <si>
     <t>entsoe decarbonized</t>
   </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>old prices</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,7 +1061,7 @@
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,8 +1194,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,12 +1252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,7 +1314,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1365,11 +1369,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1382,16 +1384,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8190,15 +8199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>587143</xdr:colOff>
+      <xdr:colOff>549121</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31673</xdr:rowOff>
+      <xdr:rowOff>28498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>313629</xdr:colOff>
+      <xdr:colOff>281957</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>157462</xdr:rowOff>
+      <xdr:rowOff>160637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8225,16 +8234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76539</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>276373</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84706</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450611</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8257,8 +8266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17059956" y="3878035"/>
-          <a:ext cx="3596289" cy="2154466"/>
+          <a:off x="6966336" y="6466855"/>
+          <a:ext cx="3078970" cy="1947018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8281,9 +8290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>589455</xdr:colOff>
+      <xdr:colOff>589456</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>50144</xdr:rowOff>
+      <xdr:rowOff>46969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9377,7 +9386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9644,7 +9653,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -10402,10 +10411,10 @@
       <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10419,7 +10428,7 @@
       <c r="C2" s="28">
         <v>40.68</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>155</v>
       </c>
       <c r="H2">
@@ -10999,7 +11008,7 @@
       <c r="B31" s="28">
         <v>2020</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11164,7 +11173,7 @@
       <c r="B46" s="35">
         <v>2050</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="37">
         <v>200</v>
       </c>
     </row>
@@ -12431,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="24" t="e">
-        <f>VLOOKUP(R20,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R20,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X20" s="25" t="e">
@@ -12524,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="24" t="e">
-        <f>VLOOKUP(R21,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R21,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X21" s="25" t="e">
@@ -12617,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="24" t="e">
-        <f>VLOOKUP(R22,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R22,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X22" s="25" t="e">
@@ -12710,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="24" t="e">
-        <f>VLOOKUP(R23,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R23,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X23" s="25" t="e">
@@ -12803,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="24" t="e">
-        <f>VLOOKUP(R24,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R24,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X24" s="25" t="e">
@@ -12896,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="24" t="e">
-        <f>VLOOKUP(R25,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R25,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X25" s="25" t="e">
@@ -12989,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="24" t="e">
-        <f>VLOOKUP(R26,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R26,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X26" s="25" t="e">
@@ -13082,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="24" t="e">
-        <f>VLOOKUP(R27,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R27,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X27" s="25" t="e">
@@ -13175,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="24" t="e">
-        <f>VLOOKUP(R28,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R28,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X28" s="25" t="e">
@@ -13268,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="24" t="e">
-        <f>VLOOKUP(R29,unit2030!$A$1:$D$22,8,0)</f>
+        <f>VLOOKUP(R29,unit2030!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X29" s="25" t="e">
@@ -28110,7 +28119,7 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28122,7 +28131,7 @@
     <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="29.26953125" customWidth="1"/>
     <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.26953125" bestFit="1" customWidth="1"/>
@@ -32668,7 +32677,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B113" s="11">
@@ -32676,7 +32685,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="42" t="s">
         <v>155</v>
       </c>
       <c r="B115" t="s">
@@ -32929,8 +32938,8 @@
   </sheetPr>
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32988,7 +32997,7 @@
         <v>68.58</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
@@ -33004,7 +33013,7 @@
         <v>46.33</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -33054,7 +33063,7 @@
         <v>20.05</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L7" s="27"/>
       <c r="Q7" s="27"/>
@@ -33105,7 +33114,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L10" s="27"/>
       <c r="Q10" s="27"/>
@@ -33146,6 +33155,9 @@
         <v>60</v>
       </c>
       <c r="F12" s="27"/>
+      <c r="H12" t="s">
+        <v>269</v>
+      </c>
       <c r="I12" s="27">
         <v>2020</v>
       </c>
@@ -33259,7 +33271,7 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H16" t="s">
         <v>65</v>
@@ -33314,7 +33326,7 @@
         <v>61.6</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -33346,7 +33358,7 @@
         <v>36.32</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H19" t="s">
         <v>67</v>
@@ -33442,7 +33454,7 @@
         <v>14.47</v>
       </c>
       <c r="E22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -33538,7 +33550,7 @@
         <v>7.09</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>52</v>
@@ -33681,7 +33693,7 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
@@ -33735,10 +33747,10 @@
         <v>64.48</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -33756,7 +33768,7 @@
         <v>32.83</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
@@ -33810,7 +33822,7 @@
         <v>14.65</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -33852,7 +33864,7 @@
         <v>6.73</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -33925,17 +33937,17 @@
         <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" t="s">
+      <c r="A47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="31">
         <v>2050</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="31">
         <v>15</v>
       </c>
       <c r="E47" t="s">
@@ -34658,10 +34670,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34681,30 +34693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="50">
         <v>2020</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="43">
         <v>3845510</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -34712,13 +34724,13 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="50">
         <v>2020</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="43">
         <v>3845510</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -34726,13 +34738,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="50">
         <v>2020</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>343000</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -34740,30 +34752,30 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="50">
         <v>2020</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="43">
         <v>7940450</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="46" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="50">
         <v>2020</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <v>2000000</v>
       </c>
       <c r="F6" t="s">
@@ -34771,106 +34783,108 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="50">
         <v>2020</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>2040000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="A8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="50">
         <v>2020</v>
       </c>
-      <c r="C8" s="46">
-        <v>587000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>260</v>
+      <c r="C8" s="43">
+        <v>2270000</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="50">
         <v>2020</v>
       </c>
-      <c r="C9" s="46">
-        <v>2270000</v>
+      <c r="C9" s="43">
+        <v>1150000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="50">
         <v>2020</v>
       </c>
-      <c r="C10" s="46">
-        <v>1150000</v>
+      <c r="C10" s="51">
+        <v>534000</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="24">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="53">
-        <v>534000</v>
+      <c r="A11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C11" s="52">
+        <v>2040000</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="50">
         <v>2030</v>
       </c>
-      <c r="C12" s="47">
-        <v>2040000</v>
+      <c r="C12" s="52">
+        <v>2900000</v>
       </c>
       <c r="F12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="A13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="50">
         <v>2030</v>
       </c>
-      <c r="C13" s="47">
-        <v>2900000</v>
-      </c>
+      <c r="C13" s="52">
+        <v>830000</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="F13" t="s">
         <v>254</v>
       </c>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="24">
+      <c r="A14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="50">
         <v>2030</v>
       </c>
-      <c r="C14" s="47">
-        <v>830000</v>
+      <c r="C14" s="52">
+        <v>1200000</v>
       </c>
       <c r="D14" s="17"/>
       <c r="F14" t="s">
@@ -34879,13 +34893,13 @@
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="A15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="50">
         <v>2030</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="52">
         <v>1200000</v>
       </c>
       <c r="D15" s="17"/>
@@ -34895,14 +34909,14 @@
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="A16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="50">
         <v>2030</v>
       </c>
-      <c r="C16" s="47">
-        <v>1200000</v>
+      <c r="C16" s="52">
+        <v>2690000</v>
       </c>
       <c r="D16" s="17"/>
       <c r="F16" t="s">
@@ -34911,14 +34925,14 @@
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="A17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="50">
         <v>2030</v>
       </c>
-      <c r="C17" s="47">
-        <v>2690000</v>
+      <c r="C17" s="30">
+        <v>6000000</v>
       </c>
       <c r="D17" s="17"/>
       <c r="F17" t="s">
@@ -34927,92 +34941,90 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="50">
         <v>2030</v>
       </c>
-      <c r="C18" s="30">
-        <v>6000000</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="C18" s="52">
+        <v>435000</v>
+      </c>
       <c r="F18" t="s">
         <v>254</v>
       </c>
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="50">
         <v>2030</v>
       </c>
       <c r="C19" s="47">
-        <v>435000</v>
-      </c>
+        <v>1620000</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="F19" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C20" s="53">
+        <v>1220000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C21" s="47">
+        <v>284000</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="50">
         <v>2030</v>
       </c>
-      <c r="C20" s="46">
-        <v>444000</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="F20" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C21" s="52">
-        <v>1620000</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="F21" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1220000</v>
+      <c r="C22" s="43">
+        <v>2990000</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C23" s="52">
-        <v>284000</v>
+      <c r="A23" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C23" s="43">
+        <v>800000</v>
       </c>
       <c r="F23" t="s">
         <v>254</v>
@@ -35020,51 +35032,51 @@
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C24" s="46">
-        <v>2990000</v>
+      <c r="A24" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C24" s="43">
+        <v>730000</v>
       </c>
       <c r="F24" t="s">
         <v>254</v>
       </c>
+      <c r="G24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="24">
+        <v>2020</v>
+      </c>
+      <c r="I24" s="44"/>
       <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="50">
         <v>2050</v>
       </c>
-      <c r="C25" s="46">
-        <v>800000</v>
+      <c r="C25" s="43">
+        <v>750000</v>
       </c>
       <c r="F25" t="s">
         <v>254</v>
       </c>
-      <c r="G25" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="24">
-        <v>2020</v>
-      </c>
-      <c r="I25" s="46"/>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="24">
+      <c r="A26" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="50">
         <v>2050</v>
       </c>
-      <c r="C26" s="46">
-        <v>730000</v>
+      <c r="C26" s="43">
+        <v>435000</v>
       </c>
       <c r="F26" t="s">
         <v>254</v>
@@ -35072,274 +35084,306 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="A27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="50">
         <v>2050</v>
       </c>
-      <c r="C27" s="46">
-        <v>750000</v>
+      <c r="C27" s="47">
+        <v>1444000</v>
       </c>
       <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C28" s="53">
+        <v>1127000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C29" s="43">
+        <v>350000</v>
+      </c>
+      <c r="F29" t="s">
         <v>254</v>
       </c>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="24">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="50">
         <v>2050</v>
       </c>
-      <c r="C28" s="46">
-        <v>435000</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C30" s="47">
+        <v>270000</v>
+      </c>
+      <c r="F30" t="s">
         <v>254</v>
       </c>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="24">
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="50">
         <v>2050</v>
       </c>
-      <c r="C29" s="52">
-        <v>1444000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>259</v>
-      </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="24">
+      <c r="C31" s="43">
+        <v>2685000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="50">
         <v>2050</v>
       </c>
-      <c r="C30" s="51">
-        <v>1127000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>259</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="24">
-        <v>2050</v>
-      </c>
-      <c r="C31" s="46">
-        <v>350000</v>
-      </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="24">
-        <v>2050</v>
-      </c>
-      <c r="C32" s="46">
-        <v>350000</v>
+      <c r="C32" s="43">
+        <v>412000</v>
       </c>
       <c r="F32" t="s">
         <v>254</v>
       </c>
-      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="24">
+      <c r="A33" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="50">
         <v>2050</v>
       </c>
-      <c r="C33" s="52">
-        <v>270000</v>
+      <c r="C33" s="43">
+        <v>2700000</v>
       </c>
       <c r="F33" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="A34" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="50">
         <v>2050</v>
       </c>
-      <c r="C34" s="46">
-        <v>2685000</v>
+      <c r="C34" s="43">
+        <v>800000</v>
       </c>
       <c r="F34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="24">
+      <c r="A35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="50">
         <v>2050</v>
       </c>
-      <c r="C35" s="46">
-        <v>412000</v>
+      <c r="C35" s="43">
+        <v>1100000</v>
       </c>
       <c r="F35" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="24">
+      <c r="A36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="50">
         <v>2050</v>
       </c>
-      <c r="C36" s="46">
-        <v>2700000</v>
+      <c r="C36" s="43">
+        <v>2970000</v>
       </c>
       <c r="F36" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="24">
-        <v>2050</v>
-      </c>
-      <c r="C37" s="46">
-        <v>800000</v>
+      <c r="A37" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C37" s="43">
+        <v>1390000</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="24">
-        <v>2050</v>
-      </c>
-      <c r="C38" s="46">
-        <v>1100000</v>
+      <c r="A38" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C38" s="43">
+        <v>1280000</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="24">
-        <v>2050</v>
-      </c>
-      <c r="C39" s="46">
-        <v>2970000</v>
+      <c r="A39" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="50">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="43">
+        <f>+(C43+C46)/2</f>
+        <v>878000</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="24">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="50">
-        <v>1169000</v>
+        <v>268</v>
+      </c>
+      <c r="B40" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C40" s="43">
+        <f t="shared" ref="C40:C41" si="0">+(C44+C47)/2</f>
+        <v>730500</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C41" s="43">
+        <f t="shared" si="0"/>
+        <v>519000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="50">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="43">
+        <v>587000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="50">
+        <v>2030</v>
+      </c>
+      <c r="C44" s="43">
+        <v>444000</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="50">
+        <v>2050</v>
+      </c>
+      <c r="C45" s="43">
+        <v>350000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B46" s="50">
+        <v>2020</v>
+      </c>
+      <c r="C46" s="54">
+        <v>1169000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="50">
         <v>2030</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C47" s="43">
         <v>1017000</v>
       </c>
-      <c r="F41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="31" t="s">
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B48" s="50">
         <v>2050</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C48" s="43">
         <v>688000</v>
       </c>
-      <c r="F42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C43">
-        <v>1390000</v>
-      </c>
-      <c r="F43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" s="24">
-        <v>2030</v>
-      </c>
-      <c r="C44">
-        <v>1280000</v>
-      </c>
-      <c r="F44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49"/>
+      <c r="F48" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50"/>
@@ -35388,12 +35432,6 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -35408,6 +35446,325 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9BE072-626C-4213-9685-86349538CF33}">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2030</v>
+      </c>
+      <c r="D1" s="31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31">
+        <v>50000</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31">
+        <v>27800</v>
+      </c>
+      <c r="D4" s="31">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31">
+        <v>27800</v>
+      </c>
+      <c r="D5" s="31">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31">
+        <v>27800</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31">
+        <v>32000</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31">
+        <v>13450</v>
+      </c>
+      <c r="D9" s="31">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31">
+        <v>14950</v>
+      </c>
+      <c r="D10" s="31">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31">
+        <v>7745</v>
+      </c>
+      <c r="D12" s="31">
+        <v>7423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31">
+        <v>8300</v>
+      </c>
+      <c r="D13" s="31">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31">
+        <v>30500</v>
+      </c>
+      <c r="D14" s="31">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31">
+        <v>14700</v>
+      </c>
+      <c r="D15" s="31">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
+        <v>12300</v>
+      </c>
+      <c r="D16" s="31">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="36">
+        <v>61528.160000000003</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="36">
+        <v>61528.160000000003</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="36">
+        <v>8575</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="36">
+        <v>111166.3</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="31">
+        <v>16000</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31">
+        <f>(C13+C16)/2</f>
+        <v>10300</v>
+      </c>
+      <c r="D27" s="31">
+        <f>(D13+D16)/2</f>
+        <v>9300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B1DFB-947E-4D77-A1AC-85232CA68C6C}">
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
@@ -35415,7 +35772,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35423,40 +35780,41 @@
     <col min="1" max="2" width="35.453125" customWidth="1"/>
     <col min="3" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="8.36328125" customWidth="1"/>
-    <col min="6" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="10" width="11.36328125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="43.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="59" t="s">
         <v>98</v>
       </c>
+      <c r="K1" s="59"/>
       <c r="L1" s="5" t="s">
         <v>141</v>
       </c>
@@ -35475,14 +35833,14 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="I2" s="37">
+      <c r="I2" s="56">
         <f>J2*0.016</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="56">
         <v>3845510</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="56" t="s">
         <v>143</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -35503,14 +35861,14 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
-      <c r="I3" s="37">
+      <c r="I3" s="56">
         <f>J3*0.016</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="56">
         <v>3845510</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="56" t="s">
         <v>65</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -35531,14 +35889,14 @@
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
-      <c r="I4" s="37">
+      <c r="I4" s="56">
         <f>J4*0.025</f>
         <v>8575</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="56">
         <v>343000</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="56" t="s">
         <v>147</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -35559,14 +35917,14 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="I5" s="37">
+      <c r="I5" s="56">
         <f>J5*0.014</f>
         <v>111166.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="56">
         <v>7940450</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="56" t="str">
         <f>A5</f>
         <v>Nuclear</v>
       </c>
@@ -35596,14 +35954,14 @@
       <c r="G6" s="31">
         <v>0</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="56">
         <v>16000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="56">
         <f xml:space="preserve"> 2000*1000</f>
         <v>2000000</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="56" t="str">
         <f>A6</f>
         <v>Pumped_hydro</v>
       </c>
@@ -35716,15 +36074,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCFB5B2-BBAF-4496-9C8F-C0AA7843719A}">
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:DG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35734,7 +36092,8 @@
     <col min="3" max="3" width="23.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" style="24" customWidth="1"/>
     <col min="5" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="10" width="8" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35742,10 +36101,10 @@
       <c r="A1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -35760,25 +36119,25 @@
       <c r="G1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="57" t="s">
         <v>97</v>
       </c>
       <c r="J1" s="32"/>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>264</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:111" s="6" customFormat="1">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="50">
         <v>1.9</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="50">
         <v>0.309</v>
       </c>
       <c r="D2" s="31"/>
@@ -35786,11 +36145,11 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2"/>
-      <c r="I2" s="31">
+      <c r="I2" s="55">
         <v>50000</v>
       </c>
       <c r="J2"/>
-      <c r="K2" s="48"/>
+      <c r="K2" s="45"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -35896,10 +36255,10 @@
       <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="50">
         <v>4.2</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="50">
         <v>0.61</v>
       </c>
       <c r="D3" s="31"/>
@@ -35907,11 +36266,11 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3"/>
-      <c r="I3" s="31">
+      <c r="I3" s="55">
         <v>27800</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="46"/>
+      <c r="K3" s="44"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -35974,70 +36333,70 @@
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="50">
         <v>4.2</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="50">
         <v>0.53</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
-      <c r="I4" s="31">
+      <c r="I4" s="55">
         <v>27800</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:111">
       <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="50">
         <v>4.2</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="50">
         <v>0.53</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="I5" s="31">
+      <c r="I5" s="55">
         <v>27800</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:111">
       <c r="A6" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="56">
+        <v>265</v>
+      </c>
+      <c r="B6" s="50">
         <v>6.11</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="50">
         <v>0.41</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="I6" s="31">
+      <c r="I6" s="55">
         <v>32000</v>
       </c>
       <c r="J6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="46"/>
+        <v>262</v>
+      </c>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:111">
       <c r="A7" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <v>1.8</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="50">
         <v>0.92</v>
       </c>
       <c r="D7" s="31">
@@ -36052,22 +36411,22 @@
       <c r="G7" s="31">
         <v>0</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="55">
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="46"/>
+        <v>261</v>
+      </c>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:111" s="6" customFormat="1">
       <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="50">
         <v>0</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="50">
         <v>1</v>
       </c>
       <c r="D8" s="31"/>
@@ -36075,11 +36434,11 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8"/>
-      <c r="I8" s="31">
+      <c r="I8" s="55">
         <v>13450</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="46"/>
+      <c r="K8" s="44"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -36185,10 +36544,10 @@
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="50">
         <v>1</v>
       </c>
       <c r="D9" s="31"/>
@@ -36196,11 +36555,11 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9"/>
-      <c r="I9" s="31">
+      <c r="I9" s="55">
         <v>14950</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="46"/>
+      <c r="K9" s="44"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -36306,139 +36665,126 @@
       <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="50">
         <v>4</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="50">
         <v>0.28499999999999998</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="I10" s="31">
+      <c r="I10" s="55">
         <v>100000</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:111">
       <c r="A11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="50">
         <v>4.5</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="50">
         <v>0.43</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="I11" s="31">
+      <c r="I11" s="55">
         <v>7745</v>
       </c>
-      <c r="K11" s="46"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:111">
       <c r="A12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="56">
-        <v>0</v>
-      </c>
-      <c r="C12" s="56">
+        <v>50</v>
+      </c>
+      <c r="B12" s="50">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="50">
         <v>1</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="I12" s="31">
-        <v>8300</v>
+      <c r="I12" s="55">
+        <v>30500</v>
       </c>
       <c r="J12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="46"/>
+        <v>259</v>
+      </c>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:111">
       <c r="A13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="56">
-        <v>2.7</v>
-      </c>
-      <c r="C13" s="56">
+        <v>51</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1.35</v>
+      </c>
+      <c r="C13" s="50">
         <v>1</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="I13" s="31">
-        <v>30500</v>
+      <c r="I13" s="55">
+        <v>14700</v>
       </c>
       <c r="J13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K13" s="46"/>
+        <v>259</v>
+      </c>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:111">
       <c r="A14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="56">
-        <v>1.35</v>
-      </c>
-      <c r="C14" s="56">
+        <v>268</v>
+      </c>
+      <c r="B14" s="50">
+        <v>0</v>
+      </c>
+      <c r="C14" s="50">
         <v>1</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="I14" s="31">
-        <v>14700</v>
-      </c>
-      <c r="J14" t="s">
-        <v>260</v>
-      </c>
-      <c r="K14" s="46"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:111">
-      <c r="A15" s="31" t="s">
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:111" s="30" customFormat="1">
+      <c r="A16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56">
+      <c r="B16" s="44">
+        <v>0</v>
+      </c>
+      <c r="C16" s="44">
         <v>1</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="31">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="58">
         <f>12300</f>
         <v>12300</v>
       </c>
-      <c r="J15" t="s">
-        <v>260</v>
-      </c>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:111" s="30" customFormat="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="J16" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="44"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -36498,40 +36844,46 @@
       <c r="BP16"/>
     </row>
     <row r="17" spans="1:111">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="44">
+        <v>0</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="58">
+        <v>8300</v>
+      </c>
+      <c r="J17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="1:111" s="6" customFormat="1">
+      <c r="A18" s="44" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
-        <v>68680</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-    </row>
-    <row r="18" spans="1:111" s="6" customFormat="1">
-      <c r="A18" s="46" t="s">
-        <v>14</v>
       </c>
       <c r="B18" s="24">
         <v>0</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46">
-        <v>60520.000000000007</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="58">
+        <v>68680</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -36634,39 +36986,41 @@
       <c r="DG18"/>
     </row>
     <row r="19" spans="1:111">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="58">
+        <v>60520.000000000007</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:111" s="6" customFormat="1">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B20" s="24">
         <v>1.0629999999999999</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46">
-        <v>104000</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-    </row>
-    <row r="20" spans="1:111" s="6" customFormat="1">
-      <c r="A20" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="24">
-        <v>9.5</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="58">
+        <v>104000</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -36694,35 +37048,36 @@
       <c r="AJ20"/>
     </row>
     <row r="21" spans="1:111">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:111" s="6" customFormat="1">
+      <c r="A22" s="44" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46">
-        <v>11450</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-    </row>
-    <row r="22" spans="1:111" s="6" customFormat="1">
-      <c r="A22" s="46" t="s">
-        <v>20</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46">
-        <v>33550</v>
-      </c>
-      <c r="J22"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="58">
+        <v>11450</v>
+      </c>
+      <c r="J22" s="44"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -36826,39 +37181,34 @@
       <c r="DG22"/>
     </row>
     <row r="23" spans="1:111">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="58">
+        <v>33550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:111">
+      <c r="A24" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="1:111">
-      <c r="A24" s="46" t="s">
+      <c r="C24" s="24"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:111">
+      <c r="A25" s="44" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="24">
-        <v>2.6</v>
-      </c>
-      <c r="C24" s="24">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46">
-        <v>126700</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-    </row>
-    <row r="25" spans="1:111">
-      <c r="A25" s="46" t="s">
-        <v>40</v>
       </c>
       <c r="B25" s="24">
         <v>2.6</v>
@@ -36866,37 +37216,37 @@
       <c r="C25" s="24">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46">
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="58">
         <v>126700</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:111" s="6" customFormat="1">
-      <c r="A26" s="46" t="s">
-        <v>22</v>
+      <c r="A26" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="24">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C26" s="24">
-        <v>1.012</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46">
-        <v>31000</v>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="58">
+        <v>126700</v>
       </c>
       <c r="J26"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -36998,8 +37348,8 @@
       <c r="DG26"/>
     </row>
     <row r="27" spans="1:111" s="6" customFormat="1">
-      <c r="A27" s="46" t="s">
-        <v>23</v>
+      <c r="A27" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="24">
         <v>2.62</v>
@@ -37008,16 +37358,16 @@
         <v>1.012</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46">
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="58">
         <v>31000</v>
       </c>
       <c r="J27"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -37119,26 +37469,26 @@
       <c r="DG27"/>
     </row>
     <row r="28" spans="1:111" s="13" customFormat="1">
-      <c r="A28" s="46" t="s">
-        <v>24</v>
+      <c r="A28" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="24">
-        <v>1</v>
+        <v>2.62</v>
       </c>
       <c r="C28" s="24">
-        <v>0.99</v>
+        <v>1.012</v>
       </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46">
-        <v>1020</v>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="58">
+        <v>31000</v>
       </c>
       <c r="J28"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -37240,8 +37590,8 @@
       <c r="DG28"/>
     </row>
     <row r="29" spans="1:111">
-      <c r="A29" s="46" t="s">
-        <v>25</v>
+      <c r="A29" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="24">
         <v>1</v>
@@ -37249,35 +37599,35 @@
       <c r="C29" s="24">
         <v>0.99</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46">
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="58">
         <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:111">
-      <c r="A30" s="46" t="s">
-        <v>26</v>
+      <c r="A30" s="44" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="24">
         <v>1</v>
       </c>
       <c r="C30" s="24">
-        <v>1.06</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46">
-        <v>1900</v>
+        <v>0.99</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="58">
+        <v>1020</v>
       </c>
     </row>
     <row r="31" spans="1:111">
-      <c r="A31" s="46" t="s">
-        <v>27</v>
+      <c r="A31" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="B31" s="24">
         <v>1</v>
@@ -37285,35 +37635,35 @@
       <c r="C31" s="24">
         <v>1.06</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46">
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="58">
         <v>1900</v>
       </c>
     </row>
     <row r="32" spans="1:111">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="24">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1.06</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="58">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" s="24">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C32" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="46" t="s">
-        <v>29</v>
       </c>
       <c r="B33" s="24">
         <v>2.0099999999999998</v>
@@ -37321,35 +37671,35 @@
       <c r="C33" s="24">
         <v>5.2</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46">
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="24">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C34" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="44" t="s">
         <v>30</v>
-      </c>
-      <c r="B34" s="24">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C34" s="24">
-        <v>8.66</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="46" t="s">
-        <v>31</v>
       </c>
       <c r="B35" s="24">
         <v>4.5999999999999996</v>
@@ -37357,35 +37707,35 @@
       <c r="C35" s="24">
         <v>8.66</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46">
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="58">
         <v>22500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C36" s="24">
+        <v>8.66</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="58">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="44" t="s">
         <v>32</v>
-      </c>
-      <c r="B36" s="24">
-        <v>2.9</v>
-      </c>
-      <c r="C36" s="24">
-        <v>2.98</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="46" t="s">
-        <v>33</v>
       </c>
       <c r="B37" s="24">
         <v>2.9</v>
@@ -37393,35 +37743,35 @@
       <c r="C37" s="24">
         <v>2.98</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46">
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="58">
         <v>16300</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="24">
+        <v>2.98</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="58">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="44" t="s">
         <v>34</v>
-      </c>
-      <c r="B38" s="24">
-        <v>1.51</v>
-      </c>
-      <c r="C38" s="24">
-        <v>3.4</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="46" t="s">
-        <v>35</v>
       </c>
       <c r="B39" s="24">
         <v>1.51</v>
@@ -37429,53 +37779,53 @@
       <c r="C39" s="24">
         <v>3.4</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46">
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="58">
         <v>4000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="24">
+        <v>1.51</v>
+      </c>
+      <c r="C40" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="58">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B41" s="24">
         <v>3.2</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C41" s="24">
         <v>3.1</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46">
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="58">
         <v>870</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="46" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="44" t="s">
         <v>37</v>
-      </c>
-      <c r="B41" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="C41" s="24">
-        <v>1</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="46" t="s">
-        <v>38</v>
       </c>
       <c r="B42" s="24">
         <v>1.2</v>
@@ -37483,35 +37833,35 @@
       <c r="C42" s="24">
         <v>1</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46">
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="58">
         <v>28000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="58">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="44" t="s">
         <v>47</v>
-      </c>
-      <c r="B43" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0.48</v>
-      </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="46" t="s">
-        <v>48</v>
       </c>
       <c r="B44" s="24">
         <v>0.3</v>
@@ -37519,86 +37869,95 @@
       <c r="C44" s="24">
         <v>0.48</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46">
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="58">
         <v>0.04</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="58">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B46" s="24">
         <v>10</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46">
+      <c r="C46" s="24"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="46" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B47" s="24">
         <v>0</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46">
+      <c r="C47" s="24"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="58">
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="46" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B48" s="24">
         <v>7.4</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="46" t="s">
+      <c r="C48" s="24"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="58"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C49" s="24">
         <v>1</v>
       </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="58">
         <v>9240</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="46"/>
-      <c r="C49" s="24"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-    </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="24">
@@ -37607,81 +37966,81 @@
       <c r="C50" s="24">
         <v>0.309</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46">
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="58">
         <v>117000</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="24">
         <v>1</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="58"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="24">
         <v>0.98</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="24">
         <v>4.2</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
+      <c r="A55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="A56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37690,7 +38049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D913A8DE-48C0-4EEE-808A-7CC9A7BA4613}">
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
@@ -37698,13 +38057,15 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="56"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -37717,10 +38078,10 @@
       <c r="C1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="56" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="32" t="s">
@@ -37728,18 +38089,18 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31">
         <v>0.5</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="56">
         <f>F2*0.05</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="56">
         <v>800000</v>
       </c>
       <c r="H2" t="s">
@@ -37747,19 +38108,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="31">
         <v>2.7</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>0.85</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="56">
         <v>30000</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="56">
         <v>730000</v>
       </c>
       <c r="H3" t="s">
@@ -37767,20 +38128,20 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="31">
         <f>B3</f>
         <v>2.7</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="31">
         <v>0.61</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="56">
         <v>11250</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="56">
         <v>750000</v>
       </c>
       <c r="H4" t="s">
@@ -37797,10 +38158,10 @@
       <c r="C5" s="31">
         <v>0.4</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="56">
         <v>8700</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="56">
         <v>435000</v>
       </c>
       <c r="H5" t="s">
@@ -37817,10 +38178,10 @@
       <c r="C6" s="31">
         <v>0.74</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="56">
         <v>7000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="56">
         <v>350000</v>
       </c>
       <c r="H6" t="s">
@@ -37834,7 +38195,7 @@
       <c r="B9">
         <v>1.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="56">
         <v>108000</v>
       </c>
     </row>
@@ -37845,7 +38206,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="56">
         <v>26000</v>
       </c>
     </row>
@@ -37856,7 +38217,7 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="56">
         <v>26000</v>
       </c>
     </row>
@@ -37867,7 +38228,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="56">
         <v>13425</v>
       </c>
     </row>
@@ -37878,7 +38239,7 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="56">
         <v>14850</v>
       </c>
     </row>
@@ -37889,11 +38250,11 @@
       <c r="B14">
         <v>1.6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="56">
         <v>800</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -37903,11 +38264,11 @@
       <c r="B15">
         <v>4.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="56">
         <v>7423</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -37917,11 +38278,11 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="56">
         <v>11000</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -37931,11 +38292,11 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="56">
         <v>7600</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -37945,7 +38306,7 @@
       <c r="B18">
         <v>2.4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="56">
         <v>24700</v>
       </c>
     </row>
@@ -37956,7 +38317,7 @@
       <c r="B19">
         <v>1.22</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="56">
         <v>12900</v>
       </c>
     </row>
@@ -37967,7 +38328,7 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="56">
         <v>0</v>
       </c>
     </row>
@@ -37978,7 +38339,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="56">
         <v>20000</v>
       </c>
     </row>
@@ -37989,7 +38350,7 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="56">
         <v>0</v>
       </c>
     </row>
@@ -38000,7 +38361,7 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="56">
         <v>7810</v>
       </c>
     </row>
@@ -38011,7 +38372,7 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="56">
         <v>58140.000000000007</v>
       </c>
     </row>
@@ -38022,7 +38383,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="56">
         <v>51170.000000000007</v>
       </c>
     </row>
@@ -38033,7 +38394,7 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="56">
         <v>0</v>
       </c>
     </row>
@@ -38044,7 +38405,7 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="56">
         <v>11375</v>
       </c>
     </row>
@@ -38055,273 +38416,8 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="56">
         <v>33450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9BE072-626C-4213-9685-86349538CF33}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="32.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2030</v>
-      </c>
-      <c r="D1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>27800</v>
-      </c>
-      <c r="D4">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>27800</v>
-      </c>
-      <c r="D5">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>27800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>13450</v>
-      </c>
-      <c r="D9">
-        <v>13425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>14950</v>
-      </c>
-      <c r="D10">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12">
-        <v>7745</v>
-      </c>
-      <c r="D12">
-        <v>7423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>8300</v>
-      </c>
-      <c r="D13">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>30500</v>
-      </c>
-      <c r="D14">
-        <v>24700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>14700</v>
-      </c>
-      <c r="D15">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16">
-        <v>12300</v>
-      </c>
-      <c r="D16">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="8">
-        <v>61528.160000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="8">
-        <v>61528.160000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="8">
-        <v>8575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
-        <v>111166.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="8">
-        <v>16000</v>
       </c>
     </row>
   </sheetData>
@@ -38343,13 +38439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="40">
+      <c r="B1" s="38">
         <v>2020</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="38">
         <v>2030</v>
       </c>
-      <c r="D1" s="40">
+      <c r="D1" s="38">
         <v>2050</v>
       </c>
     </row>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18822A-067F-43A2-8772-90CD8DAA9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAE2A2-9119-4D2A-8410-33A3A432A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9386,7 +9386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9653,7 +9653,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -32938,8 +32938,8 @@
   </sheetPr>
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34673,7 +34673,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35263,7 +35263,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="43">
-        <f>+(C43+C46)/2</f>
+        <f>+(C42+C45)/2</f>
         <v>878000</v>
       </c>
       <c r="F39" t="s">
@@ -35278,7 +35278,7 @@
         <v>2030</v>
       </c>
       <c r="C40" s="43">
-        <f t="shared" ref="C40:C41" si="0">+(C44+C47)/2</f>
+        <f>+(C43+C46)/2</f>
         <v>730500</v>
       </c>
       <c r="F40" t="s">
@@ -35293,10 +35293,24 @@
         <v>2050</v>
       </c>
       <c r="C41" s="43">
-        <f t="shared" si="0"/>
+        <f>+(C44+C47)/2</f>
         <v>519000</v>
       </c>
       <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="50">
+        <v>2020</v>
+      </c>
+      <c r="C42" s="43">
+        <v>587000</v>
+      </c>
+      <c r="F42" t="s">
         <v>259</v>
       </c>
     </row>
@@ -35305,11 +35319,12 @@
         <v>46</v>
       </c>
       <c r="B43" s="50">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C43" s="43">
-        <v>587000</v>
-      </c>
+        <v>444000</v>
+      </c>
+      <c r="D43" s="17"/>
       <c r="F43" t="s">
         <v>259</v>
       </c>
@@ -35319,25 +35334,24 @@
         <v>46</v>
       </c>
       <c r="B44" s="50">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C44" s="43">
-        <v>444000</v>
-      </c>
-      <c r="D44" s="17"/>
+        <v>350000</v>
+      </c>
       <c r="F44" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="50">
-        <v>2050</v>
-      </c>
-      <c r="C45" s="43">
-        <v>350000</v>
+        <v>2020</v>
+      </c>
+      <c r="C45" s="54">
+        <v>1169000</v>
       </c>
       <c r="F45" t="s">
         <v>259</v>
@@ -35348,10 +35362,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50">
-        <v>2020</v>
-      </c>
-      <c r="C46" s="54">
-        <v>1169000</v>
+        <v>2030</v>
+      </c>
+      <c r="C46" s="43">
+        <v>1017000</v>
       </c>
       <c r="F46" t="s">
         <v>259</v>
@@ -35362,26 +35376,12 @@
         <v>45</v>
       </c>
       <c r="B47" s="50">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C47" s="43">
-        <v>1017000</v>
+        <v>688000</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="50">
-        <v>2050</v>
-      </c>
-      <c r="C48" s="43">
-        <v>688000</v>
-      </c>
-      <c r="F48" t="s">
         <v>259</v>
       </c>
     </row>
@@ -35453,7 +35453,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35599,164 +35599,164 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="31" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="31">
-        <v>8300</v>
-      </c>
+      <c r="C13" s="31"/>
       <c r="D13" s="31">
-        <v>7600</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="31" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="31">
-        <v>30500</v>
-      </c>
+      <c r="C14" s="31"/>
       <c r="D14" s="31">
-        <v>24700</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="31" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="31">
-        <v>14700</v>
-      </c>
+      <c r="C15" s="31"/>
       <c r="D15" s="31">
-        <v>12900</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="31">
-        <v>12300</v>
-      </c>
+      <c r="C16" s="31"/>
       <c r="D16" s="31">
-        <v>11000</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31">
-        <v>40000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="31"/>
+        <v>142</v>
+      </c>
+      <c r="B18" s="36">
+        <v>61528.160000000003</v>
+      </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="31">
-        <v>30000</v>
-      </c>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="31"/>
+        <v>145</v>
+      </c>
+      <c r="B19" s="36">
+        <v>61528.160000000003</v>
+      </c>
       <c r="C19" s="31"/>
-      <c r="D19" s="31">
-        <v>11250</v>
-      </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>146</v>
+      </c>
+      <c r="B20" s="36">
+        <v>8575</v>
+      </c>
       <c r="C20" s="31"/>
-      <c r="D20" s="31">
-        <v>8700</v>
-      </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="B21" s="36">
+        <v>111166.3</v>
+      </c>
       <c r="C21" s="31"/>
-      <c r="D21" s="31">
-        <v>7000</v>
-      </c>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="36">
-        <v>61528.160000000003</v>
+        <v>149</v>
+      </c>
+      <c r="B22" s="31">
+        <v>16000</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="36">
-        <v>61528.160000000003</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+        <v>268</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31">
+        <f>(C25+C24)/2</f>
+        <v>10300</v>
+      </c>
+      <c r="D23" s="31">
+        <f>(D25+D24)/2</f>
+        <v>9300</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="36">
-        <v>8575</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31">
+        <v>12300</v>
+      </c>
+      <c r="D24" s="31">
+        <v>11000</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="36">
-        <v>111166.3</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31">
+        <v>8300</v>
+      </c>
+      <c r="D25" s="31">
+        <v>7600</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="31">
-        <v>16000</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31">
+        <v>30500</v>
+      </c>
+      <c r="D26" s="31">
+        <v>24700</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="31" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31">
-        <f>(C13+C16)/2</f>
-        <v>10300</v>
+        <v>14700</v>
       </c>
       <c r="D27" s="31">
-        <f>(D13+D16)/2</f>
-        <v>9300</v>
+        <v>12900</v>
       </c>
     </row>
   </sheetData>
@@ -36081,8 +36081,8 @@
   </sheetPr>
   <dimension ref="A1:DG56"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36760,11 +36760,32 @@
       <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:111">
+      <c r="A15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="44">
+        <v>0</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="58">
+        <f>12300</f>
+        <v>12300</v>
+      </c>
+      <c r="J15" t="s">
+        <v>259</v>
+      </c>
       <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:111" s="30" customFormat="1">
       <c r="A16" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="44">
         <v>0</v>
@@ -36778,8 +36799,7 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="58">
-        <f>12300</f>
-        <v>12300</v>
+        <v>8300</v>
       </c>
       <c r="J16" t="s">
         <v>259</v>
@@ -36844,26 +36864,6 @@
       <c r="BP16"/>
     </row>
     <row r="17" spans="1:111">
-      <c r="A17" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="44">
-        <v>0</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="58">
-        <v>8300</v>
-      </c>
-      <c r="J17" t="s">
-        <v>259</v>
-      </c>
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:111" s="6" customFormat="1">
@@ -38056,7 +38056,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAE2A2-9119-4D2A-8410-33A3A432A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E185A4F-0F3F-4279-B92E-EE2635988083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="11" r:id="rId16"/>
+    <pivotCache cacheId="12" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="273">
   <si>
     <t>CO2</t>
   </si>
@@ -1050,6 +1050,15 @@
   </si>
   <si>
     <t>old prices</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>gas + emissions 2050</t>
   </si>
 </sst>
 </file>
@@ -8198,16 +8207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549121</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28498</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185854</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>89752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>281957</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>160637</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1126739</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>36037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8230,50 +8239,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>914476</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>450611</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>50458</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2264B417-3987-119D-0DBE-31C75893A201}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6966336" y="6466855"/>
-          <a:ext cx="3078970" cy="1947018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9386,7 +9351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9653,7 +9618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -32936,10 +32901,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32949,6 +32914,10 @@
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -32987,7 +32956,7 @@
       <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="31" t="s">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="31">
@@ -33286,9 +33255,8 @@
         <v>6.48</v>
       </c>
       <c r="L16" s="27"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="31" t="s">
         <v>62</v>
       </c>
@@ -33315,8 +33283,8 @@
       </c>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="31">
@@ -33347,7 +33315,7 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:23">
       <c r="A19" s="31" t="s">
         <v>64</v>
       </c>
@@ -33379,7 +33347,7 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:23">
       <c r="A20" s="31" t="s">
         <v>65</v>
       </c>
@@ -33411,7 +33379,7 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:23">
       <c r="A21" s="31" t="s">
         <v>1</v>
       </c>
@@ -33443,7 +33411,7 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:23">
       <c r="A22" s="31" t="s">
         <v>66</v>
       </c>
@@ -33474,8 +33442,17 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="U22" t="s">
+        <v>270</v>
+      </c>
+      <c r="V22" t="s">
+        <v>271</v>
+      </c>
+      <c r="W22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="31" t="s">
         <v>67</v>
       </c>
@@ -33506,8 +33483,19 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="U23">
+        <f>0.202*168</f>
+        <v>33.936</v>
+      </c>
+      <c r="V23">
+        <v>15</v>
+      </c>
+      <c r="W23">
+        <f>V23+U23</f>
+        <v>48.936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="31" t="s">
         <v>68</v>
       </c>
@@ -33539,7 +33527,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:23">
       <c r="A25" s="31" t="s">
         <v>61</v>
       </c>
@@ -33571,7 +33559,7 @@
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:23">
       <c r="A26" s="31" t="s">
         <v>58</v>
       </c>
@@ -33603,7 +33591,7 @@
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:23">
       <c r="A27" s="31" t="s">
         <v>59</v>
       </c>
@@ -33623,7 +33611,7 @@
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:23">
       <c r="A28" s="31" t="s">
         <v>57</v>
       </c>
@@ -33646,7 +33634,7 @@
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:23">
       <c r="A29" s="31" t="s">
         <v>52</v>
       </c>
@@ -33664,7 +33652,7 @@
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:23">
       <c r="A30" s="31" t="s">
         <v>56</v>
       </c>
@@ -33682,7 +33670,7 @@
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:23">
       <c r="A31" s="31" t="s">
         <v>0</v>
       </c>
@@ -33700,7 +33688,7 @@
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:23">
       <c r="A32" s="31" t="s">
         <v>77</v>
       </c>
@@ -33737,7 +33725,7 @@
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="31" t="s">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="31">
@@ -34657,6 +34645,7 @@
       <c r="H94" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C47" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34672,8 +34661,8 @@
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34689,7 +34678,10 @@
     <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" customWidth="1"/>
     <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -38056,8 +38048,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E185A4F-0F3F-4279-B92E-EE2635988083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654C775-B455-4775-A12C-7C9BF2B68AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -31,12 +31,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">node!$A$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">node!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId16"/>
-    <pivotCache cacheId="12" r:id="rId17"/>
+    <pivotCache cacheId="18" r:id="rId16"/>
+    <pivotCache cacheId="19" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="277">
   <si>
     <t>CO2</t>
   </si>
@@ -1060,15 +1060,28 @@
   <si>
     <t>gas + emissions 2050</t>
   </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>change back to hydrogen</t>
+  </si>
+  <si>
+    <t>natural gas emissions</t>
+  </si>
+  <si>
+    <t>change back to natural gas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1323,7 +1336,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1410,6 +1423,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4132,94 +4146,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,94 +4389,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,94 +4638,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,94 +5583,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9351,7 +9365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9618,7 +9632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -11262,7 +11276,7 @@
       </c>
       <c r="G3" s="21" t="e">
         <f>VLOOKUP(G2,node!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H3" s="21" t="e">
         <f>VLOOKUP(H2,node!$A$1:$C$16,4,0)</f>
@@ -11329,7 +11343,7 @@
       </c>
       <c r="G4" s="21" t="e">
         <f>VLOOKUP(G2,node!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H4" s="21" t="e">
         <f>VLOOKUP(H2,node!$A$17:$C$30,4,0)</f>
@@ -11396,7 +11410,7 @@
       </c>
       <c r="G5" s="21" t="e">
         <f>VLOOKUP(G2,node!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H5" s="21" t="e">
         <f>VLOOKUP(H2,node!$A$32:$C$47,4,0)</f>
@@ -11472,7 +11486,7 @@
       </c>
       <c r="G7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
@@ -11540,7 +11554,7 @@
       </c>
       <c r="G8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H8" t="e">
         <f t="shared" si="1"/>
@@ -11608,7 +11622,7 @@
       </c>
       <c r="G9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H9" t="e">
         <f t="shared" si="1"/>
@@ -11677,7 +11691,7 @@
       </c>
       <c r="G10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H10" t="e">
         <f t="shared" si="1"/>
@@ -11744,7 +11758,7 @@
       </c>
       <c r="G11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H11" t="e">
         <f t="shared" si="1"/>
@@ -11811,7 +11825,7 @@
       </c>
       <c r="G12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="1"/>
@@ -11878,7 +11892,7 @@
       </c>
       <c r="G13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H13" t="e">
         <f t="shared" si="1"/>
@@ -11945,7 +11959,7 @@
       </c>
       <c r="G14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H14" t="e">
         <f t="shared" si="1"/>
@@ -12012,7 +12026,7 @@
       </c>
       <c r="G15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="1"/>
@@ -12079,7 +12093,7 @@
       </c>
       <c r="G16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -12140,7 +12154,7 @@
       </c>
       <c r="G17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="1"/>
@@ -12201,7 +12215,7 @@
       </c>
       <c r="G18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="2"/>
@@ -12268,7 +12282,7 @@
       </c>
       <c r="G19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H19" t="e">
         <f t="shared" si="2"/>
@@ -12350,7 +12364,7 @@
       </c>
       <c r="G20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H20" t="e">
         <f t="shared" si="2"/>
@@ -12443,7 +12457,7 @@
       </c>
       <c r="G21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H21" t="e">
         <f t="shared" si="2"/>
@@ -12536,7 +12550,7 @@
       </c>
       <c r="G22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H22" t="e">
         <f t="shared" si="2"/>
@@ -12629,7 +12643,7 @@
       </c>
       <c r="G23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="2"/>
@@ -12722,7 +12736,7 @@
       </c>
       <c r="G24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H24" t="e">
         <f t="shared" si="2"/>
@@ -12815,7 +12829,7 @@
       </c>
       <c r="G25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H25" t="e">
         <f t="shared" si="2"/>
@@ -12908,7 +12922,7 @@
       </c>
       <c r="G26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H26" t="e">
         <f t="shared" si="2"/>
@@ -13001,7 +13015,7 @@
       </c>
       <c r="G27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H27" t="e">
         <f t="shared" si="2"/>
@@ -13094,7 +13108,7 @@
       </c>
       <c r="G28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H28" t="e">
         <f t="shared" si="5"/>
@@ -13187,7 +13201,7 @@
       </c>
       <c r="G29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="5"/>
@@ -13280,7 +13294,7 @@
       </c>
       <c r="G30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H30" t="e">
         <f t="shared" si="5"/>
@@ -13341,7 +13355,7 @@
       </c>
       <c r="G31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H31" t="e">
         <f t="shared" si="5"/>
@@ -13411,7 +13425,7 @@
       </c>
       <c r="G32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H32" t="e">
         <f t="shared" si="5"/>
@@ -13478,7 +13492,7 @@
       </c>
       <c r="G33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H33" t="e">
         <f t="shared" si="5"/>
@@ -13545,7 +13559,7 @@
       </c>
       <c r="G34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H34" t="e">
         <f t="shared" si="5"/>
@@ -13612,7 +13626,7 @@
       </c>
       <c r="G35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H35" t="e">
         <f t="shared" si="5"/>
@@ -13681,7 +13695,7 @@
       </c>
       <c r="G36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="5"/>
@@ -13743,7 +13757,7 @@
       </c>
       <c r="G37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="6"/>
@@ -14008,11 +14022,11 @@
       </c>
       <c r="C48" s="6" t="e">
         <f>VLOOKUP($A$48,$A$49:$I$79,3,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D48" s="6" t="e">
         <f>VLOOKUP($A$48,$A$49:$I$79,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="6">
         <f>VLOOKUP($A$48,$A$49:$I$79,5,0)</f>
@@ -14032,7 +14046,7 @@
       </c>
       <c r="I48" s="6" t="e">
         <f>VLOOKUP($A$48,$A$49:$I$79,9,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="N48" t="str">
         <f>B40</f>
@@ -14078,11 +14092,11 @@
       </c>
       <c r="C49" t="e">
         <f t="shared" ref="C49:D49" si="9">C$44+($G8+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D49" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E49">
         <f t="shared" ref="E49:H79" si="10">E$44+(E$46*$V$35)/E$45</f>
@@ -14102,7 +14116,7 @@
       </c>
       <c r="I49" t="e">
         <f t="shared" ref="I49:I79" si="11">I$44+($G8+I$46*$V$35)/I$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -14113,11 +14127,11 @@
       </c>
       <c r="O49" t="e">
         <f t="shared" ref="O49:O78" si="13">$M49*C$48 + C$43+C$42</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P49" t="e">
         <f t="shared" ref="P49:P78" si="14">$M49*D$48 + D$43+D$42</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q49">
         <f t="shared" ref="Q49:Q78" si="15">$M49*E$48 + E$43+E$42</f>
@@ -14137,7 +14151,7 @@
       </c>
       <c r="U49" t="e">
         <f t="shared" ref="U49:U78" si="19">$M49*I$48 + I$43+I$42</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -14151,11 +14165,11 @@
       </c>
       <c r="C50" t="e">
         <f t="shared" ref="C50:D50" si="21">C$44+($G9+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D50" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E50">
         <f t="shared" si="10"/>
@@ -14175,7 +14189,7 @@
       </c>
       <c r="I50" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M50">
         <v>300</v>
@@ -14186,11 +14200,11 @@
       </c>
       <c r="O50" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P50" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q50">
         <f t="shared" si="15"/>
@@ -14210,7 +14224,7 @@
       </c>
       <c r="U50" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -14224,11 +14238,11 @@
       </c>
       <c r="C51" t="e">
         <f t="shared" ref="C51:D51" si="22">C$44+($G10+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D51" t="e">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E51">
         <f>E$44+(E$46*$V$35)/E$45</f>
@@ -14248,7 +14262,7 @@
       </c>
       <c r="I51" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M51">
         <v>600</v>
@@ -14259,11 +14273,11 @@
       </c>
       <c r="O51" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P51" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q51">
         <f t="shared" si="15"/>
@@ -14283,7 +14297,7 @@
       </c>
       <c r="U51" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -14297,11 +14311,11 @@
       </c>
       <c r="C52" t="e">
         <f t="shared" ref="C52:D52" si="23">C$44+($G11+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D52" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E52">
         <f t="shared" si="10"/>
@@ -14321,7 +14335,7 @@
       </c>
       <c r="I52" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M52">
         <v>900</v>
@@ -14332,11 +14346,11 @@
       </c>
       <c r="O52" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P52" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q52">
         <f t="shared" si="15"/>
@@ -14356,7 +14370,7 @@
       </c>
       <c r="U52" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -14370,11 +14384,11 @@
       </c>
       <c r="C53" t="e">
         <f>C$44+($G12+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D53" t="e">
         <f t="shared" ref="D53" si="24">D$44+($G12+D$46*$V$35)/D$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E53">
         <f t="shared" si="10"/>
@@ -14394,7 +14408,7 @@
       </c>
       <c r="I53" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M53">
         <v>1200</v>
@@ -14405,11 +14419,11 @@
       </c>
       <c r="O53" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P53" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q53">
         <f t="shared" si="15"/>
@@ -14429,7 +14443,7 @@
       </c>
       <c r="U53" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -14443,11 +14457,11 @@
       </c>
       <c r="C54" t="e">
         <f t="shared" ref="C54" si="25">C$44+($G13+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D54" t="e">
         <f>D$44+($G13+D$46*$V$35)/D$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E54">
         <f t="shared" si="10"/>
@@ -14467,7 +14481,7 @@
       </c>
       <c r="I54" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M54">
         <v>1500</v>
@@ -14478,11 +14492,11 @@
       </c>
       <c r="O54" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P54" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q54">
         <f t="shared" si="15"/>
@@ -14502,7 +14516,7 @@
       </c>
       <c r="U54" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -14516,11 +14530,11 @@
       </c>
       <c r="C55" t="e">
         <f t="shared" ref="C55:D55" si="26">C$44+($G14+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D55" t="e">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E55">
         <f t="shared" si="10"/>
@@ -14540,7 +14554,7 @@
       </c>
       <c r="I55" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M55">
         <v>1800</v>
@@ -14551,11 +14565,11 @@
       </c>
       <c r="O55" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P55" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q55">
         <f t="shared" si="15"/>
@@ -14575,7 +14589,7 @@
       </c>
       <c r="U55" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -14589,11 +14603,11 @@
       </c>
       <c r="C56" t="e">
         <f t="shared" ref="C56:D56" si="27">C$44+($G15+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D56" t="e">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E56">
         <f t="shared" si="10"/>
@@ -14613,7 +14627,7 @@
       </c>
       <c r="I56" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M56">
         <v>2100</v>
@@ -14624,11 +14638,11 @@
       </c>
       <c r="O56" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P56" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q56">
         <f t="shared" si="15"/>
@@ -14648,7 +14662,7 @@
       </c>
       <c r="U56" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -14662,11 +14676,11 @@
       </c>
       <c r="C57" t="e">
         <f t="shared" ref="C57:D57" si="28">C$44+($G16+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D57" t="e">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E57">
         <f t="shared" si="10"/>
@@ -14686,7 +14700,7 @@
       </c>
       <c r="I57" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M57">
         <v>2400</v>
@@ -14697,11 +14711,11 @@
       </c>
       <c r="O57" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P57" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q57">
         <f t="shared" si="15"/>
@@ -14721,7 +14735,7 @@
       </c>
       <c r="U57" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -14735,11 +14749,11 @@
       </c>
       <c r="C58" t="e">
         <f t="shared" ref="C58:D58" si="29">C$44+($G17+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D58" t="e">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E58">
         <f t="shared" si="10"/>
@@ -14759,7 +14773,7 @@
       </c>
       <c r="I58" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M58">
         <v>2700</v>
@@ -14770,11 +14784,11 @@
       </c>
       <c r="O58" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P58" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q58">
         <f t="shared" si="15"/>
@@ -14794,7 +14808,7 @@
       </c>
       <c r="U58" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -14808,11 +14822,11 @@
       </c>
       <c r="C59" t="e">
         <f t="shared" ref="C59:D59" si="30">C$44+($G18+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D59" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E59">
         <f t="shared" si="10"/>
@@ -14832,7 +14846,7 @@
       </c>
       <c r="I59" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M59">
         <v>3000</v>
@@ -14843,11 +14857,11 @@
       </c>
       <c r="O59" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P59" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q59">
         <f t="shared" si="15"/>
@@ -14867,7 +14881,7 @@
       </c>
       <c r="U59" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -14881,11 +14895,11 @@
       </c>
       <c r="C60" t="e">
         <f t="shared" ref="C60:D60" si="31">C$44+($G19+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D60" t="e">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E60">
         <f t="shared" si="10"/>
@@ -14905,7 +14919,7 @@
       </c>
       <c r="I60" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M60">
         <v>3300</v>
@@ -14916,11 +14930,11 @@
       </c>
       <c r="O60" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P60" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q60">
         <f t="shared" si="15"/>
@@ -14940,7 +14954,7 @@
       </c>
       <c r="U60" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -14954,11 +14968,11 @@
       </c>
       <c r="C61" t="e">
         <f t="shared" ref="C61:D61" si="32">C$44+($G20+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D61" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E61">
         <f t="shared" si="10"/>
@@ -14978,7 +14992,7 @@
       </c>
       <c r="I61" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M61">
         <v>3600</v>
@@ -14989,11 +15003,11 @@
       </c>
       <c r="O61" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P61" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q61">
         <f t="shared" si="15"/>
@@ -15013,7 +15027,7 @@
       </c>
       <c r="U61" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -15027,11 +15041,11 @@
       </c>
       <c r="C62" t="e">
         <f t="shared" ref="C62:D62" si="33">C$44+($G21+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D62" t="e">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E62">
         <f t="shared" si="10"/>
@@ -15051,7 +15065,7 @@
       </c>
       <c r="I62" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M62">
         <v>3900</v>
@@ -15062,11 +15076,11 @@
       </c>
       <c r="O62" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P62" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q62">
         <f t="shared" si="15"/>
@@ -15086,7 +15100,7 @@
       </c>
       <c r="U62" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -15100,11 +15114,11 @@
       </c>
       <c r="C63" t="e">
         <f t="shared" ref="C63:D63" si="34">C$44+($G22+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D63" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E63">
         <f t="shared" si="10"/>
@@ -15124,7 +15138,7 @@
       </c>
       <c r="I63" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M63">
         <v>4200</v>
@@ -15135,11 +15149,11 @@
       </c>
       <c r="O63" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P63" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q63">
         <f t="shared" si="15"/>
@@ -15159,7 +15173,7 @@
       </c>
       <c r="U63" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -15173,11 +15187,11 @@
       </c>
       <c r="C64" t="e">
         <f t="shared" ref="C64:D64" si="35">C$44+($G23+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D64" t="e">
         <f t="shared" si="35"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E64">
         <f t="shared" si="10"/>
@@ -15197,7 +15211,7 @@
       </c>
       <c r="I64" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M64">
         <v>4500</v>
@@ -15208,11 +15222,11 @@
       </c>
       <c r="O64" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P64" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q64">
         <f t="shared" si="15"/>
@@ -15232,7 +15246,7 @@
       </c>
       <c r="U64" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -15246,11 +15260,11 @@
       </c>
       <c r="C65" t="e">
         <f t="shared" ref="C65:D65" si="36">C$44+($G24+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D65" t="e">
         <f t="shared" si="36"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E65">
         <f t="shared" si="10"/>
@@ -15270,7 +15284,7 @@
       </c>
       <c r="I65" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M65">
         <v>4800</v>
@@ -15281,11 +15295,11 @@
       </c>
       <c r="O65" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P65" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q65">
         <f t="shared" si="15"/>
@@ -15305,7 +15319,7 @@
       </c>
       <c r="U65" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -15319,11 +15333,11 @@
       </c>
       <c r="C66" t="e">
         <f t="shared" ref="C66:D66" si="37">C$44+($G25+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D66" t="e">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E66">
         <f t="shared" si="10"/>
@@ -15343,7 +15357,7 @@
       </c>
       <c r="I66" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M66">
         <v>5100</v>
@@ -15354,11 +15368,11 @@
       </c>
       <c r="O66" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P66" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q66">
         <f t="shared" si="15"/>
@@ -15378,7 +15392,7 @@
       </c>
       <c r="U66" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -15392,11 +15406,11 @@
       </c>
       <c r="C67" t="e">
         <f t="shared" ref="C67:D67" si="38">C$44+($G26+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D67" t="e">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E67">
         <f t="shared" si="10"/>
@@ -15416,7 +15430,7 @@
       </c>
       <c r="I67" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M67">
         <v>5400</v>
@@ -15427,11 +15441,11 @@
       </c>
       <c r="O67" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P67" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q67">
         <f t="shared" si="15"/>
@@ -15451,7 +15465,7 @@
       </c>
       <c r="U67" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -15465,11 +15479,11 @@
       </c>
       <c r="C68" t="e">
         <f t="shared" ref="C68:D68" si="39">C$44+($G27+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D68" t="e">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E68">
         <f t="shared" si="10"/>
@@ -15489,7 +15503,7 @@
       </c>
       <c r="I68" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M68">
         <v>5700</v>
@@ -15500,11 +15514,11 @@
       </c>
       <c r="O68" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P68" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q68">
         <f t="shared" si="15"/>
@@ -15524,7 +15538,7 @@
       </c>
       <c r="U68" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -15538,11 +15552,11 @@
       </c>
       <c r="C69" t="e">
         <f t="shared" ref="C69:D69" si="40">C$44+($G28+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D69" t="e">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E69">
         <f t="shared" si="10"/>
@@ -15562,7 +15576,7 @@
       </c>
       <c r="I69" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M69">
         <v>6000</v>
@@ -15573,11 +15587,11 @@
       </c>
       <c r="O69" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P69" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q69">
         <f t="shared" si="15"/>
@@ -15597,7 +15611,7 @@
       </c>
       <c r="U69" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -15611,11 +15625,11 @@
       </c>
       <c r="C70" t="e">
         <f t="shared" ref="C70:D70" si="41">C$44+($G29+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D70" t="e">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
@@ -15635,7 +15649,7 @@
       </c>
       <c r="I70" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M70">
         <v>6300</v>
@@ -15646,11 +15660,11 @@
       </c>
       <c r="O70" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P70" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q70">
         <f t="shared" si="15"/>
@@ -15670,7 +15684,7 @@
       </c>
       <c r="U70" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -15684,11 +15698,11 @@
       </c>
       <c r="C71" t="e">
         <f t="shared" ref="C71:D71" si="42">C$44+($G30+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D71" t="e">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
@@ -15708,7 +15722,7 @@
       </c>
       <c r="I71" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M71">
         <v>6600</v>
@@ -15719,11 +15733,11 @@
       </c>
       <c r="O71" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P71" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q71">
         <f t="shared" si="15"/>
@@ -15743,7 +15757,7 @@
       </c>
       <c r="U71" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -15757,11 +15771,11 @@
       </c>
       <c r="C72" t="e">
         <f t="shared" ref="C72:D72" si="43">C$44+($G31+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D72" t="e">
         <f t="shared" si="43"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
@@ -15781,7 +15795,7 @@
       </c>
       <c r="I72" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M72">
         <v>6900</v>
@@ -15792,11 +15806,11 @@
       </c>
       <c r="O72" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P72" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q72">
         <f t="shared" si="15"/>
@@ -15816,7 +15830,7 @@
       </c>
       <c r="U72" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -15830,11 +15844,11 @@
       </c>
       <c r="C73" t="e">
         <f t="shared" ref="C73:D73" si="44">C$44+($G32+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D73" t="e">
         <f t="shared" si="44"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
@@ -15854,7 +15868,7 @@
       </c>
       <c r="I73" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M73">
         <v>7200</v>
@@ -15865,11 +15879,11 @@
       </c>
       <c r="O73" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P73" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q73">
         <f t="shared" si="15"/>
@@ -15889,7 +15903,7 @@
       </c>
       <c r="U73" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -15903,11 +15917,11 @@
       </c>
       <c r="C74" t="e">
         <f t="shared" ref="C74:D74" si="45">C$44+($G33+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D74" t="e">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
@@ -15927,7 +15941,7 @@
       </c>
       <c r="I74" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M74">
         <v>7500</v>
@@ -15938,11 +15952,11 @@
       </c>
       <c r="O74" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P74" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q74">
         <f t="shared" si="15"/>
@@ -15962,7 +15976,7 @@
       </c>
       <c r="U74" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -15976,11 +15990,11 @@
       </c>
       <c r="C75" t="e">
         <f t="shared" ref="C75:D75" si="46">C$44+($G34+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D75" t="e">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
@@ -16000,7 +16014,7 @@
       </c>
       <c r="I75" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M75">
         <v>7800</v>
@@ -16011,11 +16025,11 @@
       </c>
       <c r="O75" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P75" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q75">
         <f t="shared" si="15"/>
@@ -16035,7 +16049,7 @@
       </c>
       <c r="U75" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -16049,11 +16063,11 @@
       </c>
       <c r="C76" t="e">
         <f t="shared" ref="C76:D76" si="47">C$44+($G35+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D76" t="e">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E76">
         <f t="shared" si="10"/>
@@ -16073,7 +16087,7 @@
       </c>
       <c r="I76" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M76">
         <v>8100</v>
@@ -16084,11 +16098,11 @@
       </c>
       <c r="O76" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P76" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q76">
         <f t="shared" si="15"/>
@@ -16108,7 +16122,7 @@
       </c>
       <c r="U76" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -16122,11 +16136,11 @@
       </c>
       <c r="C77" t="e">
         <f t="shared" ref="C77:D77" si="48">C$44+($G36+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D77" t="e">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E77">
         <f t="shared" si="10"/>
@@ -16146,7 +16160,7 @@
       </c>
       <c r="I77" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M77">
         <v>8400</v>
@@ -16157,11 +16171,11 @@
       </c>
       <c r="O77" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P77" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q77">
         <f t="shared" si="15"/>
@@ -16181,7 +16195,7 @@
       </c>
       <c r="U77" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -16195,11 +16209,11 @@
       </c>
       <c r="C78" t="e">
         <f t="shared" ref="C78:D78" si="49">C$44+($G37+C$46*$V$35)/C$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D78" t="e">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E78">
         <f t="shared" si="10"/>
@@ -16219,7 +16233,7 @@
       </c>
       <c r="I78" t="e">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M78">
         <v>8700</v>
@@ -16230,11 +16244,11 @@
       </c>
       <c r="O78" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="P78" t="e">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q78">
         <f t="shared" si="15"/>
@@ -16254,7 +16268,7 @@
       </c>
       <c r="U78" t="e">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -32901,10 +32915,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32956,8 +32970,8 @@
       <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>63</v>
+      <c r="A3" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="B3" s="31">
         <v>2020</v>
@@ -32967,6 +32981,9 @@
       </c>
       <c r="E3" t="s">
         <v>266</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
@@ -33022,17 +33039,21 @@
       <c r="R6" s="27"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="31" t="s">
-        <v>66</v>
+      <c r="A7" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="31">
         <v>2020</v>
       </c>
-      <c r="C7" s="31">
-        <v>20.05</v>
+      <c r="C7" s="60">
+        <f>C48+C16*E50</f>
+        <v>28.128393536000001</v>
       </c>
       <c r="E7" t="s">
         <v>266</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="L7" s="27"/>
       <c r="Q7" s="27"/>
@@ -33236,7 +33257,7 @@
       <c r="B16" s="31">
         <v>2020</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="60">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -33285,7 +33306,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="B18" s="31">
         <v>2030</v>
@@ -33295,6 +33316,9 @@
       </c>
       <c r="E18" t="s">
         <v>267</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -33412,14 +33436,15 @@
       <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="31" t="s">
-        <v>66</v>
+      <c r="A22" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B22" s="31">
         <v>2030</v>
       </c>
-      <c r="C22" s="31">
-        <v>14.47</v>
+      <c r="C22" s="60">
+        <f>C49+C31*E50</f>
+        <v>39.311060123200001</v>
       </c>
       <c r="E22" t="s">
         <v>266</v>
@@ -33677,7 +33702,7 @@
       <c r="B31" s="31">
         <v>2020</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="60">
         <v>123</v>
       </c>
       <c r="E31" t="s">
@@ -33726,7 +33751,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="B34" s="31">
         <v>2050</v>
@@ -33800,14 +33825,15 @@
       <c r="Q37" s="27"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="31" t="s">
-        <v>66</v>
+      <c r="A38" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B38" s="31">
         <v>2050</v>
       </c>
-      <c r="C38" s="31">
-        <v>14.65</v>
+      <c r="C38" s="60">
+        <f>C50+E50*C46</f>
+        <v>48.579252851200003</v>
       </c>
       <c r="E38" t="s">
         <v>266</v>
@@ -33921,7 +33947,7 @@
       <c r="B46" s="31">
         <v>2050</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="60">
         <v>168</v>
       </c>
       <c r="E46" t="s">
@@ -33942,93 +33968,90 @@
         <v>60</v>
       </c>
     </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C48" s="31">
+        <v>20.05</v>
+      </c>
+    </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49">
-        <v>102</v>
+      <c r="A49" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="31">
+        <v>2030</v>
+      </c>
+      <c r="C49" s="31">
+        <v>14.47</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>54</v>
+      <c r="A50" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="31">
+        <v>2050</v>
+      </c>
+      <c r="C50" s="31">
+        <v>14.65</v>
+      </c>
+      <c r="E50">
+        <v>0.20195983840000001</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -34037,96 +34060,96 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="E59">
-        <v>2030</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="E60">
-        <v>2030</v>
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="E61">
-        <v>2030</v>
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -34140,7 +34163,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -34154,7 +34177,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -34166,9 +34189,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -34180,51 +34203,51 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
       <c r="C66">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E66">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E68">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -34236,9 +34259,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -34250,9 +34273,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -34264,9 +34287,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>69</v>
@@ -34278,55 +34301,51 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
       </c>
       <c r="C73">
-        <v>200</v>
-      </c>
-      <c r="E73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="E73">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
       <c r="C74">
-        <v>200</v>
-      </c>
-      <c r="E74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="E74">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
       </c>
       <c r="C75">
-        <v>200</v>
-      </c>
-      <c r="E75" t="s">
-        <v>70</v>
-      </c>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="E75">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
@@ -34337,12 +34356,10 @@
       <c r="E76" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
@@ -34356,9 +34373,9 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
@@ -34371,12 +34388,10 @@
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-    </row>
-    <row r="79" spans="1:10">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
@@ -34389,38 +34404,35 @@
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-    </row>
-    <row r="80" spans="1:10">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
       </c>
       <c r="C80">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
         <v>70</v>
-      </c>
-      <c r="E80" t="s">
-        <v>71</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="C81">
+        <v>200</v>
+      </c>
+      <c r="E81" t="s">
         <v>70</v>
-      </c>
-      <c r="E81" t="s">
-        <v>71</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -34429,24 +34441,25 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
       <c r="C82">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
         <v>70</v>
-      </c>
-      <c r="E82" t="s">
-        <v>71</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
@@ -34463,7 +34476,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
@@ -34477,10 +34490,11 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
@@ -34497,7 +34511,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
@@ -34511,57 +34525,58 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C87">
-        <v>113000000</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C88">
-        <v>116000000</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C89">
-        <v>109000000</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
@@ -34571,58 +34586,60 @@
         <v>72</v>
       </c>
       <c r="C90">
-        <v>111000000</v>
+        <v>113000000</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
       </c>
       <c r="C91">
-        <v>309000000</v>
+        <v>116000000</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
         <v>72</v>
       </c>
       <c r="C92">
-        <v>299000000</v>
+        <v>109000000</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
         <v>72</v>
       </c>
       <c r="C93">
-        <v>321000000</v>
+        <v>111000000</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -34635,17 +34652,65 @@
         <v>72</v>
       </c>
       <c r="C94">
-        <v>335000000</v>
+        <v>309000000</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="27"/>
+        <v>76</v>
+      </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
     </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>299000000</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>321000000</v>
+      </c>
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>335000000</v>
+      </c>
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C47" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654C775-B455-4775-A12C-7C9BF2B68AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFF36E-D0A7-4119-B0B2-D3104365C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="999" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <sheet name="unit2030-none_traderes" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$C$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">node!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId16"/>
-    <pivotCache cacheId="19" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1083,7 +1083,7 @@
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,19 +1212,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,12 +1283,6 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1336,7 +1324,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1412,15 +1400,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -9365,7 +9352,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9632,7 +9619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -32917,7 +32904,7 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -33045,7 +33032,7 @@
       <c r="B7" s="31">
         <v>2020</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <f>C48+C16*E50</f>
         <v>28.128393536000001</v>
       </c>
@@ -33257,7 +33244,7 @@
       <c r="B16" s="31">
         <v>2020</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -33442,7 +33429,7 @@
       <c r="B22" s="31">
         <v>2030</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <f>C49+C31*E50</f>
         <v>39.311060123200001</v>
       </c>
@@ -33702,7 +33689,7 @@
       <c r="B31" s="31">
         <v>2020</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="59">
         <v>123</v>
       </c>
       <c r="E31" t="s">
@@ -33831,7 +33818,7 @@
       <c r="B38" s="31">
         <v>2050</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="59">
         <f>C50+E50*C46</f>
         <v>48.579252851200003</v>
       </c>
@@ -33947,7 +33934,7 @@
       <c r="B46" s="31">
         <v>2050</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C46" s="59">
         <v>168</v>
       </c>
       <c r="E46" t="s">
@@ -34721,13 +34708,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3074F6C3-2AB7-48D4-9A66-92E2C4E82317}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34766,7 +34753,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="31" t="s">
         <v>142</v>
       </c>
@@ -34780,7 +34767,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="31" t="s">
         <v>145</v>
       </c>
@@ -34794,7 +34781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="31" t="s">
         <v>146</v>
       </c>
@@ -34808,7 +34795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -34825,7 +34812,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="31" t="s">
         <v>149</v>
       </c>
@@ -34839,7 +34826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -34850,7 +34837,7 @@
         <v>2040000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="31" t="s">
         <v>50</v>
       </c>
@@ -34861,7 +34848,7 @@
         <v>2270000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="31" t="s">
         <v>51</v>
       </c>
@@ -34882,49 +34869,50 @@
       <c r="B10" s="50">
         <v>2020</v>
       </c>
-      <c r="C10" s="51">
-        <v>534000</v>
+      <c r="C10" s="47">
+        <f>1042000*4</f>
+        <v>4168000</v>
       </c>
       <c r="F10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="50">
         <v>2030</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="51">
         <v>2040000</v>
       </c>
       <c r="F11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="50">
         <v>2030</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>2900000</v>
       </c>
       <c r="F12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="50">
         <v>2030</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>830000</v>
       </c>
       <c r="D13" s="17"/>
@@ -34933,14 +34921,14 @@
       </c>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="50">
         <v>2030</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>1200000</v>
       </c>
       <c r="D14" s="17"/>
@@ -34949,14 +34937,14 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="50">
         <v>2030</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>1200000</v>
       </c>
       <c r="D15" s="17"/>
@@ -34965,14 +34953,14 @@
       </c>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="50">
         <v>2030</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="51">
         <v>2690000</v>
       </c>
       <c r="D16" s="17"/>
@@ -34981,7 +34969,7 @@
       </c>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
@@ -34997,14 +34985,14 @@
       </c>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="50">
         <v>2030</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>435000</v>
       </c>
       <c r="F18" t="s">
@@ -35012,7 +35000,7 @@
       </c>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="31" t="s">
         <v>50</v>
       </c>
@@ -35028,14 +35016,14 @@
       </c>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="50">
         <v>2030</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="52">
         <v>1220000</v>
       </c>
       <c r="F20" t="s">
@@ -35051,14 +35039,15 @@
         <v>2030</v>
       </c>
       <c r="C21" s="47">
-        <v>284000</v>
+        <f>622000*4</f>
+        <v>2488000</v>
       </c>
       <c r="F21" t="s">
         <v>254</v>
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="31" t="s">
         <v>21</v>
       </c>
@@ -35073,7 +35062,7 @@
       </c>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="31" t="s">
         <v>183</v>
       </c>
@@ -35088,7 +35077,7 @@
       </c>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="31" t="s">
         <v>180</v>
       </c>
@@ -35110,7 +35099,7 @@
       <c r="I24" s="44"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="31" t="s">
         <v>181</v>
       </c>
@@ -35125,7 +35114,7 @@
       </c>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="31" t="s">
         <v>179</v>
       </c>
@@ -35140,7 +35129,7 @@
       </c>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="31" t="s">
         <v>50</v>
       </c>
@@ -35155,14 +35144,14 @@
       </c>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="50">
         <v>2050</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="52">
         <v>1127000</v>
       </c>
       <c r="F28" t="s">
@@ -35170,7 +35159,7 @@
       </c>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="31" t="s">
         <v>182</v>
       </c>
@@ -35193,14 +35182,15 @@
         <v>2050</v>
       </c>
       <c r="C30" s="47">
-        <v>270000</v>
+        <f>255000*4</f>
+        <v>1020000</v>
       </c>
       <c r="F30" t="s">
         <v>254</v>
       </c>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
@@ -35214,7 +35204,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="31" t="s">
         <v>41</v>
       </c>
@@ -35228,7 +35218,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="31" t="s">
         <v>4</v>
       </c>
@@ -35242,7 +35232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="31" t="s">
         <v>9</v>
       </c>
@@ -35256,7 +35246,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="31" t="s">
         <v>10</v>
       </c>
@@ -35270,7 +35260,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
@@ -35284,7 +35274,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="31" t="s">
         <v>265</v>
       </c>
@@ -35298,7 +35288,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="31" t="s">
         <v>265</v>
       </c>
@@ -35312,7 +35302,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="31" t="s">
         <v>268</v>
       </c>
@@ -35327,7 +35317,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="31" t="s">
         <v>268</v>
       </c>
@@ -35342,7 +35332,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="31" t="s">
         <v>268</v>
       </c>
@@ -35357,7 +35347,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="31" t="s">
         <v>46</v>
       </c>
@@ -35371,7 +35361,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="31" t="s">
         <v>46</v>
       </c>
@@ -35386,7 +35376,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="31" t="s">
         <v>46</v>
       </c>
@@ -35400,21 +35390,21 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="50">
         <v>2020</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="53">
         <v>1169000</v>
       </c>
       <c r="F45" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
@@ -35428,7 +35418,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="31" t="s">
         <v>45</v>
       </c>
@@ -35491,6 +35481,13 @@
       <c r="B65"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C47" xr:uid="{3074F6C3-2AB7-48D4-9A66-92E2C4E82317}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Lithium_ion_battery"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{9593A938-07C8-4BDD-975D-BA66AC261B9E}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{A94A8D05-CAFB-4BFD-BDC5-C941F91D270B}"/>
@@ -35839,8 +35836,8 @@
     <col min="5" max="5" width="8.36328125" customWidth="1"/>
     <col min="6" max="7" width="13.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="10" width="11.36328125" style="56" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="56" customWidth="1"/>
+    <col min="9" max="10" width="11.36328125" style="55" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="43.5">
@@ -35865,13 +35862,13 @@
       <c r="G1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="59"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5" t="s">
         <v>141</v>
       </c>
@@ -35890,14 +35887,14 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="I2" s="56">
+      <c r="I2" s="55">
         <f>J2*0.016</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="55">
         <v>3845510</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>143</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -35918,14 +35915,14 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
-      <c r="I3" s="56">
+      <c r="I3" s="55">
         <f>J3*0.016</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="55">
         <v>3845510</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="55" t="s">
         <v>65</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -35946,14 +35943,14 @@
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
-      <c r="I4" s="56">
+      <c r="I4" s="55">
         <f>J4*0.025</f>
         <v>8575</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="55">
         <v>343000</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="55" t="s">
         <v>147</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -35974,14 +35971,14 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="I5" s="56">
+      <c r="I5" s="55">
         <f>J5*0.014</f>
         <v>111166.3</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="55">
         <v>7940450</v>
       </c>
-      <c r="K5" s="56" t="str">
+      <c r="K5" s="55" t="str">
         <f>A5</f>
         <v>Nuclear</v>
       </c>
@@ -36011,14 +36008,14 @@
       <c r="G6" s="31">
         <v>0</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>16000</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="55">
         <f xml:space="preserve"> 2000*1000</f>
         <v>2000000</v>
       </c>
-      <c r="K6" s="56" t="str">
+      <c r="K6" s="55" t="str">
         <f>A6</f>
         <v>Pumped_hydro</v>
       </c>
@@ -36138,7 +36135,7 @@
   </sheetPr>
   <dimension ref="A1:DG56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -36149,7 +36146,7 @@
     <col min="3" max="3" width="23.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" style="24" customWidth="1"/>
     <col min="5" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="55" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="23.1796875" customWidth="1"/>
   </cols>
@@ -36176,7 +36173,7 @@
       <c r="G1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>97</v>
       </c>
       <c r="J1" s="32"/>
@@ -36202,7 +36199,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2"/>
-      <c r="I2" s="55">
+      <c r="I2" s="54">
         <v>50000</v>
       </c>
       <c r="J2"/>
@@ -36323,7 +36320,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3"/>
-      <c r="I3" s="55">
+      <c r="I3" s="54">
         <v>27800</v>
       </c>
       <c r="J3"/>
@@ -36400,7 +36397,7 @@
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
-      <c r="I4" s="55">
+      <c r="I4" s="54">
         <v>27800</v>
       </c>
       <c r="K4" s="44"/>
@@ -36419,7 +36416,7 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="I5" s="55">
+      <c r="I5" s="54">
         <v>27800</v>
       </c>
       <c r="K5" s="44"/>
@@ -36438,7 +36435,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="I6" s="55">
+      <c r="I6" s="54">
         <v>32000</v>
       </c>
       <c r="J6" t="s">
@@ -36468,7 +36465,7 @@
       <c r="G7" s="31">
         <v>0</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="54">
         <v>1000</v>
       </c>
       <c r="J7" t="s">
@@ -36491,7 +36488,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8"/>
-      <c r="I8" s="55">
+      <c r="I8" s="54">
         <v>13450</v>
       </c>
       <c r="J8"/>
@@ -36612,7 +36609,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9"/>
-      <c r="I9" s="55">
+      <c r="I9" s="54">
         <v>14950</v>
       </c>
       <c r="J9"/>
@@ -36732,7 +36729,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="I10" s="55">
+      <c r="I10" s="54">
         <v>100000</v>
       </c>
       <c r="K10" s="44"/>
@@ -36751,7 +36748,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="I11" s="55">
+      <c r="I11" s="54">
         <v>7745</v>
       </c>
       <c r="K11" s="44"/>
@@ -36770,7 +36767,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="I12" s="55">
+      <c r="I12" s="54">
         <v>30500</v>
       </c>
       <c r="J12" t="s">
@@ -36792,7 +36789,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="I13" s="55">
+      <c r="I13" s="54">
         <v>14700</v>
       </c>
       <c r="J13" t="s">
@@ -36831,7 +36828,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="58">
+      <c r="I15" s="57">
         <f>12300</f>
         <v>12300</v>
       </c>
@@ -36855,7 +36852,7 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="58">
+      <c r="I16" s="57">
         <v>8300</v>
       </c>
       <c r="J16" t="s">
@@ -36936,7 +36933,7 @@
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>68680</v>
       </c>
       <c r="J18" s="44"/>
@@ -37054,7 +37051,7 @@
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="58">
+      <c r="I19" s="57">
         <v>60520.000000000007</v>
       </c>
       <c r="J19" s="44"/>
@@ -37073,7 +37070,7 @@
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="58">
+      <c r="I20" s="57">
         <v>104000</v>
       </c>
       <c r="J20" s="44"/>
@@ -37116,7 +37113,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
@@ -37131,7 +37128,7 @@
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="58">
+      <c r="I22" s="57">
         <v>11450</v>
       </c>
       <c r="J22" s="44"/>
@@ -37246,7 +37243,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
-      <c r="I23" s="58">
+      <c r="I23" s="57">
         <v>33550</v>
       </c>
     </row>
@@ -37259,7 +37256,7 @@
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="57"/>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
     </row>
@@ -37277,7 +37274,7 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="58">
+      <c r="I25" s="57">
         <v>126700</v>
       </c>
       <c r="K25" s="45"/>
@@ -37298,7 +37295,7 @@
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <v>126700</v>
       </c>
       <c r="J26"/>
@@ -37419,7 +37416,7 @@
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
-      <c r="I27" s="58">
+      <c r="I27" s="57">
         <v>31000</v>
       </c>
       <c r="J27"/>
@@ -37540,7 +37537,7 @@
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="58">
+      <c r="I28" s="57">
         <v>31000</v>
       </c>
       <c r="J28"/>
@@ -37660,7 +37657,7 @@
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
-      <c r="I29" s="58">
+      <c r="I29" s="57">
         <v>1020</v>
       </c>
     </row>
@@ -37678,7 +37675,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <v>1020</v>
       </c>
     </row>
@@ -37696,7 +37693,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
-      <c r="I31" s="58">
+      <c r="I31" s="57">
         <v>1900</v>
       </c>
     </row>
@@ -37714,7 +37711,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="I32" s="58">
+      <c r="I32" s="57">
         <v>1900</v>
       </c>
     </row>
@@ -37732,7 +37729,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="58">
+      <c r="I33" s="57">
         <v>2000</v>
       </c>
     </row>
@@ -37750,7 +37747,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="I34" s="58">
+      <c r="I34" s="57">
         <v>2000</v>
       </c>
     </row>
@@ -37768,7 +37765,7 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="I35" s="58">
+      <c r="I35" s="57">
         <v>22500</v>
       </c>
     </row>
@@ -37786,7 +37783,7 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="I36" s="58">
+      <c r="I36" s="57">
         <v>22500</v>
       </c>
     </row>
@@ -37804,7 +37801,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="I37" s="58">
+      <c r="I37" s="57">
         <v>16300</v>
       </c>
     </row>
@@ -37822,7 +37819,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="58">
+      <c r="I38" s="57">
         <v>16300</v>
       </c>
     </row>
@@ -37840,7 +37837,7 @@
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
-      <c r="I39" s="58">
+      <c r="I39" s="57">
         <v>4000</v>
       </c>
     </row>
@@ -37858,7 +37855,7 @@
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
-      <c r="I40" s="58">
+      <c r="I40" s="57">
         <v>4000</v>
       </c>
     </row>
@@ -37876,7 +37873,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="58">
+      <c r="I41" s="57">
         <v>870</v>
       </c>
     </row>
@@ -37894,7 +37891,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
-      <c r="I42" s="58">
+      <c r="I42" s="57">
         <v>28000</v>
       </c>
     </row>
@@ -37912,7 +37909,7 @@
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
-      <c r="I43" s="58">
+      <c r="I43" s="57">
         <v>28000</v>
       </c>
     </row>
@@ -37930,7 +37927,7 @@
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
-      <c r="I44" s="58">
+      <c r="I44" s="57">
         <v>0.04</v>
       </c>
     </row>
@@ -37948,7 +37945,7 @@
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
-      <c r="I45" s="58">
+      <c r="I45" s="57">
         <v>0.04</v>
       </c>
     </row>
@@ -37964,7 +37961,7 @@
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
-      <c r="I46" s="58">
+      <c r="I46" s="57">
         <v>0</v>
       </c>
     </row>
@@ -37980,7 +37977,7 @@
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
-      <c r="I47" s="58">
+      <c r="I47" s="57">
         <v>30000</v>
       </c>
     </row>
@@ -37996,7 +37993,7 @@
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="57"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="44" t="s">
@@ -38009,7 +38006,7 @@
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
-      <c r="I49" s="58">
+      <c r="I49" s="57">
         <v>9240</v>
       </c>
     </row>
@@ -38027,7 +38024,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
-      <c r="I50" s="58">
+      <c r="I50" s="57">
         <v>117000</v>
       </c>
     </row>
@@ -38042,7 +38039,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="57"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="44" t="s">
@@ -38055,7 +38052,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
-      <c r="I52" s="58"/>
+      <c r="I52" s="57"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="44" t="s">
@@ -38068,7 +38065,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
-      <c r="I53" s="58"/>
+      <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="44" t="s">
@@ -38081,7 +38078,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
-      <c r="I54" s="58"/>
+      <c r="I54" s="57"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="44"/>
@@ -38089,7 +38086,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
-      <c r="I55" s="58"/>
+      <c r="I55" s="57"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="44"/>
@@ -38097,7 +38094,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
-      <c r="I56" s="58"/>
+      <c r="I56" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38121,7 +38118,7 @@
   <cols>
     <col min="1" max="1" width="29.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="56"/>
+    <col min="5" max="6" width="8.7265625" style="55"/>
     <col min="8" max="8" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38135,10 +38132,10 @@
       <c r="C1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="32" t="s">
@@ -38153,11 +38150,11 @@
       <c r="C2" s="31">
         <v>0.5</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="55">
         <f>F2*0.05</f>
         <v>40000</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="55">
         <v>800000</v>
       </c>
       <c r="H2" t="s">
@@ -38174,10 +38171,10 @@
       <c r="C3" s="31">
         <v>0.85</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="55">
         <v>30000</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>730000</v>
       </c>
       <c r="H3" t="s">
@@ -38195,10 +38192,10 @@
       <c r="C4" s="31">
         <v>0.61</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>11250</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>750000</v>
       </c>
       <c r="H4" t="s">
@@ -38215,10 +38212,10 @@
       <c r="C5" s="31">
         <v>0.4</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>8700</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="55">
         <v>435000</v>
       </c>
       <c r="H5" t="s">
@@ -38235,10 +38232,10 @@
       <c r="C6" s="31">
         <v>0.74</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <v>7000</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>350000</v>
       </c>
       <c r="H6" t="s">
@@ -38252,7 +38249,7 @@
       <c r="B9">
         <v>1.9</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="55">
         <v>108000</v>
       </c>
     </row>
@@ -38263,7 +38260,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>26000</v>
       </c>
     </row>
@@ -38274,7 +38271,7 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>26000</v>
       </c>
     </row>
@@ -38285,7 +38282,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>13425</v>
       </c>
     </row>
@@ -38296,7 +38293,7 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>14850</v>
       </c>
     </row>
@@ -38307,7 +38304,7 @@
       <c r="B14">
         <v>1.6</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="55">
         <v>800</v>
       </c>
       <c r="H14" t="s">
@@ -38321,7 +38318,7 @@
       <c r="B15">
         <v>4.5</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <v>7423</v>
       </c>
       <c r="H15" t="s">
@@ -38335,7 +38332,7 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>11000</v>
       </c>
       <c r="H16" t="s">
@@ -38349,7 +38346,7 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="55">
         <v>7600</v>
       </c>
       <c r="H17" t="s">
@@ -38363,7 +38360,7 @@
       <c r="B18">
         <v>2.4</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="55">
         <v>24700</v>
       </c>
     </row>
@@ -38374,7 +38371,7 @@
       <c r="B19">
         <v>1.22</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <v>12900</v>
       </c>
     </row>
@@ -38385,7 +38382,7 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="55">
         <v>0</v>
       </c>
     </row>
@@ -38396,7 +38393,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="55">
         <v>20000</v>
       </c>
     </row>
@@ -38407,7 +38404,7 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="55">
         <v>0</v>
       </c>
     </row>
@@ -38418,7 +38415,7 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="55">
         <v>7810</v>
       </c>
     </row>
@@ -38429,7 +38426,7 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="55">
         <v>58140.000000000007</v>
       </c>
     </row>
@@ -38440,7 +38437,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="55">
         <v>51170.000000000007</v>
       </c>
     </row>
@@ -38451,7 +38448,7 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="55">
         <v>0</v>
       </c>
     </row>
@@ -38462,7 +38459,7 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <v>11375</v>
       </c>
     </row>
@@ -38473,7 +38470,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="55">
         <v>33450</v>
       </c>
     </row>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFF36E-D0A7-4119-B0B2-D3104365C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B718552-2C05-4221-A457-13DDB7B730A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="999" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="278">
   <si>
     <t>CO2</t>
   </si>
@@ -1043,9 +1043,6 @@
     <t>entsoe</t>
   </si>
   <si>
-    <t>entsoe decarbonized</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
@@ -1071,6 +1068,12 @@
   </si>
   <si>
     <t>change back to natural gas</t>
+  </si>
+  <si>
+    <t>E/GJ</t>
+  </si>
+  <si>
+    <t>entsoe H2 imports</t>
   </si>
 </sst>
 </file>
@@ -8208,16 +8211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>185854</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>473076</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>89752</xdr:rowOff>
+      <xdr:rowOff>167888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1126739</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>116160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>36037</xdr:rowOff>
+      <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8240,6 +8243,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522714</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>343696</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7879152-51CE-4708-B253-536736C518F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13427927" y="232317"/>
+          <a:ext cx="4780952" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -32904,8 +32951,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32915,6 +32962,7 @@
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
     <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -32958,19 +33006,19 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="31">
         <v>2020</v>
       </c>
       <c r="C3" s="31">
-        <v>68.58</v>
+        <v>74.3</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
@@ -33040,7 +33088,7 @@
         <v>266</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L7" s="27"/>
       <c r="Q7" s="27"/>
@@ -33133,7 +33181,7 @@
       </c>
       <c r="F12" s="27"/>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="27">
         <v>2020</v>
@@ -33293,19 +33341,19 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" s="31">
         <v>2030</v>
       </c>
       <c r="C18" s="31">
-        <v>61.6</v>
+        <v>57.9</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -33452,16 +33500,20 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="P22" s="27">
+        <v>17.91</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>276</v>
+      </c>
       <c r="U22" t="s">
+        <v>269</v>
+      </c>
+      <c r="V22" t="s">
         <v>270</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>271</v>
-      </c>
-      <c r="W22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -33659,7 +33711,6 @@
       <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
@@ -33677,7 +33728,6 @@
       <c r="E30" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
@@ -33695,7 +33745,6 @@
       <c r="E31" t="s">
         <v>266</v>
       </c>
-      <c r="N31" s="27"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -33738,16 +33787,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" s="31">
         <v>2050</v>
       </c>
       <c r="C34" s="31">
-        <v>64.48</v>
+        <v>45.1</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
         <v>260</v>
@@ -33977,7 +34026,7 @@
         <v>14.47</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -34714,7 +34763,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35304,7 +35353,7 @@
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="50">
         <v>2020</v>
@@ -35319,7 +35368,7 @@
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="50">
         <v>2030</v>
@@ -35334,7 +35383,7 @@
     </row>
     <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="50">
         <v>2050</v>
@@ -35753,7 +35802,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31">
@@ -36135,8 +36184,8 @@
   </sheetPr>
   <dimension ref="A1:DG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36799,7 +36848,7 @@
     </row>
     <row r="14" spans="1:111">
       <c r="A14" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="50">
         <v>0</v>
@@ -36814,19 +36863,19 @@
       <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:111">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="50">
         <v>0</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="50">
         <v>1</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="44"/>
       <c r="I15" s="57">
         <f>12300</f>
@@ -36838,19 +36887,19 @@
       <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:111" s="30" customFormat="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="50">
         <v>0</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="50">
         <v>1</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="44"/>
       <c r="I16" s="57">
         <v>8300</v>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B718552-2C05-4221-A457-13DDB7B730A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA94541-05C1-49FC-B5B3-5AA67443AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -32951,7 +32951,7 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
@@ -34757,13 +34757,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3074F6C3-2AB7-48D4-9A66-92E2C4E82317}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34802,7 +34802,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="31" t="s">
         <v>142</v>
       </c>
@@ -34816,7 +34816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12">
       <c r="A3" s="31" t="s">
         <v>145</v>
       </c>
@@ -34830,7 +34830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4" s="31" t="s">
         <v>146</v>
       </c>
@@ -34844,7 +34844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" s="31" t="s">
         <v>149</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -34886,7 +34886,7 @@
         <v>2040000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" s="31" t="s">
         <v>50</v>
       </c>
@@ -34897,7 +34897,7 @@
         <v>2270000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" s="31" t="s">
         <v>51</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -34940,7 +34940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" s="31" t="s">
         <v>4</v>
       </c>
@@ -34954,7 +34954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
@@ -34970,7 +34970,7 @@
       </c>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
@@ -34986,7 +34986,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -35002,7 +35002,7 @@
       </c>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
@@ -35018,7 +35018,7 @@
       </c>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="31" t="s">
         <v>41</v>
       </c>
@@ -35049,7 +35049,7 @@
       </c>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="31" t="s">
         <v>50</v>
       </c>
@@ -35065,7 +35065,7 @@
       </c>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="31" t="s">
         <v>51</v>
       </c>
@@ -35096,7 +35096,7 @@
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="31" t="s">
         <v>21</v>
       </c>
@@ -35111,7 +35111,7 @@
       </c>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" s="31" t="s">
         <v>183</v>
       </c>
@@ -35126,7 +35126,7 @@
       </c>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" s="31" t="s">
         <v>180</v>
       </c>
@@ -35148,7 +35148,7 @@
       <c r="I24" s="44"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="31" t="s">
         <v>181</v>
       </c>
@@ -35163,7 +35163,7 @@
       </c>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="31" t="s">
         <v>179</v>
       </c>
@@ -35178,7 +35178,7 @@
       </c>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" s="31" t="s">
         <v>50</v>
       </c>
@@ -35193,7 +35193,7 @@
       </c>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" s="31" t="s">
         <v>51</v>
       </c>
@@ -35208,7 +35208,7 @@
       </c>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="31" t="s">
         <v>182</v>
       </c>
@@ -35239,7 +35239,7 @@
       </c>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="31" t="s">
         <v>41</v>
       </c>
@@ -35267,7 +35267,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="31" t="s">
         <v>4</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="31" t="s">
         <v>9</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="31" t="s">
         <v>10</v>
       </c>
@@ -35309,7 +35309,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
@@ -35323,7 +35323,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" s="31" t="s">
         <v>265</v>
       </c>
@@ -35337,7 +35337,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="31" t="s">
         <v>265</v>
       </c>
@@ -35351,7 +35351,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" s="31" t="s">
         <v>267</v>
       </c>
@@ -35366,7 +35366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" s="31" t="s">
         <v>267</v>
       </c>
@@ -35381,7 +35381,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" s="31" t="s">
         <v>267</v>
       </c>
@@ -35396,7 +35396,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="31" t="s">
         <v>46</v>
       </c>
@@ -35410,7 +35410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" s="31" t="s">
         <v>46</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="31" t="s">
         <v>46</v>
       </c>
@@ -35439,7 +35439,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" s="31" t="s">
         <v>45</v>
       </c>
@@ -35453,7 +35453,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
@@ -35467,7 +35467,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="31" t="s">
         <v>45</v>
       </c>
@@ -35530,13 +35530,7 @@
       <c r="B65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C47" xr:uid="{3074F6C3-2AB7-48D4-9A66-92E2C4E82317}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Lithium_ion_battery"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C47" xr:uid="{3074F6C3-2AB7-48D4-9A66-92E2C4E82317}"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{9593A938-07C8-4BDD-975D-BA66AC261B9E}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{A94A8D05-CAFB-4BFD-BDC5-C941F91D270B}"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA94541-05C1-49FC-B5B3-5AA67443AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA005F-F7C8-4E74-8E7F-A54095FE82C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="12" r:id="rId16"/>
+    <pivotCache cacheId="13" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="280">
   <si>
     <t>CO2</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>tyndp GA</t>
   </si>
   <si>
-    <t>&lt; from Silke 65 , but benjamin lux study said 81 eur/mwh from outside europe. COMPETES 84 eur/mwh</t>
-  </si>
-  <si>
     <t>MIT storage</t>
   </si>
   <si>
@@ -1067,13 +1064,22 @@
     <t>natural gas emissions</t>
   </si>
   <si>
-    <t>change back to natural gas</t>
-  </si>
-  <si>
     <t>E/GJ</t>
   </si>
   <si>
     <t>entsoe H2 imports</t>
+  </si>
+  <si>
+    <t>&lt; Benjamin lux study said 81 eur/mwh from outside europe. COMPETES 84 eur/mwh</t>
+  </si>
+  <si>
+    <t>1 MWh = 3.6 GJ</t>
+  </si>
+  <si>
+    <t>RE H2 imports eur/mwh</t>
+  </si>
+  <si>
+    <t>change back to natural gas; used to resemble natural gas minus efficiency</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,6 +1226,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1327,7 +1339,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1414,6 +1426,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8247,16 +8260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>522714</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>46463</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537307</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>343696</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>5858</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>262286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8279,8 +8292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13427927" y="232317"/>
-          <a:ext cx="4780952" cy="3314286"/>
+          <a:off x="12895384" y="0"/>
+          <a:ext cx="3860620" cy="2677711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9399,7 +9412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9666,7 +9679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -32951,8 +32964,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32963,13 +32976,14 @@
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" customWidth="1"/>
     <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.26953125" customWidth="1"/>
+    <col min="20" max="20" width="7.26953125" customWidth="1"/>
     <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" s="31" t="s">
         <v>77</v>
       </c>
@@ -32988,7 +33002,7 @@
       <c r="Q1" s="27"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="31" t="s">
         <v>62</v>
       </c>
@@ -33004,9 +33018,9 @@
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="31">
         <v>2020</v>
@@ -33015,15 +33029,15 @@
         <v>74.3</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="31" t="s">
         <v>64</v>
       </c>
@@ -33034,12 +33048,12 @@
         <v>46.33</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="31" t="s">
         <v>65</v>
       </c>
@@ -33056,7 +33070,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
@@ -33073,7 +33087,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" s="30" t="s">
         <v>63</v>
       </c>
@@ -33085,16 +33099,16 @@
         <v>28.128393536000001</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" s="31" t="s">
         <v>67</v>
       </c>
@@ -33111,7 +33125,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" s="31" t="s">
         <v>68</v>
       </c>
@@ -33128,7 +33142,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10" s="31" t="s">
         <v>61</v>
       </c>
@@ -33139,13 +33153,13 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" s="31" t="s">
         <v>58</v>
       </c>
@@ -33166,7 +33180,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" s="31" t="s">
         <v>59</v>
       </c>
@@ -33181,7 +33195,7 @@
       </c>
       <c r="F12" s="27"/>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I12" s="27">
         <v>2020</v>
@@ -33196,7 +33210,7 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:20">
       <c r="A13" s="31" t="s">
         <v>57</v>
       </c>
@@ -33226,7 +33240,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:20">
       <c r="A14" s="31" t="s">
         <v>52</v>
       </c>
@@ -33256,7 +33270,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="31" t="s">
         <v>56</v>
       </c>
@@ -33285,7 +33299,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" s="31" t="s">
         <v>0</v>
       </c>
@@ -33296,7 +33310,7 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
         <v>65</v>
@@ -33311,6 +33325,15 @@
         <v>6.48</v>
       </c>
       <c r="L16" s="27"/>
+      <c r="R16">
+        <v>2030</v>
+      </c>
+      <c r="S16">
+        <v>2040</v>
+      </c>
+      <c r="T16">
+        <v>2050</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="31" t="s">
@@ -33338,10 +33361,22 @@
         <v>46.996000000000002</v>
       </c>
       <c r="L17" s="27"/>
+      <c r="Q17" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R17" s="36">
+        <v>20.63</v>
+      </c>
+      <c r="S17" s="36">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="T17" s="36">
+        <v>12.52</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="31">
         <v>2030</v>
@@ -33350,10 +33385,10 @@
         <v>57.9</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -33372,7 +33407,21 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R18" s="36">
+        <f>R17*3.6</f>
+        <v>74.268000000000001</v>
+      </c>
+      <c r="S18" s="36">
+        <f t="shared" ref="S18:T18" si="0">S17*3.6</f>
+        <v>57.887999999999998</v>
+      </c>
+      <c r="T18" s="36">
+        <f t="shared" si="0"/>
+        <v>45.072000000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="31" t="s">
@@ -33385,7 +33434,7 @@
         <v>36.32</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" t="s">
         <v>67</v>
@@ -33482,7 +33531,7 @@
         <v>39.311060123200001</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -33504,19 +33553,19 @@
         <v>17.91</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U22" t="s">
+        <v>268</v>
+      </c>
+      <c r="V22" t="s">
         <v>269</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>270</v>
       </c>
-      <c r="W22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="31" t="s">
         <v>67</v>
       </c>
@@ -33543,7 +33592,9 @@
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="N23" s="60" t="s">
+        <v>277</v>
+      </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -33602,7 +33653,7 @@
         <v>7.09</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>52</v>
@@ -33743,7 +33794,7 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
@@ -33787,7 +33838,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="31">
         <v>2050</v>
@@ -33796,10 +33847,10 @@
         <v>45.1</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -33817,7 +33868,7 @@
         <v>32.83</v>
       </c>
       <c r="E35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
@@ -33872,7 +33923,7 @@
         <v>48.579252851200003</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -33914,7 +33965,7 @@
         <v>6.73</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -33987,7 +34038,7 @@
         <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -34026,7 +34077,7 @@
         <v>14.47</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -34762,8 +34813,8 @@
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35325,7 +35376,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="50">
         <v>2030</v>
@@ -35334,12 +35385,12 @@
         <v>1390000</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="50">
         <v>2030</v>
@@ -35348,12 +35399,12 @@
         <v>1280000</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="50">
         <v>2020</v>
@@ -35368,7 +35419,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="50">
         <v>2030</v>
@@ -35383,7 +35434,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="50">
         <v>2050</v>
@@ -35628,7 +35679,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31">
@@ -35796,7 +35847,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31">
@@ -36221,10 +36272,10 @@
       </c>
       <c r="J1" s="32"/>
       <c r="K1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>263</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:111" s="6" customFormat="1">
@@ -36466,7 +36517,7 @@
     </row>
     <row r="6" spans="1:111">
       <c r="A6" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="50">
         <v>6.11</v>
@@ -36482,7 +36533,7 @@
         <v>32000</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K6" s="44"/>
     </row>
@@ -36512,7 +36563,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K7" s="44"/>
     </row>
@@ -36842,7 +36893,7 @@
     </row>
     <row r="14" spans="1:111">
       <c r="A14" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="50">
         <v>0</v>
@@ -38154,7 +38205,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA005F-F7C8-4E74-8E7F-A54095FE82C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D9171-3CA7-41E5-81D2-63F0C48840A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId16"/>
-    <pivotCache cacheId="13" r:id="rId17"/>
+    <pivotCache cacheId="4" r:id="rId16"/>
+    <pivotCache cacheId="5" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="285">
   <si>
     <t>CO2</t>
   </si>
@@ -1081,6 +1081,21 @@
   <si>
     <t>change back to natural gas; used to resemble natural gas minus efficiency</t>
   </si>
+  <si>
+    <t>eur/ton</t>
+  </si>
+  <si>
+    <t>eur/kg</t>
+  </si>
+  <si>
+    <t>carbon price</t>
+  </si>
+  <si>
+    <t>&lt; now it is natural gas</t>
+  </si>
+  <si>
+    <t>eur/ton*ton/kwh</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1107,7 @@
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1247,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1339,7 +1360,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1427,6 +1448,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8225,15 +8247,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>473076</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167888</xdr:rowOff>
+      <xdr:colOff>507924</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>116160</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>117348</xdr:rowOff>
+      <xdr:colOff>151008</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8266,8 +8288,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>262286</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>866310</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>56301</xdr:rowOff>
     </xdr:to>
@@ -9412,7 +9434,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9679,7 +9701,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -10157,14 +10179,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="81.5">
+    <row r="1" spans="1:26" ht="84.75">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -10217,7 +10239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="39">
+    <row r="2" spans="1:26" ht="39.75">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -10419,12 +10441,12 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11227,13 +11249,13 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="14" max="17" width="8.1796875" customWidth="1"/>
-    <col min="18" max="18" width="33.26953125" customWidth="1"/>
-    <col min="19" max="23" width="8.1796875" customWidth="1"/>
-    <col min="24" max="24" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="33.28515625" customWidth="1"/>
+    <col min="19" max="23" width="8.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -16372,10 +16394,10 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16588,12 +16610,12 @@
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" style="17" customWidth="1"/>
-    <col min="4" max="13" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="17" customWidth="1"/>
+    <col min="4" max="13" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:113">
@@ -19236,13 +19258,13 @@
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24278,11 +24300,11 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="4" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="1" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28148,274 +28170,242 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.26953125" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="48" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="180" max="182" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="213" max="216" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="304" max="305" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="48" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="180" max="182" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="186" max="187" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="190" max="191" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="213" max="216" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="251" max="253" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="304" max="305" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -32964,23 +32954,25 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="17" max="17" width="24.26953125" customWidth="1"/>
-    <col min="20" max="20" width="7.26953125" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -33641,6 +33633,9 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
+      <c r="U24" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="31" t="s">
@@ -33705,6 +33700,15 @@
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
+      <c r="S26" t="s">
+        <v>282</v>
+      </c>
+      <c r="T26">
+        <v>168</v>
+      </c>
+      <c r="U26" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="31" t="s">
@@ -33725,6 +33729,13 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
+      <c r="T27">
+        <f>T26/1000</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="U27" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="31" t="s">
@@ -33749,7 +33760,7 @@
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" ht="17.25">
       <c r="A29" s="31" t="s">
         <v>52</v>
       </c>
@@ -33765,6 +33776,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
+      <c r="U29" s="61"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="31" t="s">
@@ -33924,6 +33936,9 @@
       </c>
       <c r="E38" t="s">
         <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -34817,23 +34832,23 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -35604,9 +35619,9 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -35923,18 +35938,18 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" customWidth="1"/>
-    <col min="6" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="10" width="11.36328125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="55" customWidth="1"/>
+    <col min="1" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="55" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="43.5">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="45">
       <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
@@ -36233,19 +36248,19 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="24" customWidth="1"/>
-    <col min="5" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="24" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="55" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="15">
+    <row r="1" spans="1:111">
       <c r="A1" s="31" t="s">
         <v>155</v>
       </c>
@@ -38208,12 +38223,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="55"/>
-    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="55"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -38581,9 +38596,9 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D9171-3CA7-41E5-81D2-63F0C48840A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70E10E-B2AC-45B6-8C32-F80A4B703022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16365" windowWidth="29040" windowHeight="15840" tabRatio="999" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="9" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId16"/>
-    <pivotCache cacheId="5" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="286">
   <si>
     <t>CO2</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>eur/ton*ton/kwh</t>
+  </si>
+  <si>
+    <t>&lt; check this</t>
   </si>
 </sst>
 </file>
@@ -9434,7 +9437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2EA239-FC07-4532-8A2E-64494D026626}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A115:C136" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -9701,7 +9704,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEEDE09F-0F71-4226-9264-A9D9946D7FE5}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -28166,8 +28169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7556175-81BF-4B93-AAE5-F64CA930A51E}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28183,7 +28186,10 @@
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="48" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -32954,7 +32960,7 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -35613,10 +35619,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" activeCellId="1" sqref="I3 Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35624,7 +35630,7 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
         <v>155</v>
       </c>
@@ -35638,17 +35644,19 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="C2" s="31">
+        <v>117000</v>
+      </c>
       <c r="D2" s="31">
         <v>108000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
@@ -35657,8 +35665,11 @@
         <v>50000</v>
       </c>
       <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
@@ -35670,7 +35681,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
@@ -35682,7 +35693,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
@@ -35692,7 +35703,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
         <v>264</v>
       </c>
@@ -35702,7 +35713,7 @@
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
         <v>148</v>
       </c>
@@ -35714,7 +35725,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
@@ -35726,7 +35737,7 @@
         <v>13425</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
         <v>21</v>
       </c>
@@ -35738,7 +35749,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="31" t="s">
         <v>2</v>
       </c>
@@ -35748,7 +35759,7 @@
       </c>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
@@ -35760,7 +35771,7 @@
         <v>7423</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="31" t="s">
         <v>183</v>
       </c>
@@ -35770,7 +35781,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="31" t="s">
         <v>180</v>
       </c>
@@ -35780,7 +35791,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="31" t="s">
         <v>181</v>
       </c>
@@ -35790,7 +35801,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="31" t="s">
         <v>179</v>
       </c>
@@ -38220,7 +38231,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC17AB-098C-4E70-A462-78988E7C2426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BA6DC-D9A1-4D07-AD8A-D31BF2737443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="763" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId16"/>
-    <pivotCache cacheId="8" r:id="rId17"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="293">
   <si>
     <t>node</t>
   </si>
@@ -1210,18 +1210,31 @@
   <si>
     <t>used to resemble natural gas minus efficiency</t>
   </si>
+  <si>
+    <t>and same as Fattahi</t>
+  </si>
+  <si>
+    <t>Fattahi 160,000 in 2020 to 130,000 in 2050</t>
+  </si>
+  <si>
+    <t>nuclear fattahi = 4.43million/PJ</t>
+  </si>
+  <si>
+    <t>already includes waste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ &quot;€ &quot;* #,##0_ ;_ &quot;€ &quot;* \-#,##0_ ;_ &quot;€ &quot;* \-??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="&quot;€ &quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;€ &quot;#,##0.00;[Red]&quot;€ -&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1387,6 +1400,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1841,7 +1867,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -1986,6 +2012,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Bad" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -2145,7 +2176,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2257,7 +2288,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2369,7 +2400,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2481,7 +2512,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2593,7 +2624,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2705,7 +2736,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2817,7 +2848,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2929,7 +2960,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3041,7 +3072,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3153,7 +3184,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3265,7 +3296,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3377,7 +3408,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3489,7 +3520,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3601,7 +3632,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3714,7 +3745,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94844733"/>
@@ -3762,7 +3793,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="85445997"/>
@@ -3797,7 +3828,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3922,7 +3953,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4031,7 +4062,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4137,7 +4168,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4243,7 +4274,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4352,7 +4383,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4461,7 +4492,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4567,7 +4598,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4674,7 +4705,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="23556980"/>
@@ -4722,7 +4753,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="73150929"/>
@@ -4757,7 +4788,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4882,7 +4913,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -5156,7 +5187,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -5430,7 +5461,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -5704,7 +5735,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -5975,7 +6006,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -6160,7 +6191,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17633062"/>
@@ -6208,7 +6239,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61480769"/>
@@ -6243,7 +6274,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6378,7 +6409,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -6652,7 +6683,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -6923,7 +6954,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -7045,7 +7076,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="56834694"/>
@@ -7093,7 +7124,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41594450"/>
@@ -7128,7 +7159,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7250,7 +7281,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>570270</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
@@ -8383,7 +8414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8453,7 +8484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8808,14 +8839,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="84.6">
+    <row r="1" spans="1:26" ht="83.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8868,7 +8899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="39">
+    <row r="2" spans="1:26" ht="39.75">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9071,12 +9102,12 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9885,13 +9916,13 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="14" max="17" width="8.109375" customWidth="1"/>
-    <col min="18" max="18" width="33.21875" customWidth="1"/>
-    <col min="19" max="23" width="8.109375" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" customWidth="1"/>
+    <col min="14" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="33.28515625" customWidth="1"/>
+    <col min="19" max="23" width="8.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -15030,10 +15061,10 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15247,12 +15278,12 @@
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="97" customWidth="1"/>
-    <col min="4" max="13" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="97" customWidth="1"/>
+    <col min="4" max="13" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -17006,13 +17037,13 @@
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22046,11 +22077,11 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="4" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25917,237 +25948,237 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="19" width="6.88671875" customWidth="1"/>
-    <col min="20" max="48" width="7.88671875" customWidth="1"/>
-    <col min="49" max="49" width="8.109375" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" customWidth="1"/>
-    <col min="51" max="52" width="7.5546875" customWidth="1"/>
-    <col min="53" max="53" width="6.5546875" customWidth="1"/>
-    <col min="54" max="54" width="10.5546875" customWidth="1"/>
-    <col min="55" max="56" width="7.5546875" customWidth="1"/>
-    <col min="57" max="57" width="6.5546875" customWidth="1"/>
-    <col min="58" max="58" width="10.5546875" customWidth="1"/>
-    <col min="59" max="60" width="7.5546875" customWidth="1"/>
-    <col min="61" max="61" width="6.5546875" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" customWidth="1"/>
-    <col min="63" max="64" width="7.5546875" customWidth="1"/>
-    <col min="65" max="65" width="6.5546875" customWidth="1"/>
-    <col min="66" max="66" width="10.5546875" customWidth="1"/>
-    <col min="67" max="68" width="7.5546875" customWidth="1"/>
-    <col min="69" max="69" width="6.5546875" customWidth="1"/>
-    <col min="70" max="70" width="10.5546875" customWidth="1"/>
-    <col min="71" max="72" width="7.5546875" customWidth="1"/>
-    <col min="73" max="73" width="6.5546875" customWidth="1"/>
-    <col min="74" max="74" width="10.5546875" customWidth="1"/>
-    <col min="75" max="76" width="7.5546875" customWidth="1"/>
-    <col min="77" max="77" width="6.5546875" customWidth="1"/>
-    <col min="78" max="78" width="10.5546875" customWidth="1"/>
-    <col min="79" max="80" width="7.5546875" customWidth="1"/>
-    <col min="81" max="81" width="6.5546875" customWidth="1"/>
-    <col min="82" max="82" width="10.5546875" customWidth="1"/>
-    <col min="83" max="84" width="7.5546875" customWidth="1"/>
-    <col min="85" max="85" width="6.5546875" customWidth="1"/>
-    <col min="86" max="86" width="10.5546875" customWidth="1"/>
-    <col min="87" max="88" width="7.5546875" customWidth="1"/>
-    <col min="89" max="89" width="6.5546875" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" customWidth="1"/>
-    <col min="91" max="92" width="7.5546875" customWidth="1"/>
-    <col min="93" max="93" width="6.5546875" customWidth="1"/>
-    <col min="94" max="94" width="10.5546875" customWidth="1"/>
-    <col min="95" max="96" width="7.5546875" customWidth="1"/>
-    <col min="97" max="97" width="6.5546875" customWidth="1"/>
-    <col min="98" max="98" width="10.5546875" customWidth="1"/>
-    <col min="99" max="100" width="7.5546875" customWidth="1"/>
-    <col min="101" max="101" width="6.5546875" customWidth="1"/>
-    <col min="102" max="102" width="10.5546875" customWidth="1"/>
-    <col min="103" max="104" width="7.5546875" customWidth="1"/>
-    <col min="105" max="105" width="6.5546875" customWidth="1"/>
-    <col min="106" max="106" width="10.5546875" customWidth="1"/>
-    <col min="107" max="108" width="7.5546875" customWidth="1"/>
-    <col min="109" max="109" width="6.5546875" customWidth="1"/>
-    <col min="110" max="110" width="10.5546875" customWidth="1"/>
-    <col min="111" max="112" width="7.5546875" customWidth="1"/>
-    <col min="113" max="113" width="6.5546875" customWidth="1"/>
-    <col min="114" max="114" width="10.5546875" customWidth="1"/>
-    <col min="115" max="116" width="7.5546875" customWidth="1"/>
-    <col min="117" max="117" width="6.5546875" customWidth="1"/>
-    <col min="118" max="118" width="10.5546875" customWidth="1"/>
-    <col min="119" max="120" width="7.5546875" customWidth="1"/>
-    <col min="121" max="121" width="6.5546875" customWidth="1"/>
-    <col min="122" max="122" width="10.5546875" customWidth="1"/>
-    <col min="123" max="124" width="7.5546875" customWidth="1"/>
-    <col min="125" max="125" width="6.5546875" customWidth="1"/>
-    <col min="126" max="126" width="10.5546875" customWidth="1"/>
-    <col min="127" max="128" width="7.5546875" customWidth="1"/>
-    <col min="129" max="129" width="6.5546875" customWidth="1"/>
-    <col min="130" max="130" width="10.5546875" customWidth="1"/>
-    <col min="131" max="132" width="7.5546875" customWidth="1"/>
-    <col min="133" max="133" width="6.5546875" customWidth="1"/>
-    <col min="134" max="134" width="10.5546875" customWidth="1"/>
-    <col min="135" max="136" width="7.5546875" customWidth="1"/>
-    <col min="137" max="137" width="6.5546875" customWidth="1"/>
-    <col min="138" max="138" width="10.5546875" customWidth="1"/>
-    <col min="139" max="140" width="7.5546875" customWidth="1"/>
-    <col min="141" max="141" width="6.5546875" customWidth="1"/>
-    <col min="142" max="142" width="10.5546875" customWidth="1"/>
-    <col min="143" max="144" width="7.5546875" customWidth="1"/>
-    <col min="145" max="145" width="6.5546875" customWidth="1"/>
-    <col min="146" max="146" width="10.5546875" customWidth="1"/>
-    <col min="147" max="148" width="7.5546875" customWidth="1"/>
-    <col min="149" max="149" width="6.5546875" customWidth="1"/>
-    <col min="150" max="150" width="10.5546875" customWidth="1"/>
-    <col min="151" max="152" width="7.5546875" customWidth="1"/>
-    <col min="153" max="153" width="6.5546875" customWidth="1"/>
-    <col min="154" max="154" width="10.5546875" customWidth="1"/>
-    <col min="156" max="156" width="7.5546875" customWidth="1"/>
-    <col min="157" max="157" width="6.5546875" customWidth="1"/>
-    <col min="158" max="158" width="11.5546875" customWidth="1"/>
-    <col min="160" max="160" width="7.5546875" customWidth="1"/>
-    <col min="161" max="161" width="6.5546875" customWidth="1"/>
-    <col min="162" max="162" width="11.5546875" customWidth="1"/>
-    <col min="164" max="164" width="7.5546875" customWidth="1"/>
-    <col min="165" max="165" width="6.5546875" customWidth="1"/>
-    <col min="166" max="166" width="11.5546875" customWidth="1"/>
-    <col min="168" max="168" width="7.5546875" customWidth="1"/>
-    <col min="169" max="169" width="6.5546875" customWidth="1"/>
-    <col min="170" max="170" width="11.5546875" customWidth="1"/>
-    <col min="171" max="171" width="5.88671875" customWidth="1"/>
-    <col min="172" max="172" width="2.88671875" customWidth="1"/>
-    <col min="173" max="173" width="7.5546875" customWidth="1"/>
-    <col min="174" max="174" width="6.5546875" customWidth="1"/>
-    <col min="175" max="175" width="8.88671875" customWidth="1"/>
-    <col min="177" max="177" width="7.5546875" customWidth="1"/>
-    <col min="178" max="178" width="6.5546875" customWidth="1"/>
-    <col min="180" max="182" width="11.44140625" customWidth="1"/>
-    <col min="183" max="183" width="10.6640625" customWidth="1"/>
-    <col min="184" max="184" width="6.5546875" customWidth="1"/>
-    <col min="185" max="185" width="10.5546875" customWidth="1"/>
-    <col min="186" max="187" width="7.5546875" customWidth="1"/>
-    <col min="188" max="188" width="6.5546875" customWidth="1"/>
-    <col min="189" max="189" width="10.5546875" customWidth="1"/>
-    <col min="190" max="191" width="7.5546875" customWidth="1"/>
-    <col min="192" max="192" width="6.5546875" customWidth="1"/>
-    <col min="193" max="193" width="10.5546875" customWidth="1"/>
-    <col min="194" max="195" width="7.5546875" customWidth="1"/>
-    <col min="196" max="196" width="6.5546875" customWidth="1"/>
-    <col min="197" max="197" width="10.5546875" customWidth="1"/>
-    <col min="198" max="199" width="7.5546875" customWidth="1"/>
-    <col min="200" max="200" width="6.5546875" customWidth="1"/>
-    <col min="201" max="201" width="10.5546875" customWidth="1"/>
-    <col min="202" max="202" width="5.88671875" customWidth="1"/>
-    <col min="203" max="203" width="2.88671875" customWidth="1"/>
-    <col min="204" max="204" width="7.5546875" customWidth="1"/>
-    <col min="205" max="205" width="6.5546875" customWidth="1"/>
-    <col min="206" max="206" width="8.88671875" customWidth="1"/>
-    <col min="208" max="208" width="7.5546875" customWidth="1"/>
-    <col min="209" max="209" width="6.5546875" customWidth="1"/>
-    <col min="210" max="210" width="11.44140625" customWidth="1"/>
-    <col min="211" max="211" width="8.88671875" customWidth="1"/>
-    <col min="213" max="216" width="11.44140625" customWidth="1"/>
-    <col min="217" max="217" width="10.6640625" customWidth="1"/>
-    <col min="218" max="218" width="7.5546875" customWidth="1"/>
-    <col min="219" max="219" width="6.5546875" customWidth="1"/>
-    <col min="220" max="220" width="10.5546875" customWidth="1"/>
-    <col min="221" max="221" width="8.88671875" customWidth="1"/>
-    <col min="222" max="222" width="12.5546875" customWidth="1"/>
-    <col min="223" max="223" width="9.5546875" customWidth="1"/>
-    <col min="224" max="224" width="7.5546875" customWidth="1"/>
-    <col min="225" max="225" width="6.5546875" customWidth="1"/>
-    <col min="226" max="226" width="10.5546875" customWidth="1"/>
-    <col min="227" max="227" width="8.88671875" customWidth="1"/>
-    <col min="228" max="228" width="12.5546875" customWidth="1"/>
-    <col min="229" max="229" width="9.5546875" customWidth="1"/>
-    <col min="230" max="230" width="7.5546875" customWidth="1"/>
-    <col min="231" max="231" width="6.5546875" customWidth="1"/>
-    <col min="232" max="232" width="10.5546875" customWidth="1"/>
-    <col min="233" max="233" width="8.88671875" customWidth="1"/>
-    <col min="234" max="234" width="12.5546875" customWidth="1"/>
-    <col min="235" max="235" width="9.5546875" customWidth="1"/>
-    <col min="236" max="236" width="7.5546875" customWidth="1"/>
-    <col min="237" max="237" width="6.5546875" customWidth="1"/>
-    <col min="238" max="238" width="11.44140625" customWidth="1"/>
-    <col min="239" max="239" width="8.88671875" customWidth="1"/>
-    <col min="240" max="240" width="12.5546875" customWidth="1"/>
-    <col min="241" max="241" width="9.5546875" customWidth="1"/>
-    <col min="242" max="242" width="7.5546875" customWidth="1"/>
-    <col min="243" max="243" width="6.5546875" customWidth="1"/>
-    <col min="244" max="244" width="10.5546875" customWidth="1"/>
-    <col min="245" max="245" width="8.88671875" customWidth="1"/>
-    <col min="246" max="246" width="12.5546875" customWidth="1"/>
-    <col min="247" max="247" width="9.5546875" customWidth="1"/>
-    <col min="248" max="248" width="7.5546875" customWidth="1"/>
-    <col min="249" max="249" width="6.5546875" customWidth="1"/>
-    <col min="250" max="250" width="8.88671875" customWidth="1"/>
-    <col min="251" max="253" width="7.5546875" customWidth="1"/>
-    <col min="254" max="254" width="6.5546875" customWidth="1"/>
-    <col min="255" max="255" width="10.5546875" customWidth="1"/>
-    <col min="256" max="256" width="8.88671875" customWidth="1"/>
-    <col min="257" max="257" width="12.5546875" customWidth="1"/>
-    <col min="258" max="258" width="9.5546875" customWidth="1"/>
-    <col min="259" max="259" width="7.5546875" customWidth="1"/>
-    <col min="260" max="260" width="6.5546875" customWidth="1"/>
-    <col min="261" max="261" width="10.5546875" customWidth="1"/>
-    <col min="262" max="262" width="8.88671875" customWidth="1"/>
-    <col min="263" max="263" width="12.5546875" customWidth="1"/>
-    <col min="264" max="264" width="9.5546875" customWidth="1"/>
-    <col min="265" max="265" width="7.5546875" customWidth="1"/>
-    <col min="266" max="266" width="6.5546875" customWidth="1"/>
-    <col min="267" max="267" width="10.5546875" customWidth="1"/>
-    <col min="268" max="268" width="8.88671875" customWidth="1"/>
-    <col min="269" max="269" width="12.5546875" customWidth="1"/>
-    <col min="270" max="270" width="9.5546875" customWidth="1"/>
-    <col min="271" max="271" width="7.5546875" customWidth="1"/>
-    <col min="272" max="272" width="6.5546875" customWidth="1"/>
-    <col min="273" max="273" width="10.5546875" customWidth="1"/>
-    <col min="274" max="274" width="8.88671875" customWidth="1"/>
-    <col min="275" max="275" width="12.5546875" customWidth="1"/>
-    <col min="276" max="276" width="9.5546875" customWidth="1"/>
-    <col min="277" max="277" width="7.5546875" customWidth="1"/>
-    <col min="278" max="278" width="6.5546875" customWidth="1"/>
-    <col min="279" max="279" width="10.5546875" customWidth="1"/>
-    <col min="280" max="280" width="8.88671875" customWidth="1"/>
-    <col min="281" max="281" width="12.5546875" customWidth="1"/>
-    <col min="282" max="282" width="9.5546875" customWidth="1"/>
-    <col min="283" max="283" width="7.5546875" customWidth="1"/>
-    <col min="284" max="284" width="6.5546875" customWidth="1"/>
-    <col min="285" max="285" width="11.5546875" customWidth="1"/>
-    <col min="286" max="286" width="6.5546875" customWidth="1"/>
-    <col min="287" max="287" width="12.5546875" customWidth="1"/>
-    <col min="288" max="288" width="9.5546875" customWidth="1"/>
-    <col min="289" max="289" width="7.5546875" customWidth="1"/>
-    <col min="290" max="290" width="6.5546875" customWidth="1"/>
-    <col min="291" max="291" width="10.5546875" customWidth="1"/>
-    <col min="292" max="292" width="8.88671875" customWidth="1"/>
-    <col min="293" max="293" width="12.5546875" customWidth="1"/>
-    <col min="294" max="294" width="9.5546875" customWidth="1"/>
-    <col min="295" max="295" width="7.5546875" customWidth="1"/>
-    <col min="296" max="296" width="6.5546875" customWidth="1"/>
-    <col min="297" max="297" width="11.5546875" customWidth="1"/>
-    <col min="298" max="298" width="6.5546875" customWidth="1"/>
-    <col min="299" max="299" width="12.5546875" customWidth="1"/>
-    <col min="300" max="300" width="9.6640625" customWidth="1"/>
-    <col min="301" max="301" width="2.88671875" customWidth="1"/>
-    <col min="302" max="302" width="7.5546875" customWidth="1"/>
-    <col min="303" max="303" width="6.5546875" customWidth="1"/>
-    <col min="304" max="305" width="8.88671875" customWidth="1"/>
-    <col min="306" max="306" width="12.5546875" customWidth="1"/>
-    <col min="307" max="307" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="19" width="6.85546875" customWidth="1"/>
+    <col min="20" max="48" width="7.85546875" customWidth="1"/>
+    <col min="49" max="49" width="8.140625" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="51" max="52" width="7.5703125" customWidth="1"/>
+    <col min="53" max="53" width="6.5703125" customWidth="1"/>
+    <col min="54" max="54" width="10.5703125" customWidth="1"/>
+    <col min="55" max="56" width="7.5703125" customWidth="1"/>
+    <col min="57" max="57" width="6.5703125" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" customWidth="1"/>
+    <col min="59" max="60" width="7.5703125" customWidth="1"/>
+    <col min="61" max="61" width="6.5703125" customWidth="1"/>
+    <col min="62" max="62" width="10.5703125" customWidth="1"/>
+    <col min="63" max="64" width="7.5703125" customWidth="1"/>
+    <col min="65" max="65" width="6.5703125" customWidth="1"/>
+    <col min="66" max="66" width="10.5703125" customWidth="1"/>
+    <col min="67" max="68" width="7.5703125" customWidth="1"/>
+    <col min="69" max="69" width="6.5703125" customWidth="1"/>
+    <col min="70" max="70" width="10.5703125" customWidth="1"/>
+    <col min="71" max="72" width="7.5703125" customWidth="1"/>
+    <col min="73" max="73" width="6.5703125" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" customWidth="1"/>
+    <col min="75" max="76" width="7.5703125" customWidth="1"/>
+    <col min="77" max="77" width="6.5703125" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" customWidth="1"/>
+    <col min="79" max="80" width="7.5703125" customWidth="1"/>
+    <col min="81" max="81" width="6.5703125" customWidth="1"/>
+    <col min="82" max="82" width="10.5703125" customWidth="1"/>
+    <col min="83" max="84" width="7.5703125" customWidth="1"/>
+    <col min="85" max="85" width="6.5703125" customWidth="1"/>
+    <col min="86" max="86" width="10.5703125" customWidth="1"/>
+    <col min="87" max="88" width="7.5703125" customWidth="1"/>
+    <col min="89" max="89" width="6.5703125" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" customWidth="1"/>
+    <col min="91" max="92" width="7.5703125" customWidth="1"/>
+    <col min="93" max="93" width="6.5703125" customWidth="1"/>
+    <col min="94" max="94" width="10.5703125" customWidth="1"/>
+    <col min="95" max="96" width="7.5703125" customWidth="1"/>
+    <col min="97" max="97" width="6.5703125" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" customWidth="1"/>
+    <col min="99" max="100" width="7.5703125" customWidth="1"/>
+    <col min="101" max="101" width="6.5703125" customWidth="1"/>
+    <col min="102" max="102" width="10.5703125" customWidth="1"/>
+    <col min="103" max="104" width="7.5703125" customWidth="1"/>
+    <col min="105" max="105" width="6.5703125" customWidth="1"/>
+    <col min="106" max="106" width="10.5703125" customWidth="1"/>
+    <col min="107" max="108" width="7.5703125" customWidth="1"/>
+    <col min="109" max="109" width="6.5703125" customWidth="1"/>
+    <col min="110" max="110" width="10.5703125" customWidth="1"/>
+    <col min="111" max="112" width="7.5703125" customWidth="1"/>
+    <col min="113" max="113" width="6.5703125" customWidth="1"/>
+    <col min="114" max="114" width="10.5703125" customWidth="1"/>
+    <col min="115" max="116" width="7.5703125" customWidth="1"/>
+    <col min="117" max="117" width="6.5703125" customWidth="1"/>
+    <col min="118" max="118" width="10.5703125" customWidth="1"/>
+    <col min="119" max="120" width="7.5703125" customWidth="1"/>
+    <col min="121" max="121" width="6.5703125" customWidth="1"/>
+    <col min="122" max="122" width="10.5703125" customWidth="1"/>
+    <col min="123" max="124" width="7.5703125" customWidth="1"/>
+    <col min="125" max="125" width="6.5703125" customWidth="1"/>
+    <col min="126" max="126" width="10.5703125" customWidth="1"/>
+    <col min="127" max="128" width="7.5703125" customWidth="1"/>
+    <col min="129" max="129" width="6.5703125" customWidth="1"/>
+    <col min="130" max="130" width="10.5703125" customWidth="1"/>
+    <col min="131" max="132" width="7.5703125" customWidth="1"/>
+    <col min="133" max="133" width="6.5703125" customWidth="1"/>
+    <col min="134" max="134" width="10.5703125" customWidth="1"/>
+    <col min="135" max="136" width="7.5703125" customWidth="1"/>
+    <col min="137" max="137" width="6.5703125" customWidth="1"/>
+    <col min="138" max="138" width="10.5703125" customWidth="1"/>
+    <col min="139" max="140" width="7.5703125" customWidth="1"/>
+    <col min="141" max="141" width="6.5703125" customWidth="1"/>
+    <col min="142" max="142" width="10.5703125" customWidth="1"/>
+    <col min="143" max="144" width="7.5703125" customWidth="1"/>
+    <col min="145" max="145" width="6.5703125" customWidth="1"/>
+    <col min="146" max="146" width="10.5703125" customWidth="1"/>
+    <col min="147" max="148" width="7.5703125" customWidth="1"/>
+    <col min="149" max="149" width="6.5703125" customWidth="1"/>
+    <col min="150" max="150" width="10.5703125" customWidth="1"/>
+    <col min="151" max="152" width="7.5703125" customWidth="1"/>
+    <col min="153" max="153" width="6.5703125" customWidth="1"/>
+    <col min="154" max="154" width="10.5703125" customWidth="1"/>
+    <col min="156" max="156" width="7.5703125" customWidth="1"/>
+    <col min="157" max="157" width="6.5703125" customWidth="1"/>
+    <col min="158" max="158" width="11.5703125" customWidth="1"/>
+    <col min="160" max="160" width="7.5703125" customWidth="1"/>
+    <col min="161" max="161" width="6.5703125" customWidth="1"/>
+    <col min="162" max="162" width="11.5703125" customWidth="1"/>
+    <col min="164" max="164" width="7.5703125" customWidth="1"/>
+    <col min="165" max="165" width="6.5703125" customWidth="1"/>
+    <col min="166" max="166" width="11.5703125" customWidth="1"/>
+    <col min="168" max="168" width="7.5703125" customWidth="1"/>
+    <col min="169" max="169" width="6.5703125" customWidth="1"/>
+    <col min="170" max="170" width="11.5703125" customWidth="1"/>
+    <col min="171" max="171" width="5.85546875" customWidth="1"/>
+    <col min="172" max="172" width="2.85546875" customWidth="1"/>
+    <col min="173" max="173" width="7.5703125" customWidth="1"/>
+    <col min="174" max="174" width="6.5703125" customWidth="1"/>
+    <col min="175" max="175" width="8.85546875" customWidth="1"/>
+    <col min="177" max="177" width="7.5703125" customWidth="1"/>
+    <col min="178" max="178" width="6.5703125" customWidth="1"/>
+    <col min="180" max="182" width="11.42578125" customWidth="1"/>
+    <col min="183" max="183" width="10.7109375" customWidth="1"/>
+    <col min="184" max="184" width="6.5703125" customWidth="1"/>
+    <col min="185" max="185" width="10.5703125" customWidth="1"/>
+    <col min="186" max="187" width="7.5703125" customWidth="1"/>
+    <col min="188" max="188" width="6.5703125" customWidth="1"/>
+    <col min="189" max="189" width="10.5703125" customWidth="1"/>
+    <col min="190" max="191" width="7.5703125" customWidth="1"/>
+    <col min="192" max="192" width="6.5703125" customWidth="1"/>
+    <col min="193" max="193" width="10.5703125" customWidth="1"/>
+    <col min="194" max="195" width="7.5703125" customWidth="1"/>
+    <col min="196" max="196" width="6.5703125" customWidth="1"/>
+    <col min="197" max="197" width="10.5703125" customWidth="1"/>
+    <col min="198" max="199" width="7.5703125" customWidth="1"/>
+    <col min="200" max="200" width="6.5703125" customWidth="1"/>
+    <col min="201" max="201" width="10.5703125" customWidth="1"/>
+    <col min="202" max="202" width="5.85546875" customWidth="1"/>
+    <col min="203" max="203" width="2.85546875" customWidth="1"/>
+    <col min="204" max="204" width="7.5703125" customWidth="1"/>
+    <col min="205" max="205" width="6.5703125" customWidth="1"/>
+    <col min="206" max="206" width="8.85546875" customWidth="1"/>
+    <col min="208" max="208" width="7.5703125" customWidth="1"/>
+    <col min="209" max="209" width="6.5703125" customWidth="1"/>
+    <col min="210" max="210" width="11.42578125" customWidth="1"/>
+    <col min="211" max="211" width="8.85546875" customWidth="1"/>
+    <col min="213" max="216" width="11.42578125" customWidth="1"/>
+    <col min="217" max="217" width="10.7109375" customWidth="1"/>
+    <col min="218" max="218" width="7.5703125" customWidth="1"/>
+    <col min="219" max="219" width="6.5703125" customWidth="1"/>
+    <col min="220" max="220" width="10.5703125" customWidth="1"/>
+    <col min="221" max="221" width="8.85546875" customWidth="1"/>
+    <col min="222" max="222" width="12.5703125" customWidth="1"/>
+    <col min="223" max="223" width="9.5703125" customWidth="1"/>
+    <col min="224" max="224" width="7.5703125" customWidth="1"/>
+    <col min="225" max="225" width="6.5703125" customWidth="1"/>
+    <col min="226" max="226" width="10.5703125" customWidth="1"/>
+    <col min="227" max="227" width="8.85546875" customWidth="1"/>
+    <col min="228" max="228" width="12.5703125" customWidth="1"/>
+    <col min="229" max="229" width="9.5703125" customWidth="1"/>
+    <col min="230" max="230" width="7.5703125" customWidth="1"/>
+    <col min="231" max="231" width="6.5703125" customWidth="1"/>
+    <col min="232" max="232" width="10.5703125" customWidth="1"/>
+    <col min="233" max="233" width="8.85546875" customWidth="1"/>
+    <col min="234" max="234" width="12.5703125" customWidth="1"/>
+    <col min="235" max="235" width="9.5703125" customWidth="1"/>
+    <col min="236" max="236" width="7.5703125" customWidth="1"/>
+    <col min="237" max="237" width="6.5703125" customWidth="1"/>
+    <col min="238" max="238" width="11.42578125" customWidth="1"/>
+    <col min="239" max="239" width="8.85546875" customWidth="1"/>
+    <col min="240" max="240" width="12.5703125" customWidth="1"/>
+    <col min="241" max="241" width="9.5703125" customWidth="1"/>
+    <col min="242" max="242" width="7.5703125" customWidth="1"/>
+    <col min="243" max="243" width="6.5703125" customWidth="1"/>
+    <col min="244" max="244" width="10.5703125" customWidth="1"/>
+    <col min="245" max="245" width="8.85546875" customWidth="1"/>
+    <col min="246" max="246" width="12.5703125" customWidth="1"/>
+    <col min="247" max="247" width="9.5703125" customWidth="1"/>
+    <col min="248" max="248" width="7.5703125" customWidth="1"/>
+    <col min="249" max="249" width="6.5703125" customWidth="1"/>
+    <col min="250" max="250" width="8.85546875" customWidth="1"/>
+    <col min="251" max="253" width="7.5703125" customWidth="1"/>
+    <col min="254" max="254" width="6.5703125" customWidth="1"/>
+    <col min="255" max="255" width="10.5703125" customWidth="1"/>
+    <col min="256" max="256" width="8.85546875" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" customWidth="1"/>
+    <col min="258" max="258" width="9.5703125" customWidth="1"/>
+    <col min="259" max="259" width="7.5703125" customWidth="1"/>
+    <col min="260" max="260" width="6.5703125" customWidth="1"/>
+    <col min="261" max="261" width="10.5703125" customWidth="1"/>
+    <col min="262" max="262" width="8.85546875" customWidth="1"/>
+    <col min="263" max="263" width="12.5703125" customWidth="1"/>
+    <col min="264" max="264" width="9.5703125" customWidth="1"/>
+    <col min="265" max="265" width="7.5703125" customWidth="1"/>
+    <col min="266" max="266" width="6.5703125" customWidth="1"/>
+    <col min="267" max="267" width="10.5703125" customWidth="1"/>
+    <col min="268" max="268" width="8.85546875" customWidth="1"/>
+    <col min="269" max="269" width="12.5703125" customWidth="1"/>
+    <col min="270" max="270" width="9.5703125" customWidth="1"/>
+    <col min="271" max="271" width="7.5703125" customWidth="1"/>
+    <col min="272" max="272" width="6.5703125" customWidth="1"/>
+    <col min="273" max="273" width="10.5703125" customWidth="1"/>
+    <col min="274" max="274" width="8.85546875" customWidth="1"/>
+    <col min="275" max="275" width="12.5703125" customWidth="1"/>
+    <col min="276" max="276" width="9.5703125" customWidth="1"/>
+    <col min="277" max="277" width="7.5703125" customWidth="1"/>
+    <col min="278" max="278" width="6.5703125" customWidth="1"/>
+    <col min="279" max="279" width="10.5703125" customWidth="1"/>
+    <col min="280" max="280" width="8.85546875" customWidth="1"/>
+    <col min="281" max="281" width="12.5703125" customWidth="1"/>
+    <col min="282" max="282" width="9.5703125" customWidth="1"/>
+    <col min="283" max="283" width="7.5703125" customWidth="1"/>
+    <col min="284" max="284" width="6.5703125" customWidth="1"/>
+    <col min="285" max="285" width="11.5703125" customWidth="1"/>
+    <col min="286" max="286" width="6.5703125" customWidth="1"/>
+    <col min="287" max="287" width="12.5703125" customWidth="1"/>
+    <col min="288" max="288" width="9.5703125" customWidth="1"/>
+    <col min="289" max="289" width="7.5703125" customWidth="1"/>
+    <col min="290" max="290" width="6.5703125" customWidth="1"/>
+    <col min="291" max="291" width="10.5703125" customWidth="1"/>
+    <col min="292" max="292" width="8.85546875" customWidth="1"/>
+    <col min="293" max="293" width="12.5703125" customWidth="1"/>
+    <col min="294" max="294" width="9.5703125" customWidth="1"/>
+    <col min="295" max="295" width="7.5703125" customWidth="1"/>
+    <col min="296" max="296" width="6.5703125" customWidth="1"/>
+    <col min="297" max="297" width="11.5703125" customWidth="1"/>
+    <col min="298" max="298" width="6.5703125" customWidth="1"/>
+    <col min="299" max="299" width="12.5703125" customWidth="1"/>
+    <col min="300" max="300" width="9.7109375" customWidth="1"/>
+    <col min="301" max="301" width="2.85546875" customWidth="1"/>
+    <col min="302" max="302" width="7.5703125" customWidth="1"/>
+    <col min="303" max="303" width="6.5703125" customWidth="1"/>
+    <col min="304" max="305" width="8.85546875" customWidth="1"/>
+    <col min="306" max="306" width="12.5703125" customWidth="1"/>
+    <col min="307" max="307" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -30678,26 +30709,26 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="17" max="17" width="24.21875" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
-    <col min="20" max="20" width="7.21875" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.109375" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -31289,7 +31320,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.8">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="5" t="s">
         <v>149</v>
       </c>
@@ -31492,7 +31523,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
     </row>
-    <row r="29" spans="1:23" ht="19.2">
+    <row r="29" spans="1:23" ht="17.25">
       <c r="A29" s="5" t="s">
         <v>156</v>
       </c>
@@ -32557,32 +32588,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D89" sqref="D89:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="28.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -32602,7 +32633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="5" t="s">
         <v>188</v>
       </c>
@@ -32619,7 +32650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="5" t="s">
         <v>191</v>
       </c>
@@ -32636,7 +32667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -32674,7 +32705,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -32688,7 +32719,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="5" t="s">
         <v>195</v>
       </c>
@@ -32702,7 +32733,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -32716,7 +32747,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -32733,7 +32764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -32748,7 +32779,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="5" t="s">
         <v>195</v>
       </c>
@@ -32762,7 +32793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="5" t="s">
         <v>195</v>
       </c>
@@ -32776,7 +32807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="44" t="s">
         <v>107</v>
       </c>
@@ -32790,7 +32821,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="44" t="s">
         <v>107</v>
       </c>
@@ -32804,7 +32835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -32819,7 +32850,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
@@ -32834,7 +32865,7 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="5" t="s">
         <v>200</v>
       </c>
@@ -32849,7 +32880,7 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -32871,7 +32902,7 @@
       <c r="B19" s="36">
         <v>2030</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="39">
         <v>6000000</v>
       </c>
       <c r="E19" s="35">
@@ -32881,9 +32912,12 @@
       <c r="F19" t="s">
         <v>198</v>
       </c>
+      <c r="G19" t="s">
+        <v>289</v>
+      </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -32898,7 +32932,7 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -32913,7 +32947,7 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -32928,7 +32962,7 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="5" t="s">
         <v>111</v>
       </c>
@@ -32944,7 +32978,7 @@
       </c>
       <c r="L23" s="48"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -32959,7 +32993,7 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="5" t="s">
         <v>201</v>
       </c>
@@ -32974,7 +33008,7 @@
       </c>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="5" t="s">
         <v>202</v>
       </c>
@@ -32994,7 +33028,7 @@
       <c r="I26" s="50"/>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="5" t="s">
         <v>204</v>
       </c>
@@ -33014,7 +33048,7 @@
       <c r="I27" s="50"/>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="5" t="s">
         <v>204</v>
       </c>
@@ -33029,7 +33063,7 @@
       </c>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="5" t="s">
         <v>205</v>
       </c>
@@ -33047,7 +33081,7 @@
       </c>
       <c r="L29" s="48"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="52" t="s">
         <v>205</v>
       </c>
@@ -33062,7 +33096,7 @@
       </c>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -33080,7 +33114,7 @@
       </c>
       <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -33098,7 +33132,7 @@
       </c>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="5" t="s">
         <v>206</v>
       </c>
@@ -33113,7 +33147,7 @@
       </c>
       <c r="L33" s="48"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="5" t="s">
         <v>111</v>
       </c>
@@ -33129,7 +33163,7 @@
       </c>
       <c r="L34" s="48"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -33143,7 +33177,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="5" t="s">
         <v>92</v>
       </c>
@@ -33157,7 +33191,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="44" t="s">
         <v>107</v>
       </c>
@@ -33171,7 +33205,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -33185,7 +33219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
@@ -33199,7 +33233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="5" t="s">
         <v>87</v>
       </c>
@@ -33213,7 +33247,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="5" t="s">
         <v>207</v>
       </c>
@@ -33227,7 +33261,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="5" t="s">
         <v>207</v>
       </c>
@@ -33241,7 +33275,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="5" t="s">
         <v>209</v>
       </c>
@@ -33256,7 +33290,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="5" t="s">
         <v>209</v>
       </c>
@@ -33271,7 +33305,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="5" t="s">
         <v>209</v>
       </c>
@@ -33286,7 +33320,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -33303,7 +33337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
@@ -33317,7 +33351,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="5" t="s">
         <v>67</v>
       </c>
@@ -33334,7 +33368,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -33351,7 +33385,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -33365,7 +33399,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
@@ -33383,7 +33417,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Nuclear"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -33400,18 +33440,20 @@
   <sheetPr>
     <tabColor rgb="FFFF6699"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>210</v>
       </c>
@@ -33425,173 +33467,176 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="104">
         <v>55000</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="104">
         <v>52000</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="104">
         <v>49000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="104">
         <v>69000</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="104">
         <v>64000</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="104">
         <v>62000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105">
         <v>27800</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="105">
         <v>26000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105">
         <v>27800</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="105">
         <v>26000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="105"/>
+      <c r="C6" s="105">
         <v>27800</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="105"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105">
         <v>32000</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="105"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="105"/>
+      <c r="C8" s="105">
         <v>1000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="105">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105">
         <v>13450</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="105">
         <v>13425</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="B10" s="105"/>
+      <c r="C10" s="105">
         <v>14950</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="105">
         <v>14850</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105">
         <v>100000</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="105"/>
+      <c r="F11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="B12" s="105"/>
+      <c r="C12" s="105">
         <v>7745</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="105">
         <v>7423</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105">
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105">
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105">
         <v>11250</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105">
         <v>8700</v>
       </c>
     </row>
@@ -33599,9 +33644,9 @@
       <c r="A17" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105">
         <v>7000</v>
       </c>
     </row>
@@ -33609,62 +33654,62 @@
       <c r="A18" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="105">
         <v>61528.160000000003</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="105">
         <v>61528.160000000003</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="105">
         <v>8575</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="105">
         <v>111166.3</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="105">
         <v>16000</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+      <c r="B23" s="105"/>
+      <c r="C23" s="105">
         <f>(C25+C24)/2</f>
         <v>10300</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="105">
         <f>(D25+D24)/2</f>
         <v>9300</v>
       </c>
@@ -33673,11 +33718,11 @@
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
+      <c r="B24" s="105"/>
+      <c r="C24" s="105">
         <v>12300</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="105">
         <v>11000</v>
       </c>
     </row>
@@ -33685,11 +33730,11 @@
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
+      <c r="B25" s="105"/>
+      <c r="C25" s="105">
         <v>8300</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="105">
         <v>7600</v>
       </c>
     </row>
@@ -33697,11 +33742,11 @@
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
+      <c r="B26" s="105"/>
+      <c r="C26" s="105">
         <v>30500</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="105">
         <v>24700</v>
       </c>
     </row>
@@ -33709,13 +33754,18 @@
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105">
         <v>14700</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="105">
         <v>12900</v>
       </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -33730,22 +33780,22 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="54" customWidth="1"/>
+    <col min="1" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="38" customFormat="1" ht="43.2">
+    <row r="1" spans="1:12" s="38" customFormat="1" ht="45">
       <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
@@ -33935,6 +33985,9 @@
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
+      <c r="J9" s="107" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" s="58"/>
@@ -33943,6 +33996,13 @@
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
+      <c r="J10" s="108">
+        <f>4.43*1000000/1277777</f>
+        <v>3.4669586320617762</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="C11" s="58"/>
@@ -34044,16 +34104,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="34" customWidth="1"/>
-    <col min="5" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="34" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="54" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -35113,15 +35173,15 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="54" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -35504,9 +35564,9 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,35 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BA6DC-D9A1-4D07-AD8A-D31BF2737443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B165A-F779-401A-A0D0-2764C99AFDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="763" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="917" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
     <sheet name="danish" sheetId="2" r:id="rId2"/>
-    <sheet name="node" sheetId="3" r:id="rId3"/>
-    <sheet name="investmentCosts" sheetId="4" r:id="rId4"/>
-    <sheet name="fixedCosts" sheetId="5" r:id="rId5"/>
-    <sheet name="unit2020" sheetId="6" r:id="rId6"/>
-    <sheet name="unit2030" sheetId="7" r:id="rId7"/>
-    <sheet name="unit2050" sheetId="8" r:id="rId8"/>
-    <sheet name="unitcostsgraph" sheetId="9" r:id="rId9"/>
-    <sheet name="nodecostsgraph" sheetId="10" r:id="rId10"/>
-    <sheet name="screening curve" sheetId="11" r:id="rId11"/>
-    <sheet name="node2020" sheetId="12" r:id="rId12"/>
-    <sheet name="unit2030-noneWRONG" sheetId="13" r:id="rId13"/>
-    <sheet name="unit2040-2050" sheetId="14" r:id="rId14"/>
-    <sheet name="unit2030-none_traderes" sheetId="15" r:id="rId15"/>
+    <sheet name="investmentCosts" sheetId="16" r:id="rId3"/>
+    <sheet name="fixedCosts" sheetId="17" r:id="rId4"/>
+    <sheet name="node" sheetId="19" r:id="rId5"/>
+    <sheet name="unit2050" sheetId="18" r:id="rId6"/>
+    <sheet name="nodeOLD" sheetId="3" r:id="rId7"/>
+    <sheet name="investmentCostsOLD" sheetId="4" r:id="rId8"/>
+    <sheet name="fixedCostsOLD" sheetId="5" r:id="rId9"/>
+    <sheet name="unit2020OLD" sheetId="6" r:id="rId10"/>
+    <sheet name="unit2030OLD" sheetId="7" r:id="rId11"/>
+    <sheet name="unit2050OLD" sheetId="8" r:id="rId12"/>
+    <sheet name="unitcostsgraph" sheetId="9" r:id="rId13"/>
+    <sheet name="nodecostsgraph" sheetId="10" r:id="rId14"/>
+    <sheet name="screening curve" sheetId="11" r:id="rId15"/>
+    <sheet name="node2020" sheetId="12" r:id="rId16"/>
+    <sheet name="unit2030-noneWRONG" sheetId="13" r:id="rId17"/>
+    <sheet name="unit2040-2050" sheetId="14" r:id="rId18"/>
+    <sheet name="unit2030-none_traderes" sheetId="15" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$F$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">node!$A$1:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">investmentCostsOLD!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">nodeOLD!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId16"/>
-    <pivotCache cacheId="4" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -293,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="319">
   <si>
     <t>node</t>
   </si>
@@ -1222,19 +1226,99 @@
   <si>
     <t>already includes waste</t>
   </si>
+  <si>
+    <t>Fuels keys</t>
+  </si>
+  <si>
+    <t>Batteries Charge</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Others non-renewable</t>
+  </si>
+  <si>
+    <t>Others renewable</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>Solar PV large</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>electrolyser</t>
+  </si>
+  <si>
+    <t>H2 storage</t>
+  </si>
+  <si>
+    <t>Biofuel</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>Solar CSP</t>
+  </si>
+  <si>
+    <t>Lithium ion battery</t>
+  </si>
+  <si>
+    <t>Hydropower</t>
+  </si>
+  <si>
+    <t>Pumped hydro</t>
+  </si>
+  <si>
+    <t>hydrogen CHP</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>hydrogen turbine</t>
+  </si>
+  <si>
+    <t>Derived Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>BiogasRetro</t>
+  </si>
+  <si>
+    <t>this is hydrogen</t>
+  </si>
+  <si>
+    <t>this is natural gas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ &quot;€ &quot;* #,##0_ ;_ &quot;€ &quot;* \-#,##0_ ;_ &quot;€ &quot;* \-??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="&quot;€ &quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;€ &quot;#,##0.00;[Red]&quot;€ -&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1414,8 +1498,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,6 +1579,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF9C0006"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1850,7 +1955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1866,8 +1971,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2012,13 +2118,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
+    <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Excel Built-in Bad" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2100,6 +2212,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFE945D2"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2130,7 +2245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$13</c:f>
+              <c:f>nodeOLD!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2196,38 +2311,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$13:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.175000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.69</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$13:$K$13</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2242,7 +2331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$14</c:f>
+              <c:f>nodeOLD!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2308,38 +2397,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$14:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>74.965000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.07</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$14:$K$14</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2354,7 +2417,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$15</c:f>
+              <c:f>nodeOLD!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2420,38 +2483,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$15:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.323999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.832000000000001</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$15:$K$15</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2466,7 +2503,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$16</c:f>
+              <c:f>nodeOLD!$H$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2532,38 +2569,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$16:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.48</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$16:$K$16</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2578,7 +2589,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$17</c:f>
+              <c:f>nodeOLD!$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2644,38 +2655,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>16.716999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.996000000000002</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$17:$K$17</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2690,7 +2675,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$18</c:f>
+              <c:f>nodeOLD!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2756,38 +2741,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$18:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.74</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$18:$K$18</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2802,7 +2761,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$19</c:f>
+              <c:f>nodeOLD!$H$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2868,38 +2827,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$19:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.69</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$19:$K$19</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2914,7 +2847,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$20</c:f>
+              <c:f>nodeOLD!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2980,38 +2913,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$20:$K$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.5359999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6959999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.148</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$20:$K$20</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3026,7 +2933,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$21</c:f>
+              <c:f>nodeOLD!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3092,38 +2999,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$21:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7320000000000002</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$21:$K$21</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3138,7 +3019,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$22</c:f>
+              <c:f>nodeOLD!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3204,38 +3085,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$22:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$22:$K$22</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3250,7 +3105,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$23</c:f>
+              <c:f>nodeOLD!$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3316,38 +3171,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$23:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$23:$K$23</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3362,7 +3191,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$24</c:f>
+              <c:f>nodeOLD!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3428,38 +3257,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$24:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82.5</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$24:$K$24</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3474,7 +3277,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$25</c:f>
+              <c:f>nodeOLD!$H$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3540,38 +3343,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$25:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>86.844999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.29</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$25:$K$25</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3586,7 +3363,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>node!$H$26</c:f>
+              <c:f>nodeOLD!$H$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3652,38 +3429,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>node!$I$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$12:$K$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>node!$I$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>nodeOLD!$I$26:$K$26</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3877,7 +3628,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="nl-NL" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -7198,8 +6949,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>150840</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7234,7 +6985,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>866160</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8414,7 +8165,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8484,7 +8235,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -9095,6 +8846,2026 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="38" customFormat="1" ht="45">
+      <c r="A1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="L1" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="54">
+        <f>J2*0.016</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="J2" s="54">
+        <v>3845510</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="54">
+        <f>J3*0.016</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="J3" s="54">
+        <v>3845510</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="54">
+        <f>J4*0.025</f>
+        <v>8575</v>
+      </c>
+      <c r="J4" s="54">
+        <v>343000</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="54">
+        <f>J5*0.014</f>
+        <v>111166.3</v>
+      </c>
+      <c r="J5" s="54">
+        <v>7940450</v>
+      </c>
+      <c r="K5" s="54" t="str">
+        <f>A5</f>
+        <v>Nuclear</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54">
+        <v>16000</v>
+      </c>
+      <c r="J6" s="54">
+        <f>2000*1000</f>
+        <v>2000000</v>
+      </c>
+      <c r="K6" s="54" t="str">
+        <f>A6</f>
+        <v>Pumped_hydro</v>
+      </c>
+      <c r="L6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="J9" s="107" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="J10" s="108">
+        <f>4.43*1000000/1277777</f>
+        <v>3.4669586320617762</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="N19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="58"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="G26" s="58"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="34" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="26" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0.309</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="64">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" s="26" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="64">
+        <v>27800</v>
+      </c>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="64">
+        <v>27800</v>
+      </c>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="64">
+        <v>27800</v>
+      </c>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="36">
+        <v>6.11</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.41</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="64">
+        <v>32000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.92</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="64">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:12" s="26" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="64">
+        <v>13450</v>
+      </c>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" s="26" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="64">
+        <v>14950</v>
+      </c>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="36">
+        <v>4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="64">
+        <v>100000</v>
+      </c>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.43</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="64">
+        <v>7745</v>
+      </c>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="64">
+        <v>30500</v>
+      </c>
+      <c r="J12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="36">
+        <v>1.35</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="64">
+        <v>14700</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="36">
+        <v>0</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="66">
+        <f>12300</f>
+        <v>12300</v>
+      </c>
+      <c r="J15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:12" s="27" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="36">
+        <v>0</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="66">
+        <v>8300</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="47"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="67"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="1:12" s="26" customFormat="1">
+      <c r="A18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="67">
+        <v>0</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="66">
+        <v>68680</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="67">
+        <v>0</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="66">
+        <v>60520</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:12" s="26" customFormat="1">
+      <c r="A20" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="67">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="66">
+        <v>104000</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="67">
+        <v>9.5</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:12" s="26" customFormat="1">
+      <c r="A22" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="66">
+        <v>11450</v>
+      </c>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="66">
+        <v>33550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="67">
+        <v>2.6</v>
+      </c>
+      <c r="C25" s="67">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="66">
+        <v>126700</v>
+      </c>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" spans="1:12" s="26" customFormat="1">
+      <c r="A26" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="67">
+        <v>2.6</v>
+      </c>
+      <c r="C26" s="67">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="66">
+        <v>126700</v>
+      </c>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+    </row>
+    <row r="27" spans="1:12" s="26" customFormat="1">
+      <c r="A27" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="67">
+        <v>2.62</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1.012</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="66">
+        <v>31000</v>
+      </c>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1">
+      <c r="A28" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="67">
+        <v>2.62</v>
+      </c>
+      <c r="C28" s="67">
+        <v>1.012</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="66">
+        <v>31000</v>
+      </c>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="67">
+        <v>1</v>
+      </c>
+      <c r="C29" s="67">
+        <v>0.99</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="66">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="67">
+        <v>1</v>
+      </c>
+      <c r="C30" s="67">
+        <v>0.99</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="66">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="67">
+        <v>1</v>
+      </c>
+      <c r="C31" s="67">
+        <v>1.06</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="67">
+        <v>1.06</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="67">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C33" s="67">
+        <v>5.2</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="66">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="67">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C34" s="67">
+        <v>5.2</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="66">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="67">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C35" s="67">
+        <v>8.66</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="66">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="67">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C36" s="67">
+        <v>8.66</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="66">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="67">
+        <v>2.9</v>
+      </c>
+      <c r="C37" s="67">
+        <v>2.98</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="66">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="67">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="67">
+        <v>2.98</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="66">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="67">
+        <v>1.51</v>
+      </c>
+      <c r="C39" s="67">
+        <v>3.4</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="66">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="67">
+        <v>1.51</v>
+      </c>
+      <c r="C40" s="67">
+        <v>3.4</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="66">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="67">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="67">
+        <v>3.1</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="66">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="C42" s="67">
+        <v>1</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="66">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="67">
+        <v>1</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="66">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="C44" s="67">
+        <v>0.48</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="67">
+        <v>0.48</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="67">
+        <v>10</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="67">
+        <v>0</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="66">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="67">
+        <v>7.4</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67">
+        <v>1</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="66">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="67">
+        <v>1.9</v>
+      </c>
+      <c r="C50" s="67">
+        <v>0.309</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="66">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67">
+        <v>1</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67">
+        <v>0.98</v>
+      </c>
+      <c r="D52" s="67"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="66"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="66"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67">
+        <v>4.2</v>
+      </c>
+      <c r="D54" s="67"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="66"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="66"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="54" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="54">
+        <f>F2*0.05</f>
+        <v>40000</v>
+      </c>
+      <c r="F2" s="54">
+        <v>800000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="54">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="54">
+        <v>730000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B3</f>
+        <v>2.7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="E4" s="54">
+        <v>11250</v>
+      </c>
+      <c r="F4" s="54">
+        <v>750000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="54">
+        <v>8700</v>
+      </c>
+      <c r="F5" s="54">
+        <v>435000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="54">
+        <v>7000</v>
+      </c>
+      <c r="F6" s="54">
+        <v>350000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.309</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>1.9</v>
+      </c>
+      <c r="E9" s="54">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="54">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="54">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="54">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="54">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="54">
+        <v>800</v>
+      </c>
+      <c r="H14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="54">
+        <v>7423</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="54">
+        <v>11000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="54">
+        <v>7600</v>
+      </c>
+      <c r="H17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>2.4</v>
+      </c>
+      <c r="E18" s="54">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>1.22</v>
+      </c>
+      <c r="E19" s="54">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="54">
+        <v>7810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="54">
+        <v>58140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="54">
+        <v>51170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="54">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="54">
+        <v>33450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="70">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="70">
+        <v>2030</v>
+      </c>
+      <c r="D1" s="70">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>2040000</v>
+      </c>
+      <c r="C2">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7">
+        <v>3845510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9">
+        <v>343000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>8000000</v>
+      </c>
+      <c r="C14">
+        <v>2690000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16">
+        <v>3845510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <v>321000</v>
+      </c>
+      <c r="C17">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>7940450</v>
+      </c>
+      <c r="C18">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>587000</v>
+      </c>
+      <c r="C21">
+        <v>380000</v>
+      </c>
+      <c r="D21">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>2270000</v>
+      </c>
+      <c r="C22">
+        <v>1930000</v>
+      </c>
+      <c r="D22">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>1150000</v>
+      </c>
+      <c r="C23">
+        <v>1040000</v>
+      </c>
+      <c r="D23">
+        <v>1040000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -9908,7 +11679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
@@ -9991,59 +11762,59 @@
         <v>2020</v>
       </c>
       <c r="B3" s="92" t="e">
-        <f>VLOOKUP(B2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(B2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="C3" s="92" t="e">
-        <f>VLOOKUP(C2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(C2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="92" t="e">
-        <f>VLOOKUP(D2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(D2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="92" t="e">
-        <f>VLOOKUP(E2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(E2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="92" t="e">
-        <f>VLOOKUP(F2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(F2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="92" t="e">
-        <f>VLOOKUP(G2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(G2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="92" t="e">
-        <f>VLOOKUP(H2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(H2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="92" t="e">
-        <f>VLOOKUP(I2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(I2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="J3" s="92" t="e">
-        <f>VLOOKUP(J2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(J2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="K3" s="92" t="e">
-        <f>VLOOKUP(K2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(K2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="L3" s="92" t="e">
-        <f>VLOOKUP(L2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(L2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="M3" s="92" t="e">
-        <f>VLOOKUP(M2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(M2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N3" s="92" t="e">
-        <f>VLOOKUP(N2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(N2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="O3" s="92" t="e">
-        <f>VLOOKUP(O2,node!$A$1:$C$16,4,0)</f>
+        <f>VLOOKUP(O2,nodeOLD!$A$1:$C$16,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="R3" t="s">
@@ -10058,59 +11829,59 @@
         <v>2030</v>
       </c>
       <c r="B4" s="92" t="e">
-        <f>VLOOKUP(B2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(B2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="C4" s="92" t="e">
-        <f>VLOOKUP(C2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(C2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="92" t="e">
-        <f>VLOOKUP(D2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(D2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="92" t="e">
-        <f>VLOOKUP(E2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(E2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="92" t="e">
-        <f>VLOOKUP(F2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(F2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="92" t="e">
-        <f>VLOOKUP(G2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(G2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="92" t="e">
-        <f>VLOOKUP(H2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(H2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="92" t="e">
-        <f>VLOOKUP(I2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(I2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="92" t="e">
-        <f>VLOOKUP(J2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(J2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="K4" s="92" t="e">
-        <f>VLOOKUP(K2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(K2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="L4" s="92" t="e">
-        <f>VLOOKUP(L2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(L2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="M4" s="92" t="e">
-        <f>VLOOKUP(M2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(M2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N4" s="92" t="e">
-        <f>VLOOKUP(N2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(N2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="O4" s="92" t="e">
-        <f>VLOOKUP(O2,node!$A$17:$C$30,4,0)</f>
+        <f>VLOOKUP(O2,nodeOLD!$A$17:$C$30,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="R4" t="s">
@@ -10125,59 +11896,59 @@
         <v>2050</v>
       </c>
       <c r="B5" s="92" t="e">
-        <f>VLOOKUP(B2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(B2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="92" t="e">
-        <f>VLOOKUP(C2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(C2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="92" t="e">
-        <f>VLOOKUP(D2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(D2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="92" t="e">
-        <f>VLOOKUP(E2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(E2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="92" t="e">
-        <f>VLOOKUP(F2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(F2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="92" t="e">
-        <f>VLOOKUP(G2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(G2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H5" s="92" t="e">
-        <f>VLOOKUP(H2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(H2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="92" t="e">
-        <f>VLOOKUP(I2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(I2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="J5" s="92" t="e">
-        <f>VLOOKUP(J2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(J2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="K5" s="92" t="e">
-        <f>VLOOKUP(K2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(K2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="L5" s="92" t="e">
-        <f>VLOOKUP(L2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(L2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="M5" s="92" t="e">
-        <f>VLOOKUP(M2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(M2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N5" s="92" t="e">
-        <f>VLOOKUP(N2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(N2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="O5" s="92" t="e">
-        <f>VLOOKUP(O2,node!$A$32:$C$47,4,0)</f>
+        <f>VLOOKUP(O2,nodeOLD!$A$32:$C$47,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="R5" t="s">
@@ -11135,27 +12906,27 @@
         <v>#REF!</v>
       </c>
       <c r="R20">
-        <f>unit2020!A9</f>
+        <f>unit2020OLD!A9</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>unit2020!B9</f>
+        <f>unit2020OLD!B9</f>
         <v>0</v>
       </c>
       <c r="T20" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U20" s="58">
-        <f>unit2020!C9</f>
+        <f>unit2020OLD!C9</f>
         <v>0</v>
       </c>
       <c r="V20" s="34">
-        <f>unit2020!D9</f>
+        <f>unit2020OLD!D9</f>
         <v>0</v>
       </c>
       <c r="W20" s="34" t="e">
-        <f>VLOOKUP(R20,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R20,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X20" s="93" t="e">
@@ -11228,27 +12999,27 @@
         <v>#REF!</v>
       </c>
       <c r="R21">
-        <f>unit2020!A10</f>
+        <f>unit2020OLD!A10</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>unit2020!B10</f>
+        <f>unit2020OLD!B10</f>
         <v>0</v>
       </c>
       <c r="T21" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U21">
-        <f>unit2020!C10</f>
+        <f>unit2020OLD!C10</f>
         <v>0</v>
       </c>
       <c r="V21" s="34">
-        <f>unit2020!D10</f>
+        <f>unit2020OLD!D10</f>
         <v>0</v>
       </c>
       <c r="W21" s="34" t="e">
-        <f>VLOOKUP(R21,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R21,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X21" s="93" t="e">
@@ -11321,27 +13092,27 @@
         <v>#REF!</v>
       </c>
       <c r="R22">
-        <f>unit2020!A11</f>
+        <f>unit2020OLD!A11</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>unit2020!B11</f>
+        <f>unit2020OLD!B11</f>
         <v>0</v>
       </c>
       <c r="T22" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U22">
-        <f>unit2020!C11</f>
+        <f>unit2020OLD!C11</f>
         <v>0</v>
       </c>
       <c r="V22" s="34">
-        <f>unit2020!D11</f>
+        <f>unit2020OLD!D11</f>
         <v>0</v>
       </c>
       <c r="W22" s="34" t="e">
-        <f>VLOOKUP(R22,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R22,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X22" s="93" t="e">
@@ -11414,27 +13185,27 @@
         <v>#REF!</v>
       </c>
       <c r="R23">
-        <f>unit2020!A12</f>
+        <f>unit2020OLD!A12</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>unit2020!B12</f>
+        <f>unit2020OLD!B12</f>
         <v>0</v>
       </c>
       <c r="T23" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U23">
-        <f>unit2020!C12</f>
+        <f>unit2020OLD!C12</f>
         <v>0</v>
       </c>
       <c r="V23" s="34">
-        <f>unit2020!D12</f>
+        <f>unit2020OLD!D12</f>
         <v>0</v>
       </c>
       <c r="W23" s="34" t="e">
-        <f>VLOOKUP(R23,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R23,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X23" s="93" t="e">
@@ -11507,27 +13278,27 @@
         <v>#REF!</v>
       </c>
       <c r="R24">
-        <f>unit2020!A13</f>
+        <f>unit2020OLD!A13</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>unit2020!B13</f>
+        <f>unit2020OLD!B13</f>
         <v>0</v>
       </c>
       <c r="T24" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U24">
-        <f>unit2020!C13</f>
+        <f>unit2020OLD!C13</f>
         <v>0</v>
       </c>
       <c r="V24" s="34">
-        <f>unit2020!D13</f>
+        <f>unit2020OLD!D13</f>
         <v>0</v>
       </c>
       <c r="W24" s="34" t="e">
-        <f>VLOOKUP(R24,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R24,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X24" s="93" t="e">
@@ -11600,27 +13371,27 @@
         <v>#REF!</v>
       </c>
       <c r="R25">
-        <f>unit2020!A14</f>
+        <f>unit2020OLD!A14</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>unit2020!B14</f>
+        <f>unit2020OLD!B14</f>
         <v>0</v>
       </c>
       <c r="T25" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U25">
-        <f>unit2020!C14</f>
+        <f>unit2020OLD!C14</f>
         <v>0</v>
       </c>
       <c r="V25" s="34">
-        <f>unit2020!D14</f>
+        <f>unit2020OLD!D14</f>
         <v>0</v>
       </c>
       <c r="W25" s="34" t="e">
-        <f>VLOOKUP(R25,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R25,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X25" s="93" t="e">
@@ -11693,27 +13464,27 @@
         <v>#REF!</v>
       </c>
       <c r="R26">
-        <f>unit2020!A15</f>
+        <f>unit2020OLD!A15</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>unit2020!B15</f>
+        <f>unit2020OLD!B15</f>
         <v>0</v>
       </c>
       <c r="T26" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U26">
-        <f>unit2020!C15</f>
+        <f>unit2020OLD!C15</f>
         <v>0</v>
       </c>
       <c r="V26" s="34">
-        <f>unit2020!D15</f>
+        <f>unit2020OLD!D15</f>
         <v>0</v>
       </c>
       <c r="W26" s="34" t="e">
-        <f>VLOOKUP(R26,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R26,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X26" s="93" t="e">
@@ -11786,27 +13557,27 @@
         <v>#REF!</v>
       </c>
       <c r="R27">
-        <f>unit2020!A16</f>
+        <f>unit2020OLD!A16</f>
         <v>0</v>
       </c>
       <c r="S27" s="58">
-        <f>unit2020!B16</f>
+        <f>unit2020OLD!B16</f>
         <v>0</v>
       </c>
       <c r="T27" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U27">
-        <f>unit2020!C16</f>
+        <f>unit2020OLD!C16</f>
         <v>0</v>
       </c>
       <c r="V27" s="34">
-        <f>unit2020!D16</f>
+        <f>unit2020OLD!D16</f>
         <v>0</v>
       </c>
       <c r="W27" s="34" t="e">
-        <f>VLOOKUP(R27,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R27,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X27" s="93" t="e">
@@ -11879,27 +13650,27 @@
         <v>#REF!</v>
       </c>
       <c r="R28">
-        <f>unit2020!A17</f>
+        <f>unit2020OLD!A17</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>unit2020!B17</f>
+        <f>unit2020OLD!B17</f>
         <v>0</v>
       </c>
       <c r="T28" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U28">
-        <f>unit2020!C17</f>
+        <f>unit2020OLD!C17</f>
         <v>0</v>
       </c>
       <c r="V28" s="34">
-        <f>unit2020!D17</f>
+        <f>unit2020OLD!D17</f>
         <v>0</v>
       </c>
       <c r="W28" s="34" t="e">
-        <f>VLOOKUP(R28,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R28,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X28" s="93" t="e">
@@ -11972,27 +13743,27 @@
         <v>#REF!</v>
       </c>
       <c r="R29">
-        <f>unit2020!A18</f>
+        <f>unit2020OLD!A18</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>unit2020!B18</f>
+        <f>unit2020OLD!B18</f>
         <v>0</v>
       </c>
       <c r="T29" t="e">
-        <f>unit2020!#REF!</f>
+        <f>unit2020OLD!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="U29">
-        <f>unit2020!C18</f>
+        <f>unit2020OLD!C18</f>
         <v>0</v>
       </c>
       <c r="V29" s="34">
-        <f>unit2020!D18</f>
+        <f>unit2020OLD!D18</f>
         <v>0</v>
       </c>
       <c r="W29" s="34" t="e">
-        <f>VLOOKUP(R29,unit2030!$A$1:$D$23,8,0)</f>
+        <f>VLOOKUP(R29,unit2030OLD!$A$1:$D$23,8,0)</f>
         <v>#N/A</v>
       </c>
       <c r="X29" s="93" t="e">
@@ -15053,7 +16824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -15270,7 +17041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
@@ -17029,7 +18800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D646"/>
   <sheetViews>
@@ -22069,7 +23840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D275"/>
   <sheetViews>
@@ -30703,14 +32474,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F03AC0-C286-4832-973E-33BE549E25F2}">
+  <sheetPr>
+    <tabColor rgb="FFE945D2"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="109" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2">
+        <v>2050</v>
+      </c>
+      <c r="C2" s="109">
+        <v>284000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>2050</v>
+      </c>
+      <c r="C3" s="109">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4" s="109">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+      <c r="C5" s="109">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>2050</v>
+      </c>
+      <c r="C6" s="109">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="109">
+        <v>7940450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="109">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9">
+        <v>2050</v>
+      </c>
+      <c r="C9" s="109">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10">
+        <v>2050</v>
+      </c>
+      <c r="C10" s="109">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11">
+        <v>2050</v>
+      </c>
+      <c r="C11" s="109">
+        <v>2990000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>2050</v>
+      </c>
+      <c r="C12" s="109">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13">
+        <v>2050</v>
+      </c>
+      <c r="C13" s="109">
+        <v>4040000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>2050</v>
+      </c>
+      <c r="C14" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+      <c r="C15" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>2050</v>
+      </c>
+      <c r="C16" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17">
+        <v>2050</v>
+      </c>
+      <c r="C17" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18">
+        <v>2050</v>
+      </c>
+      <c r="C18" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <v>2050</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C20" s="39">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C21" s="39">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C22" s="39">
+        <v>435000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE22B4-5931-48E0-9D87-BB3C49EE7BE9}">
+  <sheetPr>
+    <tabColor rgb="FFE945D2"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>111166.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13">
+        <v>68680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="105">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="105">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="105">
+        <v>8700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C0D5DC-052F-4AEA-BB64-E368ECAF2641}">
+  <sheetPr>
+    <tabColor rgb="FFE945D2"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C1" s="111">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C2" s="111">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C3" s="111">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C4" s="111">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C5" s="111">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C6" s="111">
+        <v>40.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="111">
+        <v>74.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="111">
+        <v>74.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="111">
+        <v>2050</v>
+      </c>
+      <c r="C9" s="111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46.996000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C12" s="28">
+        <v>48.579252851200003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C13" s="5">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C14" s="5">
+        <v>14.148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C15" s="5">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C16" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C17" s="28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C18" s="5">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFFFE09-5EF5-48F4-B82E-38CEA3597FAA}">
+  <sheetPr>
+    <tabColor rgb="FFE945D2"/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2">
+        <v>1.8</v>
+      </c>
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <v>0.92</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0.92</v>
+      </c>
+      <c r="G2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
+        <v>0.35</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8">
+        <v>2.6</v>
+      </c>
+      <c r="C8">
+        <v>0.309</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.89</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0.89</v>
+      </c>
+      <c r="G10">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>208.82539682539681</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.42</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="5">
+        <f>B20</f>
+        <v>2.7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
+  <sheetPr filterMode="1">
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -30750,7 +33746,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="5" t="s">
         <v>139</v>
       </c>
@@ -30766,7 +33762,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" hidden="1">
       <c r="A3" s="27" t="s">
         <v>141</v>
       </c>
@@ -30785,7 +33781,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" hidden="1">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
@@ -30801,7 +33797,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" hidden="1">
       <c r="A5" s="5" t="s">
         <v>146</v>
       </c>
@@ -30818,7 +33814,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1">
       <c r="A6" s="5" t="s">
         <v>147</v>
       </c>
@@ -30835,7 +33831,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" hidden="1">
       <c r="A7" s="27" t="s">
         <v>148</v>
       </c>
@@ -30856,7 +33852,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1">
       <c r="A8" s="5" t="s">
         <v>149</v>
       </c>
@@ -30873,7 +33869,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1">
       <c r="A9" s="5" t="s">
         <v>150</v>
       </c>
@@ -30890,7 +33886,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="5" t="s">
         <v>151</v>
       </c>
@@ -30907,7 +33903,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
@@ -30928,7 +33924,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
@@ -30958,7 +33954,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="5" t="s">
         <v>155</v>
       </c>
@@ -30988,7 +33984,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" hidden="1">
       <c r="A14" s="5" t="s">
         <v>156</v>
       </c>
@@ -31018,7 +34014,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" hidden="1">
       <c r="A15" s="5" t="s">
         <v>157</v>
       </c>
@@ -31047,7 +34043,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" hidden="1">
       <c r="A16" s="5" t="s">
         <v>158</v>
       </c>
@@ -31083,7 +34079,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
@@ -31122,7 +34118,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -31175,7 +34171,7 @@
         <v>74.268000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="5" t="s">
         <v>144</v>
       </c>
@@ -31207,7 +34203,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" s="5" t="s">
         <v>146</v>
       </c>
@@ -31239,7 +34235,7 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="5" t="s">
         <v>147</v>
       </c>
@@ -31271,7 +34267,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" s="27" t="s">
         <v>148</v>
       </c>
@@ -31320,7 +34316,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5" hidden="1">
       <c r="A23" s="5" t="s">
         <v>149</v>
       </c>
@@ -31365,7 +34361,7 @@
         <v>48.936</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
@@ -31400,7 +34396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="5" t="s">
         <v>151</v>
       </c>
@@ -31432,7 +34428,7 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="5" t="s">
         <v>152</v>
       </c>
@@ -31473,7 +34469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
@@ -31500,7 +34496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="5" t="s">
         <v>155</v>
       </c>
@@ -31523,7 +34519,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
     </row>
-    <row r="29" spans="1:23" ht="17.25">
+    <row r="29" spans="1:23" ht="17.25" hidden="1">
       <c r="A29" s="5" t="s">
         <v>156</v>
       </c>
@@ -31541,7 +34537,7 @@
       <c r="Q29" s="25"/>
       <c r="U29" s="33"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="5" t="s">
         <v>157</v>
       </c>
@@ -31558,7 +34554,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
@@ -31575,7 +34571,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -31593,7 +34589,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
@@ -31611,7 +34607,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -31632,7 +34628,7 @@
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -31650,7 +34646,7 @@
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
@@ -31668,7 +34664,7 @@
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" s="5" t="s">
         <v>147</v>
       </c>
@@ -31686,7 +34682,7 @@
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" s="27" t="s">
         <v>148</v>
       </c>
@@ -31707,7 +34703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="5" t="s">
         <v>149</v>
       </c>
@@ -31721,7 +34717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="5" t="s">
         <v>150</v>
       </c>
@@ -31735,7 +34731,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -31749,7 +34745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" s="5" t="s">
         <v>152</v>
       </c>
@@ -31763,7 +34759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" s="5" t="s">
         <v>153</v>
       </c>
@@ -31780,7 +34776,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" s="5" t="s">
         <v>155</v>
       </c>
@@ -31794,7 +34790,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" s="5" t="s">
         <v>156</v>
       </c>
@@ -31808,7 +34804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" s="5" t="s">
         <v>158</v>
       </c>
@@ -31822,7 +34818,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" s="5" t="s">
         <v>157</v>
       </c>
@@ -32578,7 +35574,13 @@
       <c r="H97" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="natural_gas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -32586,20 +35588,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1">
-    <tabColor rgb="FFFF6699"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:D91"/>
+      <selection activeCell="A32" sqref="A32:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="34" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
@@ -32684,7 +35686,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -32793,7 +35795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>195</v>
       </c>
@@ -32895,7 +35897,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -32993,33 +35995,30 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="36">
+    <row r="25" spans="1:12">
+      <c r="A25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="45">
         <v>2050</v>
       </c>
-      <c r="C25" s="39">
-        <v>800000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>198</v>
+      <c r="C25" s="53">
+        <v>1900000</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>199</v>
       </c>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B26" s="36">
         <v>2050</v>
       </c>
       <c r="C26" s="39">
-        <v>730000</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>203</v>
+        <v>800000</v>
       </c>
       <c r="F26" t="s">
         <v>198</v>
@@ -33048,33 +36047,30 @@
       <c r="I27" s="50"/>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="B28" s="36">
         <v>2050</v>
       </c>
       <c r="C28" s="39">
-        <v>750000</v>
+        <v>1100000</v>
       </c>
       <c r="F28" t="s">
         <v>198</v>
       </c>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="36">
         <v>2050</v>
       </c>
       <c r="C29" s="39">
-        <v>435000</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>203</v>
+        <v>350000</v>
       </c>
       <c r="F29" t="s">
         <v>198</v>
@@ -33096,155 +36092,159 @@
       </c>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="B31" s="36">
         <v>2050</v>
       </c>
-      <c r="C31" s="42">
-        <v>1444000</v>
-      </c>
-      <c r="E31" s="35">
-        <v>1640000</v>
+      <c r="C31" s="39">
+        <v>800000</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="B32" s="36">
         <v>2050</v>
       </c>
-      <c r="C32" s="49">
-        <v>1127000</v>
-      </c>
-      <c r="E32" s="35">
-        <v>960000</v>
+      <c r="C32" s="39">
+        <v>730000</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B33" s="36">
         <v>2050</v>
       </c>
       <c r="C33" s="39">
-        <v>350000</v>
+        <v>750000</v>
       </c>
       <c r="F33" t="s">
         <v>198</v>
       </c>
       <c r="L33" s="48"/>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B34" s="36">
         <v>2050</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="39">
+        <v>435000</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="48"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C35" s="39">
+        <v>2685000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C36" s="39">
+        <v>2970000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C37" s="42">
         <f>255000*4</f>
         <v>1020000</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>198</v>
       </c>
-      <c r="L34" s="48"/>
-    </row>
-    <row r="35" spans="1:12" hidden="1">
-      <c r="A35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C35" s="39">
-        <v>2685000</v>
-      </c>
-      <c r="F35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C36" s="39">
-        <v>412000</v>
-      </c>
-      <c r="F36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1">
-      <c r="A37" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="45">
-        <v>2050</v>
-      </c>
-      <c r="C37" s="53">
-        <v>1900000</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1">
-      <c r="A38" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="B38" s="36">
         <v>2050</v>
       </c>
       <c r="C38" s="39">
-        <v>800000</v>
+        <v>412000</v>
       </c>
       <c r="F38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="B39" s="36">
         <v>2050</v>
       </c>
       <c r="C39" s="39">
-        <v>1100000</v>
+        <f>+(C42+C45)/2</f>
+        <v>815000</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B40" s="36">
         <v>2050</v>
       </c>
       <c r="C40" s="39">
-        <v>2970000</v>
+        <v>688000</v>
+      </c>
+      <c r="E40" s="35">
+        <v>640000</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1">
@@ -33305,16 +36305,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B45" s="36">
         <v>2050</v>
       </c>
       <c r="C45" s="39">
-        <f>+(C48+C51)/2</f>
-        <v>519000</v>
+        <v>350000</v>
+      </c>
+      <c r="E45" s="35">
+        <v>290000</v>
       </c>
       <c r="F45" t="s">
         <v>197</v>
@@ -33351,18 +36353,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B48" s="36">
         <v>2050</v>
       </c>
-      <c r="C48" s="39">
-        <v>350000</v>
+      <c r="C48" s="42">
+        <v>1444000</v>
       </c>
       <c r="E48" s="35">
-        <v>290000</v>
+        <v>1640000</v>
       </c>
       <c r="F48" t="s">
         <v>197</v>
@@ -33399,18 +36401,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B51" s="36">
         <v>2050</v>
       </c>
-      <c r="C51" s="39">
-        <v>688000</v>
+      <c r="C51" s="49">
+        <v>1127000</v>
       </c>
       <c r="E51" s="35">
-        <v>640000</v>
+        <v>960000</v>
       </c>
       <c r="F51" t="s">
         <v>197</v>
@@ -33418,11 +36420,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Nuclear"/>
+        <filter val="2050,00"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:F51">
+      <sortCondition ref="A1:A51"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -33435,15 +36440,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF6699"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -33771,2024 +36776,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="38" customFormat="1" ht="45">
-      <c r="A1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="54">
-        <f>J2*0.016</f>
-        <v>61528.160000000003</v>
-      </c>
-      <c r="J2" s="54">
-        <v>3845510</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="54">
-        <f>J3*0.016</f>
-        <v>61528.160000000003</v>
-      </c>
-      <c r="J3" s="54">
-        <v>3845510</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="54">
-        <f>J4*0.025</f>
-        <v>8575</v>
-      </c>
-      <c r="J4" s="54">
-        <v>343000</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="I5" s="54">
-        <f>J5*0.014</f>
-        <v>111166.3</v>
-      </c>
-      <c r="J5" s="54">
-        <v>7940450</v>
-      </c>
-      <c r="K5" s="54" t="str">
-        <f>A5</f>
-        <v>Nuclear</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="54">
-        <v>16000</v>
-      </c>
-      <c r="J6" s="54">
-        <f>2000*1000</f>
-        <v>2000000</v>
-      </c>
-      <c r="K6" s="54" t="str">
-        <f>A6</f>
-        <v>Pumped_hydro</v>
-      </c>
-      <c r="L6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="J9" s="107" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="J10" s="108">
-        <f>4.43*1000000/1277777</f>
-        <v>3.4669586320617762</v>
-      </c>
-      <c r="K10" s="107" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="N19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="58"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="G24" s="58"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="G26" s="58"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
-  <dimension ref="A1:L56"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="34" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="54" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="26" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="C2" s="36">
-        <v>0.309</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="64">
-        <v>50000</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" s="26" customFormat="1">
-      <c r="A3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="36">
-        <v>4.2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>0.61</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="64">
-        <v>27800</v>
-      </c>
-      <c r="K3" s="50"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="36">
-        <v>4.2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="64">
-        <v>27800</v>
-      </c>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="36">
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="I5" s="64">
-        <v>27800</v>
-      </c>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="36">
-        <v>6.11</v>
-      </c>
-      <c r="C6" s="36">
-        <v>0.41</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="64">
-        <v>32000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="36">
-        <v>1.8</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.92</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="64">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:12" s="26" customFormat="1">
-      <c r="A8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="36">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="64">
-        <v>13450</v>
-      </c>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
-      <c r="A9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="36">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="64">
-        <v>14950</v>
-      </c>
-      <c r="K9" s="50"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="36">
-        <v>4</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="64">
-        <v>100000</v>
-      </c>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="36">
-        <v>4.5</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0.43</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="64">
-        <v>7745</v>
-      </c>
-      <c r="K11" s="50"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="64">
-        <v>30500</v>
-      </c>
-      <c r="J12" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="50"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="36">
-        <v>1.35</v>
-      </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="64">
-        <v>14700</v>
-      </c>
-      <c r="J13" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="50"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="36">
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="36">
-        <v>0</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="66">
-        <f>12300</f>
-        <v>12300</v>
-      </c>
-      <c r="J15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:12" s="27" customFormat="1">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="36">
-        <v>0</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="66">
-        <v>8300</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="50"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="47"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="67"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:12" s="26" customFormat="1">
-      <c r="A18" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="67">
-        <v>0</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="66">
-        <v>68680</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="67">
-        <v>0</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="66">
-        <v>60520</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-    </row>
-    <row r="20" spans="1:12" s="26" customFormat="1">
-      <c r="A20" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="67">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="66">
-        <v>104000</v>
-      </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="67">
-        <v>9.5</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1">
-      <c r="A22" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="66">
-        <v>11450</v>
-      </c>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="66">
-        <v>33550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="66"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="67">
-        <v>2.6</v>
-      </c>
-      <c r="C25" s="67">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="66">
-        <v>126700</v>
-      </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" s="26" customFormat="1">
-      <c r="A26" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="67">
-        <v>2.6</v>
-      </c>
-      <c r="C26" s="67">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="66">
-        <v>126700</v>
-      </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" s="26" customFormat="1">
-      <c r="A27" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="67">
-        <v>2.62</v>
-      </c>
-      <c r="C27" s="67">
-        <v>1.012</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="66">
-        <v>31000</v>
-      </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1">
-      <c r="A28" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="67">
-        <v>2.62</v>
-      </c>
-      <c r="C28" s="67">
-        <v>1.012</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="66">
-        <v>31000</v>
-      </c>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="67">
-        <v>1</v>
-      </c>
-      <c r="C29" s="67">
-        <v>0.99</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="66">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="67">
-        <v>1</v>
-      </c>
-      <c r="C30" s="67">
-        <v>0.99</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="66">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="67">
-        <v>1</v>
-      </c>
-      <c r="C31" s="67">
-        <v>1.06</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="66">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="67">
-        <v>1</v>
-      </c>
-      <c r="C32" s="67">
-        <v>1.06</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="66">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33" s="67">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C33" s="67">
-        <v>5.2</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="66">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="67">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C34" s="67">
-        <v>5.2</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="66">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="67">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C35" s="67">
-        <v>8.66</v>
-      </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="66">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="67">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C36" s="67">
-        <v>8.66</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="66">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="67">
-        <v>2.9</v>
-      </c>
-      <c r="C37" s="67">
-        <v>2.98</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="66">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="67">
-        <v>2.9</v>
-      </c>
-      <c r="C38" s="67">
-        <v>2.98</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="66">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="67">
-        <v>1.51</v>
-      </c>
-      <c r="C39" s="67">
-        <v>3.4</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="66">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="67">
-        <v>1.51</v>
-      </c>
-      <c r="C40" s="67">
-        <v>3.4</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="66">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="67">
-        <v>3.2</v>
-      </c>
-      <c r="C41" s="67">
-        <v>3.1</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="66">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="C42" s="67">
-        <v>1</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="66">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="C43" s="67">
-        <v>1</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="66">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="67">
-        <v>0.3</v>
-      </c>
-      <c r="C44" s="67">
-        <v>0.48</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="66">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="67">
-        <v>0.3</v>
-      </c>
-      <c r="C45" s="67">
-        <v>0.48</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="66">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="67">
-        <v>10</v>
-      </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="67">
-        <v>0</v>
-      </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="66">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="67">
-        <v>7.4</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="66"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67">
-        <v>1</v>
-      </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="66">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="67">
-        <v>1.9</v>
-      </c>
-      <c r="C50" s="67">
-        <v>0.309</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="66">
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67">
-        <v>1</v>
-      </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="66"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67">
-        <v>0.98</v>
-      </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="66"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="66"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67">
-        <v>4.2</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="66"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="66"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF6699"/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="54" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="54">
-        <f>F2*0.05</f>
-        <v>40000</v>
-      </c>
-      <c r="F2" s="54">
-        <v>800000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E3" s="54">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="54">
-        <v>730000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="5">
-        <f>B3</f>
-        <v>2.7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="E4" s="54">
-        <v>11250</v>
-      </c>
-      <c r="F4" s="54">
-        <v>750000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="54">
-        <v>8700</v>
-      </c>
-      <c r="F5" s="54">
-        <v>435000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="54">
-        <v>7000</v>
-      </c>
-      <c r="F6" s="54">
-        <v>350000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.309</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9">
-        <v>1.9</v>
-      </c>
-      <c r="E9" s="54">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="54">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="54">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="54">
-        <v>13425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="54">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14">
-        <v>1.6</v>
-      </c>
-      <c r="E14" s="54">
-        <v>800</v>
-      </c>
-      <c r="H14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15">
-        <v>4.5</v>
-      </c>
-      <c r="E15" s="54">
-        <v>7423</v>
-      </c>
-      <c r="H15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="54">
-        <v>11000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="54">
-        <v>7600</v>
-      </c>
-      <c r="H17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18">
-        <v>2.4</v>
-      </c>
-      <c r="E18" s="54">
-        <v>24700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>1.22</v>
-      </c>
-      <c r="E19" s="54">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="54">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="54">
-        <v>7810</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="54">
-        <v>58140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="54">
-        <v>51170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="54">
-        <v>11375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="54">
-        <v>33450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="70">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="70">
-        <v>2030</v>
-      </c>
-      <c r="D1" s="70">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2">
-        <v>2040000</v>
-      </c>
-      <c r="C2">
-        <v>2040000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3">
-        <v>2900000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>830000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7">
-        <v>3845510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9">
-        <v>343000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11">
-        <v>730000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13">
-        <v>435000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14">
-        <v>8000000</v>
-      </c>
-      <c r="C14">
-        <v>2690000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16">
-        <v>3845510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17">
-        <v>321000</v>
-      </c>
-      <c r="C17">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18">
-        <v>7940450</v>
-      </c>
-      <c r="C18">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19">
-        <v>435000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21">
-        <v>587000</v>
-      </c>
-      <c r="C21">
-        <v>380000</v>
-      </c>
-      <c r="D21">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22">
-        <v>2270000</v>
-      </c>
-      <c r="C22">
-        <v>1930000</v>
-      </c>
-      <c r="D22">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23">
-        <v>1150000</v>
-      </c>
-      <c r="C23">
-        <v>1040000</v>
-      </c>
-      <c r="D23">
-        <v>1040000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B165A-F779-401A-A0D0-2764C99AFDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659C8F0-810E-4999-8727-B22FA3523B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="917" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29115" yWindow="17145" windowWidth="29040" windowHeight="17640" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="319">
   <si>
     <t>node</t>
   </si>
@@ -1245,9 +1245,6 @@
     <t>Others renewable</t>
   </si>
   <si>
-    <t>ROR</t>
-  </si>
-  <si>
     <t>Solar PV large</t>
   </si>
   <si>
@@ -1304,6 +1301,9 @@
   <si>
     <t>this is natural gas</t>
   </si>
+  <si>
+    <t>*battery prices were in Eur/kwh</t>
+  </si>
 </sst>
 </file>
 
@@ -1316,15 +1316,22 @@
     <numFmt numFmtId="166" formatCode="&quot;€ &quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;€ &quot;#,##0.00;[Red]&quot;€ -&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1957,23 +1964,23 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -1984,150 +1991,152 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="6" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="6" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="6" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="6" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="7" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="7" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="9" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="9" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="6" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="7" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="10" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="10" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -2312,11 +2321,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.69</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2398,11 +2433,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>74.965000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.07</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2484,11 +2545,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.832000000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2570,11 +2657,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2656,11 +2769,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.996000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2742,11 +2881,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.74</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2828,11 +2993,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2914,11 +3105,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.148</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3000,11 +3217,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7320000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3086,11 +3329,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3172,11 +3441,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3258,11 +3553,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3344,11 +3665,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>86.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.29</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3430,11 +3777,37 @@
           <c:xVal>
             <c:numRef>
               <c:f>nodeOLD!$I$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>nodeOLD!$I$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -6949,8 +7322,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>150840</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6985,7 +7358,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>866160</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10245,7 +10618,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C5"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -10633,7 +11006,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -10870,7 +11243,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -11684,7 +12057,7 @@
   <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32478,10 +32851,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32490,7 +32863,7 @@
     <col min="3" max="3" width="12.5703125" style="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -32501,20 +32874,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>2050</v>
       </c>
-      <c r="C2" s="109">
-        <v>284000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="115">
+        <f>284000*4</f>
+        <v>1136000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>2050</v>
@@ -32523,9 +32900,9 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>2050</v>
@@ -32534,9 +32911,9 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>2050</v>
@@ -32545,9 +32922,9 @@
         <v>1040000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>2050</v>
@@ -32556,7 +32933,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -32567,9 +32944,9 @@
         <v>7940450</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>2050</v>
@@ -32578,9 +32955,9 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="110" t="s">
-        <v>309</v>
+    <row r="9" spans="1:5">
+      <c r="A9" s="114" t="s">
+        <v>308</v>
       </c>
       <c r="B9">
         <v>2050</v>
@@ -32589,9 +32966,9 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="110" t="s">
-        <v>310</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="114" t="s">
+        <v>309</v>
       </c>
       <c r="B10">
         <v>2050</v>
@@ -32600,9 +32977,9 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>299</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="114" t="s">
+        <v>87</v>
       </c>
       <c r="B11">
         <v>2050</v>
@@ -32611,125 +32988,48 @@
         <v>2990000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>304</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="114" t="s">
+        <v>310</v>
       </c>
       <c r="B12">
         <v>2050</v>
       </c>
       <c r="C12" s="109">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>307</v>
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="114" t="s">
+        <v>311</v>
       </c>
       <c r="B13">
         <v>2050</v>
       </c>
       <c r="C13" s="109">
-        <v>4040000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>295</v>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="114" t="s">
+        <v>312</v>
       </c>
       <c r="B14">
         <v>2050</v>
       </c>
       <c r="C14" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="36">
         <v>2050</v>
       </c>
-      <c r="C15" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16">
-        <v>2050</v>
-      </c>
-      <c r="C16" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17">
-        <v>2050</v>
-      </c>
-      <c r="C17" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18">
-        <v>2050</v>
-      </c>
-      <c r="C18" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19">
-        <v>2050</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C20" s="39">
-        <v>730000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C21" s="39">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C22" s="39">
-        <v>435000</v>
+      <c r="C15" s="39">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>
@@ -32742,10 +33042,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32753,7 +33053,7 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -32761,47 +33061,47 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>9500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>12600</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>39000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -32809,124 +33109,77 @@
         <v>111166.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>64000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>299</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B11">
         <v>14950</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13">
-        <v>68680</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="105">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="105">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="105">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="105">
+        <v>7000</v>
+      </c>
+      <c r="C15" s="105"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B19">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="105">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="105">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="105">
-        <v>8700</v>
+        <v>68680</v>
       </c>
     </row>
   </sheetData>
@@ -32941,8 +33194,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32963,7 +33216,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="111">
         <v>2050</v>
@@ -33007,7 +33260,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="111">
         <v>2050</v>
@@ -33029,7 +33282,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="111">
         <v>2050</v>
@@ -33082,7 +33335,7 @@
         <v>48.579252851200003</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -33162,7 +33415,7 @@
         <v>45.1</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -33175,10 +33428,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33211,7 +33464,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>1.8</v>
@@ -33234,7 +33487,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -33257,7 +33510,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -33280,7 +33533,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -33303,7 +33556,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -33349,7 +33602,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>2.6</v>
@@ -33372,7 +33625,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -33395,7 +33648,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -33417,8 +33670,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>299</v>
+      <c r="A11" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -33440,14 +33693,14 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="A12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.85</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -33463,14 +33716,15 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="A13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12</f>
+        <v>2.7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.61</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -33486,14 +33740,14 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14">
-        <v>208.82539682539681</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="A14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -33509,14 +33763,14 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="5">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0.56000000000000005</v>
+      <c r="C15" s="5">
+        <v>0.74</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -33531,61 +33785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.42</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0.25</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>208.82539682539681</v>
       </c>
       <c r="C18">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -33602,13 +33810,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -33624,14 +33832,14 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.85</v>
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.42</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -33647,15 +33855,14 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="5">
-        <f>B20</f>
-        <v>2.7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.61</v>
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -33671,14 +33878,14 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.4</v>
+      <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.7</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -33690,6 +33897,75 @@
         <v>0</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
     </row>
@@ -33700,13 +33976,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -33746,7 +34022,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>139</v>
       </c>
@@ -33762,7 +34038,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:20" hidden="1">
+    <row r="3" spans="1:20">
       <c r="A3" s="27" t="s">
         <v>141</v>
       </c>
@@ -33781,7 +34057,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:20" hidden="1">
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
@@ -33797,7 +34073,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>146</v>
       </c>
@@ -33814,7 +34090,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:20" hidden="1">
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>147</v>
       </c>
@@ -33831,7 +34107,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20">
       <c r="A7" s="27" t="s">
         <v>148</v>
       </c>
@@ -33852,7 +34128,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>149</v>
       </c>
@@ -33869,7 +34145,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>150</v>
       </c>
@@ -33886,7 +34162,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>151</v>
       </c>
@@ -33903,7 +34179,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
@@ -33924,7 +34200,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
@@ -33954,7 +34230,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>155</v>
       </c>
@@ -33984,7 +34260,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:20" hidden="1">
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>156</v>
       </c>
@@ -34014,7 +34290,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:20" hidden="1">
+    <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>157</v>
       </c>
@@ -34043,7 +34319,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>158</v>
       </c>
@@ -34079,7 +34355,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1">
+    <row r="17" spans="1:23">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
@@ -34118,7 +34394,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1">
+    <row r="18" spans="1:23">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
@@ -34171,7 +34447,7 @@
         <v>74.268000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
         <v>144</v>
       </c>
@@ -34203,7 +34479,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:23" hidden="1">
+    <row r="20" spans="1:23">
       <c r="A20" s="5" t="s">
         <v>146</v>
       </c>
@@ -34235,7 +34511,7 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
     </row>
-    <row r="21" spans="1:23" hidden="1">
+    <row r="21" spans="1:23">
       <c r="A21" s="5" t="s">
         <v>147</v>
       </c>
@@ -34267,7 +34543,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
     </row>
-    <row r="22" spans="1:23" hidden="1">
+    <row r="22" spans="1:23">
       <c r="A22" s="27" t="s">
         <v>148</v>
       </c>
@@ -34316,7 +34592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5" hidden="1">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="5" t="s">
         <v>149</v>
       </c>
@@ -34361,7 +34637,7 @@
         <v>48.936</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1">
+    <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
@@ -34396,7 +34672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
         <v>151</v>
       </c>
@@ -34428,7 +34704,7 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:23" hidden="1">
+    <row r="26" spans="1:23">
       <c r="A26" s="5" t="s">
         <v>152</v>
       </c>
@@ -34469,7 +34745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
@@ -34496,7 +34772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1">
+    <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
         <v>155</v>
       </c>
@@ -34519,7 +34795,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
     </row>
-    <row r="29" spans="1:23" ht="17.25" hidden="1">
+    <row r="29" spans="1:23" ht="17.25">
       <c r="A29" s="5" t="s">
         <v>156</v>
       </c>
@@ -34537,7 +34813,7 @@
       <c r="Q29" s="25"/>
       <c r="U29" s="33"/>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
         <v>157</v>
       </c>
@@ -34554,7 +34830,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:23" hidden="1">
+    <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
@@ -34571,7 +34847,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -34589,7 +34865,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
@@ -34607,7 +34883,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -34628,7 +34904,7 @@
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -34646,7 +34922,7 @@
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
@@ -34664,7 +34940,7 @@
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" s="5" t="s">
         <v>147</v>
       </c>
@@ -34682,7 +34958,7 @@
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" s="27" t="s">
         <v>148</v>
       </c>
@@ -34703,7 +34979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" s="5" t="s">
         <v>149</v>
       </c>
@@ -34717,7 +34993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" s="5" t="s">
         <v>150</v>
       </c>
@@ -34731,7 +35007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -34745,7 +35021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" s="5" t="s">
         <v>152</v>
       </c>
@@ -34759,7 +35035,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" s="5" t="s">
         <v>153</v>
       </c>
@@ -34776,7 +35052,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" s="5" t="s">
         <v>155</v>
       </c>
@@ -34790,7 +35066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="A45" s="5" t="s">
         <v>156</v>
       </c>
@@ -34804,7 +35080,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" s="5" t="s">
         <v>158</v>
       </c>
@@ -34818,7 +35094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" s="5" t="s">
         <v>157</v>
       </c>
@@ -35574,13 +35850,7 @@
       <c r="H97" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="natural_gas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -35596,7 +35866,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C34"/>
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -36448,7 +36718,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D16"/>
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659C8F0-810E-4999-8727-B22FA3523B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9DFA8-0693-49C6-9907-FB10D72C5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="17145" windowWidth="29040" windowHeight="17640" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29115" yWindow="17145" windowWidth="29040" windowHeight="17640" tabRatio="917" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="unit2030-none_traderes" sheetId="15" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">investmentCosts!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">investmentCostsOLD!$A$1:$F$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">nodeOLD!$A$1:$C$50</definedName>
   </definedNames>
@@ -1980,7 +1981,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2137,6 +2138,9 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -32853,8 +32857,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32876,163 +32880,168 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B2">
         <v>2050</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="109">
+        <v>2400000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3">
+        <v>2050</v>
+      </c>
+      <c r="C3" s="117">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4" s="109">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+      <c r="C5" s="109">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6">
+        <v>2050</v>
+      </c>
+      <c r="C6" s="109">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="114" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="109">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="109">
+        <v>2990000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9">
+        <v>2050</v>
+      </c>
+      <c r="C9" s="115">
         <f>284000*4</f>
         <v>1136000</v>
       </c>
-      <c r="E2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3">
-        <v>2050</v>
-      </c>
-      <c r="C3" s="109">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>2050</v>
-      </c>
-      <c r="C4" s="109">
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5">
-        <v>2050</v>
-      </c>
-      <c r="C5" s="109">
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6">
-        <v>2050</v>
-      </c>
-      <c r="C6" s="109">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>98</v>
-      </c>
-      <c r="B7">
-        <v>2050</v>
-      </c>
-      <c r="C7" s="109">
-        <v>7940450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8">
-        <v>2050</v>
-      </c>
-      <c r="C8" s="109">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9">
-        <v>2050</v>
-      </c>
-      <c r="C9" s="109">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="114" t="s">
-        <v>309</v>
       </c>
       <c r="B10">
         <v>2050</v>
       </c>
       <c r="C10" s="109">
-        <v>600000</v>
+        <v>7940450</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="114" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="B11">
         <v>2050</v>
       </c>
       <c r="C11" s="109">
-        <v>2990000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="114" t="s">
-        <v>310</v>
+      <c r="A12" t="s">
+        <v>299</v>
       </c>
       <c r="B12">
         <v>2050</v>
       </c>
       <c r="C12" s="109">
-        <v>730000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="114" t="s">
-        <v>311</v>
+      <c r="A13" t="s">
+        <v>300</v>
       </c>
       <c r="B13">
         <v>2050</v>
       </c>
       <c r="C13" s="109">
-        <v>750000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="114" t="s">
-        <v>312</v>
+      <c r="A14" t="s">
+        <v>305</v>
       </c>
       <c r="B14">
         <v>2050</v>
       </c>
       <c r="C14" s="109">
-        <v>435000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="36">
+        <v>301</v>
+      </c>
+      <c r="B15" s="5">
         <v>2050</v>
       </c>
-      <c r="C15" s="39">
-        <v>350000</v>
+      <c r="C15" s="118">
+        <v>1040000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{85F03AC0-C286-4832-973E-33BE549E25F2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33045,12 +33054,12 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -33195,7 +33204,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33430,8 +33439,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9DFA8-0693-49C6-9907-FB10D72C5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D6425-99C5-4515-83B1-0E1C223146AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="17145" windowWidth="29040" windowHeight="17640" tabRatio="917" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId20"/>
-    <pivotCache cacheId="1" r:id="rId21"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="321">
   <si>
     <t>node</t>
   </si>
@@ -1305,6 +1305,12 @@
   <si>
     <t>*battery prices were in Eur/kwh</t>
   </si>
+  <si>
+    <t>eur/mwh</t>
+  </si>
+  <si>
+    <t>eur/mw</t>
+  </si>
 </sst>
 </file>
 
@@ -1981,7 +1987,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2137,9 +2143,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
@@ -8542,7 +8545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8612,7 +8615,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -32857,8 +32860,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32893,13 +32896,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116" t="s">
+      <c r="A3" t="s">
         <v>206</v>
       </c>
       <c r="B3">
         <v>2050</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="50">
         <v>350000</v>
       </c>
     </row>
@@ -32965,9 +32968,8 @@
       <c r="B9">
         <v>2050</v>
       </c>
-      <c r="C9" s="115">
-        <f>284000*4</f>
-        <v>1136000</v>
+      <c r="C9" s="109">
+        <v>360000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -33032,7 +33034,7 @@
       <c r="B15" s="5">
         <v>2050</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="115">
         <v>1040000</v>
       </c>
     </row>
@@ -33439,8 +33441,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33479,7 +33481,7 @@
         <v>1.8</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="D2">
         <v>0.92</v>
@@ -35869,13 +35871,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -35914,7 +35916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>188</v>
       </c>
@@ -35931,7 +35933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>191</v>
       </c>
@@ -35948,7 +35950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -35965,7 +35967,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -35986,7 +35988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -36000,7 +36002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>195</v>
       </c>
@@ -36014,7 +36016,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -36028,7 +36030,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -36045,7 +36047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -36060,7 +36062,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>195</v>
       </c>
@@ -36088,7 +36090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="44" t="s">
         <v>107</v>
       </c>
@@ -36102,7 +36104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="44" t="s">
         <v>107</v>
       </c>
@@ -36116,7 +36118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -36131,7 +36133,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
@@ -36146,7 +36148,7 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>200</v>
       </c>
@@ -36161,7 +36163,7 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -36176,7 +36178,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -36198,7 +36200,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -36213,7 +36215,7 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -36228,7 +36230,7 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -36243,7 +36245,7 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>111</v>
       </c>
@@ -36257,9 +36259,24 @@
       <c r="F23" t="s">
         <v>198</v>
       </c>
-      <c r="L23" s="48"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1">
+      <c r="G23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23">
+        <v>62000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>320</v>
+      </c>
+      <c r="J23">
+        <v>160000</v>
+      </c>
+      <c r="K23">
+        <f>H23*4+J23</f>
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -36306,7 +36323,7 @@
       <c r="I26" s="50"/>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>204</v>
       </c>
@@ -36356,7 +36373,7 @@
       </c>
       <c r="L29" s="48"/>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="52" t="s">
         <v>205</v>
       </c>
@@ -36479,6 +36496,22 @@
       <c r="F37" t="s">
         <v>198</v>
       </c>
+      <c r="G37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37">
+        <v>35000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37">
+        <v>60000</v>
+      </c>
+      <c r="K37">
+        <f>H37*4+J37</f>
+        <v>200000</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
@@ -36526,7 +36559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>207</v>
       </c>
@@ -36540,7 +36573,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
         <v>207</v>
       </c>
@@ -36554,7 +36587,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
         <v>209</v>
       </c>
@@ -36569,7 +36602,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
         <v>209</v>
       </c>
@@ -36601,7 +36634,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -36618,7 +36651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
@@ -36649,7 +36682,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -36666,7 +36699,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -36699,11 +36732,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2050,00"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:F51">
       <sortCondition ref="A1:A51"/>
     </sortState>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D6425-99C5-4515-83B1-0E1C223146AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9ED71-18B5-48DA-BD0A-0F5BC25DC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">investmentCostsOLD!$A$1:$F$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">nodeOLD!$A$1:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId20"/>
-    <pivotCache cacheId="4" r:id="rId21"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="321">
   <si>
     <t>node</t>
   </si>
@@ -1325,7 +1325,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1526,6 +1526,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1987,7 +1994,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2144,6 +2151,8 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -8545,7 +8554,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8615,7 +8624,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -9553,7 +9562,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -10625,7 +10634,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32858,10 +32867,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32962,26 +32971,27 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="116">
         <v>2050</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="117">
         <v>360000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="116">
         <v>2050</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="117">
         <v>7940450</v>
       </c>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="114" t="s">
@@ -33036,6 +33046,17 @@
       </c>
       <c r="C15" s="115">
         <v>1040000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C16" s="115">
+        <v>412000</v>
       </c>
     </row>
   </sheetData>
@@ -33053,10 +33074,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33064,7 +33085,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -33072,63 +33093,66 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="116">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="116">
         <v>9500</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="116" t="s">
         <v>300</v>
       </c>
       <c r="B4">
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="116">
         <v>12600</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="116">
         <v>39000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="116">
         <v>111166.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="116">
         <v>64000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="116"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="110" t="s">
         <v>308</v>
       </c>
@@ -33136,7 +33160,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="110" t="s">
         <v>309</v>
       </c>
@@ -33144,7 +33168,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -33152,7 +33176,7 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>310</v>
       </c>
@@ -33160,7 +33184,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>311</v>
       </c>
@@ -33168,7 +33192,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>312</v>
       </c>
@@ -33176,7 +33200,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>206</v>
       </c>
@@ -33184,6 +33208,15 @@
         <v>7000</v>
       </c>
       <c r="C15" s="105"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="105">
+        <v>7423</v>
+      </c>
+      <c r="C16" s="105"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -33206,7 +33239,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33439,10 +33472,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33450,7 +33483,7 @@
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>293</v>
       </c>
@@ -33473,7 +33506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -33496,7 +33529,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -33519,7 +33552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -33542,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -33565,7 +33598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -33588,53 +33621,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="116">
         <v>3.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="116">
         <v>0.35</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="116">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="116">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="116">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="116">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="H7" s="116"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="116">
         <v>2.6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="116">
         <v>0.309</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="116">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="116">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="116">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="116">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="116"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="110" t="s">
         <v>308</v>
       </c>
@@ -33657,7 +33692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="110" t="s">
         <v>309</v>
       </c>
@@ -33680,7 +33715,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -33703,7 +33738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>310</v>
       </c>
@@ -33726,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>311</v>
       </c>
@@ -33750,7 +33785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>312</v>
       </c>
@@ -33773,7 +33808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>206</v>
       </c>
@@ -33793,6 +33828,29 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.43</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
@@ -33992,8 +34050,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -35877,7 +35935,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -36755,7 +36813,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9ED71-18B5-48DA-BD0A-0F5BC25DC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CA2D8-4F11-4E4D-894A-AA9E1138C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -1994,7 +1994,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2150,9 +2150,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -32869,8 +32867,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32911,7 +32909,7 @@
       <c r="B3">
         <v>2050</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="109">
         <v>350000</v>
       </c>
     </row>
@@ -32971,27 +32969,27 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="115">
         <v>2050</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="109">
         <v>360000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="115">
         <v>2050</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="109">
         <v>7940450</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="115"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="114" t="s">
@@ -33044,7 +33042,7 @@
       <c r="B15" s="5">
         <v>2050</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="109">
         <v>1040000</v>
       </c>
     </row>
@@ -33055,7 +33053,7 @@
       <c r="B16" s="5">
         <v>2050</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="109">
         <v>412000</v>
       </c>
     </row>
@@ -33074,10 +33072,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33085,7 +33083,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -33093,130 +33091,125 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="116" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3">
         <v>9500</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>300</v>
       </c>
       <c r="B4">
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5">
         <v>12600</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="116" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6">
         <v>39000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7">
         <v>111166.3</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="116" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8">
         <v>64000</v>
       </c>
-      <c r="C8" s="116"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="110" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>308</v>
       </c>
       <c r="B9">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
       <c r="B10">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="B11">
         <v>14950</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12">
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13">
         <v>11250</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>312</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15">
         <v>7000</v>
       </c>
-      <c r="C15" s="105"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16">
         <v>7423</v>
       </c>
-      <c r="C16" s="105"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -33239,7 +33232,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33474,8 +33467,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33487,13 +33480,13 @@
       <c r="A1" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" t="s">
         <v>213</v>
       </c>
       <c r="E1" s="60" t="s">
@@ -33622,55 +33615,55 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="116" t="s">
+      <c r="A7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7">
         <v>3.5</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7">
         <v>0.35</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <v>0</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="115">
         <v>0</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="115">
         <v>0</v>
       </c>
-      <c r="H7" s="116"/>
+      <c r="H7" s="115"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="116" t="s">
+      <c r="A8" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8">
         <v>2.6</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8">
         <v>0.309</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="115">
         <v>0</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="115">
         <v>0</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="115">
         <v>0</v>
       </c>
-      <c r="H8" s="116"/>
+      <c r="H8" s="115"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="110" t="s">
+      <c r="A9" t="s">
         <v>308</v>
       </c>
       <c r="B9">
@@ -33693,7 +33686,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="110" t="s">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
       <c r="B10">
@@ -33716,7 +33709,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="B11">
@@ -33739,13 +33732,13 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>2.7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.85</v>
       </c>
       <c r="D12">
@@ -33762,14 +33755,14 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <f>B12</f>
         <v>2.7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>0.61</v>
       </c>
       <c r="D13">
@@ -33786,13 +33779,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>312</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>1.5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>0.4</v>
       </c>
       <c r="D14">
@@ -33809,13 +33802,13 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>0.74</v>
       </c>
       <c r="D15">
@@ -33832,13 +33825,13 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16">
         <v>4.5</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16">
         <v>0.43</v>
       </c>
       <c r="D16">

--- a/data/exported_Traderes.xlsx
+++ b/data/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CA2D8-4F11-4E4D-894A-AA9E1138C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E9DFD-741B-4E7A-94F4-DD39EE6A3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="917" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,25 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={07F2B0EF-D1C5-4412-8A5C-0327FC46E532}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{07F2B0EF-D1C5-4412-8A5C-0327FC46E532}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Eur/MW
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -89,7 +108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -134,7 +153,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -180,7 +199,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -242,7 +261,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -269,7 +288,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -298,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="320">
   <si>
     <t>node</t>
   </si>
@@ -1297,12 +1316,6 @@
     <t>BiogasRetro</t>
   </si>
   <si>
-    <t>this is hydrogen</t>
-  </si>
-  <si>
-    <t>this is natural gas</t>
-  </si>
-  <si>
     <t>*battery prices were in Eur/kwh</t>
   </si>
   <si>
@@ -1310,6 +1323,9 @@
   </si>
   <si>
     <t>eur/mw</t>
+  </si>
+  <si>
+    <t>central gas boiler</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1341,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1532,6 +1548,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1994,7 +2016,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2151,6 +2173,7 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -7572,6 +7595,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ingrid Sanchez Jimenez" id="{948A5E0A-4A25-4A83-989D-159E3C2EE73E}" userId="S::isanchezjimene@tudelft.nl::cc90341c-89c3-4988-92a9-0175758ccb6e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8969,6 +8998,15 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-12-04T19:59:53.38" personId="{948A5E0A-4A25-4A83-989D-159E3C2EE73E}" id="{07F2B0EF-D1C5-4412-8A5C-0327FC46E532}">
+    <text xml:space="preserve">Eur/MW
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
@@ -32865,10 +32903,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32899,7 +32937,7 @@
         <v>2400000</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -33055,6 +33093,17 @@
       </c>
       <c r="C16" s="109">
         <v>412000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17">
+        <v>2050</v>
+      </c>
+      <c r="C17" s="109">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -33068,14 +33117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE22B4-5931-48E0-9D87-BB3C49EE7BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE22B4-5931-48E0-9D87-BB3C49EE7BE9}">
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33211,6 +33260,14 @@
         <v>7423</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17">
+        <v>1700</v>
+      </c>
+    </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>306</v>
@@ -33221,6 +33278,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33229,10 +33287,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33240,7 +33298,7 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="113" t="s">
         <v>160</v>
       </c>
@@ -33251,7 +33309,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>313</v>
       </c>
@@ -33262,7 +33320,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" s="110" t="s">
         <v>151</v>
       </c>
@@ -33273,7 +33331,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" s="110" t="s">
         <v>146</v>
       </c>
@@ -33284,7 +33342,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" s="110" t="s">
         <v>149</v>
       </c>
@@ -33295,7 +33353,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -33306,7 +33364,7 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:3">
       <c r="A7" s="110" t="s">
         <v>156</v>
       </c>
@@ -33317,7 +33375,7 @@
         <v>74.66</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -33328,7 +33386,7 @@
         <v>74.66</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9" s="110" t="s">
         <v>152</v>
       </c>
@@ -33339,7 +33397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>147</v>
       </c>
@@ -33350,7 +33408,7 @@
         <v>46.996000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -33361,21 +33419,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:3">
       <c r="A12" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="5">
         <v>2050</v>
       </c>
-      <c r="C12" s="28">
-        <v>48.579252851200003</v>
-      </c>
-      <c r="E12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="5">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
@@ -33386,7 +33441,7 @@
         <v>32.83</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
@@ -33397,7 +33452,7 @@
         <v>14.148</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -33408,7 +33463,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -33419,7 +33474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
@@ -33430,7 +33485,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>139</v>
       </c>
@@ -33441,18 +33496,15 @@
         <v>79.69</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:3">
       <c r="A19" s="112" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="5">
         <v>2050</v>
       </c>
-      <c r="C19" s="5">
-        <v>45.1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>316</v>
+      <c r="C19" s="28">
+        <v>48.579252851200003</v>
       </c>
     </row>
   </sheetData>
@@ -33465,10 +33517,10 @@
   <sheetPr>
     <tabColor rgb="FFE945D2"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33847,61 +33899,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18">
-        <v>208.82539682539681</v>
-      </c>
-      <c r="C18">
+    <row r="17" spans="1:7">
+      <c r="A17" s="116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="C17">
+        <v>1.04</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>208.82539682539681</v>
       </c>
       <c r="C20">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -33918,13 +33947,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -33941,13 +33970,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -33964,13 +33993,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -33987,13 +34016,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -34010,13 +34039,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -34028,6 +34057,52 @@
         <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
     </row>
@@ -34043,8 +34118,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -36311,13 +36386,13 @@
         <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H23">
         <v>62000</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J23">
         <v>160000</v>
@@ -36548,13 +36623,13 @@
         <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H37">
         <v>35000</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J37">
         <v>60000</v>
